--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29307664-3939-4D5D-9161-8E2F2DB0E99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E62FF2B-72D0-4962-8C06-7F9D17E112E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="330" windowWidth="14505" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="282">
   <si>
     <t>figure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,30 +457,6 @@
   </si>
   <si>
     <t>linewidth(): float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markeredgewidth: float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markerfacecolor: color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markeredgecolor: color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markersize: float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>markerver:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3620,26 +3596,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>markevery: marker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的数量及方式</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fillstyle: {'full','left','right','bottom','top','none'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pickradius:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3862,10 +3818,6 @@
   </si>
   <si>
     <t>ydata:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>marker:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4183,12 +4135,511 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>marker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linewidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pickradius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rasterized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sketch_params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sloid_capstyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solid_jointstyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xdata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ydata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>agg_filter():</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过滤函数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backgroundcolor: color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">bbox: dict with properties for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>patches.FancyBboxPatch</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_box: Bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clip_on: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">color/c(): color, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字体颜色</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure: Figure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontfamily/family: {FONTNAME, 'serif', 'sans-serif', 'cursive', 'fantasy', 'monospace'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fontproperties/font/font_properties: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>font_manager.FontProperties or str or pathlib.Path</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontsize/size: float or {'xx-small', 'x-small', 'small', 'medium', 'large', 'x-large', 'xx-large'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontstretch/stretch: {a numeric value in range 0-1000, 'ultra-condensed', 'extra-condensed', 'condensed', 'semi-condensed', 'normal', 'semi-expanded', 'expanded', 'extra-expanded', 'ultra-expanded'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体在屏幕上展开的程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontstyle/style: {'normal', 'italic', 'oblique'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fontweight/weight: {a numeric value in range 0-1000, 'ultralight', 'light', 'normal', 'regular', 'book', 'medium', 
+'roman', 'semibold', 'demibold', 'demi', 'bold', 'heavy', 'extra bold', 'black'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字体粗细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid: str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontalalignment/ha: {'center', 'right', 'left'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontalalignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平对齐方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">linespacing: float, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行距</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linespacing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>math_fontfamily: str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">multialignment/ma: {'left','right','center'} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多行对齐方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">path_effects: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> matplotlib.patheffects</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position():(float,float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rasterized:bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roation: float, {'vertical','horizontal'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation_mode: {None, 'default', 'anchor'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rotation_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 文本内容</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transform_rotates_text: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usetex: bool, None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verticalalignment/va: {'center', 'top', 'bottom', 'baseline', 'center_baseline'}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verticalalignment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖直对齐方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visible: bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动换行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt.set_bbox(dict(facecolor='red', alpha=0.3))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x: float, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本坐标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">y: float </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文本坐标y轴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathPatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Axes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line2D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt.set_fontproperties(fp=font_manager.FontProperties(family="fantasy",style='italic',variant='small-caps',size=30))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xaxis.tick_top()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.xaxis.tick_top()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.xaxis.set_ticks_position('bottom')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xaxis.set_ticks_position()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaxis.set_ticks_position()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.yaxis.set_ticks_position('right')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标刻度位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matplotlib:mpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpl.rcParams['path.simplify_threshold'] = 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.set_axis_off()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4278,6 +4729,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4299,33 +4756,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4347,23 +4803,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>484720</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151683</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>511969</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3565B894-DE60-19EA-B5F9-7ABB268A29ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10FF309-631E-3401-C026-10A761A969EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4372,42 +4828,446 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="390525"/>
-          <a:ext cx="8438095" cy="5733333"/>
+          <a:off x="142875" y="178594"/>
+          <a:ext cx="8655844" cy="6364126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>23810</xdr:rowOff>
     </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83242BAC-9FEC-1012-D2D9-D7CE28B32F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="102469" y="7322344"/>
+          <a:ext cx="8708156" cy="4845841"/>
+          <a:chOff x="102469" y="7322344"/>
+          <a:chExt cx="8708156" cy="4845841"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Group 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474FB1C3-26F0-5D0C-B7B3-34C0CD664ABF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="102469" y="7322344"/>
+            <a:ext cx="8708156" cy="4845841"/>
+            <a:chOff x="102469" y="7322344"/>
+            <a:chExt cx="8708156" cy="4845841"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Picture 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC9C89D-AFFA-3994-31A7-C1FCD19F7292}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="102469" y="7401402"/>
+              <a:ext cx="8678563" cy="4683957"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="Rectangle 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD9D5A-6F30-1785-F9FB-EA15E83EB5CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1893095" y="7322344"/>
+              <a:ext cx="6917530" cy="4845841"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AC81EF-C790-5156-F52A-39B3AEE4F705}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2107406" y="10894218"/>
+              <a:ext cx="867225" cy="468013"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+                <a:t>Artist</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E73623F-CDFA-6EA9-E87C-26D042E8E6A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2000250" y="7631906"/>
+            <a:ext cx="1488281" cy="2976563"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="TextBox 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CAC290-5839-6ED5-C281-E118856F45A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2119312" y="7941469"/>
+            <a:ext cx="1266437" cy="439736"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+              <a:t>复合</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>Artist</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rectangle 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74A7580-8F89-086B-895F-1BC9666ACB77}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3798094" y="7393781"/>
+            <a:ext cx="4988718" cy="4691063"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="TextBox 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B9D043-F21B-475F-A3B5-7ECFBAFA0978}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6055594" y="7453313"/>
+            <a:ext cx="1802531" cy="468013"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+              <a:t>基本</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+              <a:t>Artist</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>559592</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="583407" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
+        <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FE0D88-08CB-2D1F-F720-E40278DA9D50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{955493ED-5B2E-224F-9732-5DB0451E104B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4415,16 +5275,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2533650" y="657225"/>
-          <a:ext cx="809625" cy="523875"/>
+          <a:off x="1940717" y="5548312"/>
+          <a:ext cx="583407" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -4437,22 +5294,24 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Figure</a:t>
+            <a:t>tick</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4461,26 +5320,21 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>366711</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1014414" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682AD1FF-503E-4852-9D34-E2E0FDEF2572}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D21D7CF-96B8-457A-B50A-E63FD58CAAB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4488,16 +5342,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="1419225"/>
-          <a:ext cx="809625" cy="523875"/>
+          <a:off x="1747836" y="6069805"/>
+          <a:ext cx="1014414" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -4510,22 +5361,24 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Axes</a:t>
+            <a:t>ticklabel</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4534,26 +5387,21 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590548</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="1014414" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B39B6E-EE18-4EFB-ADB0-F77695172609}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C7DAB1-444A-4CF0-9ABD-16601D2CEA57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,16 +5409,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5876925" y="2800350"/>
-          <a:ext cx="809625" cy="523875"/>
+          <a:off x="4043361" y="6305549"/>
+          <a:ext cx="1014414" cy="342786"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -4583,22 +5428,24 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Artist</a:t>
+            <a:t>xlabel</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -4607,226 +5454,7 @@
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9438B39A-E306-46F5-AC36-E68155FB38A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6762750" y="419100"/>
-          <a:ext cx="809625" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Title</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183FE388-0151-4CA3-8604-8CE4F8CD055C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2695575" y="5381625"/>
-          <a:ext cx="809625" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>tick</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F9255A-1073-4446-AE71-C00B411AFB59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6638925" y="5648325"/>
-          <a:ext cx="809625" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Label</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5093,1239 +5721,1802 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="61.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="64.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="65.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="45.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="64.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H5" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15.75">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="47.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="45">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.75">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75">
+      <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="15.75">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="47.25">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="45">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="15.75">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="6">
         <v>221</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="109.5">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="109.5">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F23" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="60.75">
+      <c r="A25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="63">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="1" t="s">
+      <c r="E38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75">
-      <c r="A23" s="1" t="s">
+      <c r="C39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75">
-      <c r="A24" s="1" t="s">
+      <c r="C40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="75.75">
+      <c r="A42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="121.5">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="60">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="170.25">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="44.25">
+      <c r="A50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="75">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="60">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45">
+      <c r="A55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="75">
+      <c r="A56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1" ht="60.75">
-      <c r="A25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1" ht="15.75">
-      <c r="A26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="E63" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="A27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75">
-      <c r="A28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E64" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75">
-      <c r="A31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="63">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="E66" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="30">
+      <c r="A68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="30">
+      <c r="A71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="45">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="30">
+      <c r="A73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="30">
+      <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="120">
+      <c r="A80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="60">
+      <c r="A85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30">
+      <c r="A86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30">
+      <c r="A87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="30">
+      <c r="A90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30">
+      <c r="A93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="150">
+      <c r="A94" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="C94" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
-      <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="E94" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="C95" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="C96" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="C97" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="3:6">
+      <c r="C98" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6" ht="30">
+      <c r="C99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="3:6">
+      <c r="C100" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="C101" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="C102" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="C103" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="3:6">
+      <c r="C104" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="3:6">
+      <c r="C105" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="3:6" ht="30">
+      <c r="C106" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6" ht="45">
+      <c r="C107" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="108" spans="3:6" ht="30">
+      <c r="C108" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="3:6" ht="45">
+      <c r="C109" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6">
+      <c r="C110" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6" ht="45">
+      <c r="C111" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6">
+      <c r="C112" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="C113" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="C114" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="115" spans="3:6">
+      <c r="C115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
-      <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75">
-      <c r="A40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75">
-      <c r="A41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="E115" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="C116" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="C117" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="C118" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="C119" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="C120" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="75.75">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="106.5">
-      <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    </row>
+    <row r="121" spans="3:6">
+      <c r="C121" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="C122" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6">
+      <c r="C123" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="C124" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6">
+      <c r="C125" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="60">
-      <c r="A45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="10" t="s">
+    </row>
+    <row r="126" spans="3:6" ht="60">
+      <c r="C126" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="170.25">
-      <c r="A46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75">
-      <c r="A47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="10" t="s">
+    </row>
+    <row r="127" spans="3:6">
+      <c r="C127" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6">
+      <c r="C128" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="44.25">
-      <c r="A50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="75">
-      <c r="A51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="60">
-      <c r="A54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="45">
-      <c r="A56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="C58" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="C59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="C60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="C61" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="C62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="30">
-      <c r="C64" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" ht="30">
-      <c r="C67" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6" ht="45">
-      <c r="C68" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" ht="30">
-      <c r="C69" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="C71" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="C73" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6" ht="30">
-      <c r="C74" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="120">
-      <c r="C76" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6">
-      <c r="C77" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="C78" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="C79" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="60">
-      <c r="C81" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="30">
-      <c r="C82" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="30">
-      <c r="C83" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="C84" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="C85" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="30">
-      <c r="C86" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="C87" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="C88" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="30">
-      <c r="C89" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="150">
-      <c r="B90" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="C95" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="C96" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3">
-      <c r="C98" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="1" t="s">
-        <v>187</v>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="C129" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="C130" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="C131" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="C132" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="C133" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="C134" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="C135" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="C136" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30">
+      <c r="A138" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="B139" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H105" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6333,14 +7524,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B17E226-5CA3-4868-9A71-335DAF8C6627}">
-  <dimension ref="A1"/>
+  <dimension ref="R6:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="18" max="18" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="18:18">
+      <c r="R6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="18:18">
+      <c r="R7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="18:18">
+      <c r="R8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="18:18">
+      <c r="R10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="18:18">
+      <c r="R11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E62FF2B-72D0-4962-8C06-7F9D17E112E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60FBB1-A62A-4ED3-84B8-B358EE412930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Linkage" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$H$105</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="291">
   <si>
     <t>figure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4634,12 +4635,48 @@
     <t>ax.set_axis_off()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Colormap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.zzvips.com/article/185609.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qb5200.com/article/542184.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dash.plotly.com/faqs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.douyacun.com/pdf/remove-watermark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去水印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/sinat_32570141/article/details/113048947?ops_request_misc=%257B%2522request%255Fid%2522%253A%2522167741057116800215088700%2522%252C%2522scm%2522%253A%252220140713.130102334..%2522%257D&amp;request_id=167741057116800215088700&amp;biz_id=0&amp;utm_medium=distribute.pc_search_result.none-task-blog-2~all~sobaiduend~default-1-113048947-null-null.142^v73^pc_new_rank,201^v4^add_ask,239^v2^insert_chatgpt&amp;utm_term=matplotlib%20%E5%9D%90%E6%A0%87%E7%B3%BB&amp;spm=1018.2226.3001.4187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4735,6 +4772,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4753,10 +4798,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4782,8 +4828,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4883,7 +4931,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="102469" y="7322344"/>
-          <a:ext cx="8708156" cy="4845841"/>
+          <a:ext cx="8636719" cy="4845841"/>
           <a:chOff x="102469" y="7322344"/>
           <a:chExt cx="8708156" cy="4845841"/>
         </a:xfrm>
@@ -5455,6 +5503,173 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>14883</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37207</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="655179" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE98357-6981-45E5-A905-7A3E8841CF2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6860977" y="5216426"/>
+          <a:ext cx="655179" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>spines</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14883</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319981</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171152</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03240143-D31E-B436-0AAD-C28A7E4CF55F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7545586" y="5372695"/>
+          <a:ext cx="305098" cy="156270"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253008</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342473</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57459A83-33E9-536C-1426-228EFC112D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7099102" y="5527922"/>
+          <a:ext cx="89465" cy="380555"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5723,7 +5938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
@@ -5739,7 +5954,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>100</v>
       </c>
@@ -5762,7 +5977,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5782,7 +5997,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -5805,7 +6020,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -5825,7 +6040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -5845,7 +6060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5865,7 +6080,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -5885,7 +6100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -5902,7 +6117,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="15.75">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -5919,7 +6134,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="47.25">
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="45">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -5936,7 +6151,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -5980,7 +6195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.75">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -5997,7 +6212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -6018,7 +6233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="109.5">
+    <row r="17" spans="1:6" ht="105">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
@@ -6032,7 +6247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -6049,7 +6264,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -6066,7 +6281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -6083,7 +6298,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -6106,7 +6321,7 @@
       </c>
       <c r="F22" s="7"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
         <v>35</v>
       </c>
@@ -6123,7 +6338,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -6137,7 +6352,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="60.75">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="60">
       <c r="A25" s="3" t="s">
         <v>35</v>
       </c>
@@ -6154,7 +6369,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="15.75">
+    <row r="26" spans="1:6" s="1" customFormat="1">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -6171,7 +6386,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -6188,7 +6403,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
         <v>35</v>
       </c>
@@ -6205,7 +6420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
         <v>35</v>
       </c>
@@ -6236,7 +6451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
@@ -6253,7 +6468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="63">
+    <row r="32" spans="1:6" ht="62.25">
       <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
@@ -6290,7 +6505,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
@@ -6307,7 +6522,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
         <v>35</v>
       </c>
@@ -6324,7 +6539,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -6341,7 +6556,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -6358,7 +6573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -6375,7 +6590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -6392,7 +6607,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
         <v>35</v>
       </c>
@@ -6406,7 +6621,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
         <v>35</v>
       </c>
@@ -6420,7 +6635,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="75.75">
+    <row r="42" spans="1:6" ht="75">
       <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
@@ -6440,7 +6655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="121.5">
+    <row r="43" spans="1:6" ht="120">
       <c r="A43" s="3" t="s">
         <v>35</v>
       </c>
@@ -6460,7 +6675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
@@ -6488,7 +6703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="170.25">
+    <row r="46" spans="1:6" ht="169.5">
       <c r="A46" s="3" t="s">
         <v>35</v>
       </c>
@@ -6505,7 +6720,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
         <v>35</v>
       </c>
@@ -7237,7 +7452,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="3:6" ht="30">
+    <row r="99" spans="3:6">
       <c r="C99" s="3" t="s">
         <v>214</v>
       </c>
@@ -7502,7 +7717,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="30">
+    <row r="138" spans="1:6">
       <c r="A138" s="3" t="s">
         <v>278</v>
       </c>
@@ -7526,8 +7741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B17E226-5CA3-4868-9A71-335DAF8C6627}">
   <dimension ref="R6:R11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView topLeftCell="A15" zoomScale="128" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7565,4 +7780,65 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB21179-E0D9-4F6F-AB6D-0E5D9A298424}">
+  <dimension ref="B7:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="48.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{088FBB40-B179-4337-B45D-6E73B6CCACE0}"/>
+    <hyperlink ref="C8" r:id="rId2" xr:uid="{A3972AF7-9B2C-4BF0-BACA-B91FE239E9C5}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{23559337-FBBC-4FDB-BB5F-1BE8F020AD9A}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{1004A6B4-CF05-4669-B83D-1469DCD13484}"/>
+    <hyperlink ref="C10" r:id="rId5" display="https://blog.csdn.net/sinat_32570141/article/details/113048947?ops_request_misc=%257B%2522request%255Fid%2522%253A%2522167741057116800215088700%2522%252C%2522scm%2522%253A%252220140713.130102334..%2522%257D&amp;request_id=167741057116800215088700&amp;biz_id=0&amp;utm_medium=distribute.pc_search_result.none-task-blog-2~all~sobaiduend~default-1-113048947-null-null.142^v73^pc_new_rank,201^v4^add_ask,239^v2^insert_chatgpt&amp;utm_term=matplotlib%20%E5%9D%90%E6%A0%87%E7%B3%BB&amp;spm=1018.2226.3001.4187" xr:uid="{64BB6708-22AD-4590-81CC-A750693A150C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DE613B-A1D8-4A99-A401-1531140309D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB8F03A-257F-4A57-9DF7-ED20A651BDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10455" yWindow="3090" windowWidth="14025" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matplotlib" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="FAQ" sheetId="5" r:id="rId3"/>
-    <sheet name="Linkage" sheetId="3" r:id="rId4"/>
+    <sheet name="Matplotlib_canvas" sheetId="2" r:id="rId2"/>
+    <sheet name="Matplotlib_FAQ" sheetId="5" r:id="rId3"/>
+    <sheet name="Seaborn" sheetId="6" r:id="rId4"/>
+    <sheet name="Seaborn_FAQ" sheetId="7" r:id="rId5"/>
+    <sheet name="Linkage" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matplotlib!$A$1:$F$795</definedName>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1051">
   <si>
     <t>Figure</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6847,12 +6849,308 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>sns.utils.get_data_home()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看测试数据放在什么地方了,没有到github上下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatterplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kdeplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecdfplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rugplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stripplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swarmplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violineplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sns.set()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认seaborn使用的是Matplotlib的rcParam的配置,如果使用了sns.set()就可以重新设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新配置画图风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxenplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强型的box图,对于大的数据组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pointplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>barplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lmplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>residplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heatmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clustermap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pariplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FaceGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PairGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jointplot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JointGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axes_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plotting_context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_color_codes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset_defaults</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reset_orig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>husl_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hls_pallete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cubehelix_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverging_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lblend_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xkcd_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crayon_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpl_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_colorbrewer_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_cubehelix_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_ligh_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_dark_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_diverging_palette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>despine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saturate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desaturate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_hls_values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load_dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_dataset_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_data_home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6980,7 +7278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7048,6 +7346,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9791,12 +10092,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8730A72-B439-444F-9032-CDF2F9BEF3FA}">
   <dimension ref="A1:F796"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C797" sqref="C797"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" bestFit="1" customWidth="1"/>
@@ -9807,7 +10108,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>803</v>
       </c>
@@ -9827,7 +10128,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -9838,7 +10139,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -9849,7 +10150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -9860,7 +10161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -9871,7 +10172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9882,7 +10183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -9893,7 +10194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -9904,7 +10205,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -9915,7 +10216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9926,7 +10227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -9937,7 +10238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -9948,7 +10249,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -9959,7 +10260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -9970,7 +10271,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -9981,7 +10282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -9992,7 +10293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -10009,7 +10310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -10023,7 +10324,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -10034,7 +10335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -10045,7 +10346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -10056,7 +10357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -10067,7 +10368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -10078,7 +10379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -10089,7 +10390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -10100,7 +10401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -10111,7 +10412,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -10122,7 +10423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -10133,7 +10434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -10144,7 +10445,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -10155,7 +10456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -10166,7 +10467,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -10177,7 +10478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -10188,7 +10489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -10199,7 +10500,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -10210,7 +10511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -10221,7 +10522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -10232,7 +10533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -10243,7 +10544,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -10254,7 +10555,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -10265,7 +10566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -10276,7 +10577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -10287,7 +10588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -10298,7 +10599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -10309,7 +10610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -10320,7 +10621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -10331,7 +10632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -10342,7 +10643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -10353,7 +10654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -10364,7 +10665,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -10375,7 +10676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -10386,7 +10687,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -10397,7 +10698,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -10408,7 +10709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -10419,7 +10720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -10430,7 +10731,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -10450,7 +10751,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -10464,7 +10765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -10484,7 +10785,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -10495,7 +10796,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -10506,7 +10807,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -10517,7 +10818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -10528,7 +10829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -10539,7 +10840,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -10550,7 +10851,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -10561,7 +10862,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -10572,7 +10873,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -10583,7 +10884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -10594,7 +10895,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -10605,7 +10906,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -10616,7 +10917,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -10627,7 +10928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -10638,7 +10939,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -10649,7 +10950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -10660,7 +10961,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -10671,7 +10972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -10682,7 +10983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -10693,7 +10994,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -10704,7 +11005,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -10715,7 +11016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -10726,7 +11027,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -10737,7 +11038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -10748,7 +11049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -10759,7 +11060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -10770,7 +11071,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -10781,7 +11082,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -10792,7 +11093,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -10803,7 +11104,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
@@ -10814,7 +11115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -10825,7 +11126,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -10836,7 +11137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -10847,7 +11148,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
@@ -10858,7 +11159,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
@@ -10869,7 +11170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -10880,7 +11181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
@@ -10891,7 +11192,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
@@ -10902,7 +11203,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
@@ -10913,7 +11214,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -10924,7 +11225,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -10935,7 +11236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -10946,7 +11247,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -10957,7 +11258,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -10968,7 +11269,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -10979,7 +11280,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -10990,7 +11291,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -11001,7 +11302,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -11012,7 +11313,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -11023,7 +11324,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -11034,7 +11335,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -11045,7 +11346,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -11056,7 +11357,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -11067,7 +11368,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -11078,7 +11379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -11089,7 +11390,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -11100,7 +11401,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -11111,7 +11412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -11122,7 +11423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -11133,7 +11434,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -11144,7 +11445,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -11155,7 +11456,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -11166,7 +11467,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -11177,7 +11478,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -11188,7 +11489,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -11199,7 +11500,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -11210,7 +11511,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -11221,7 +11522,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -11232,7 +11533,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -11243,7 +11544,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -11254,7 +11555,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -11265,7 +11566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -11276,7 +11577,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -11287,7 +11588,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -11298,7 +11599,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -11309,7 +11610,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -11320,7 +11621,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -11331,7 +11632,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -11342,7 +11643,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -11353,7 +11654,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -11364,7 +11665,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -11375,7 +11676,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -11389,7 +11690,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -11400,7 +11701,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -11411,7 +11712,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -11422,7 +11723,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -11433,7 +11734,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
@@ -11444,7 +11745,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -11455,7 +11756,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -11466,7 +11767,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
@@ -11477,7 +11778,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -11488,7 +11789,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -11499,7 +11800,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -11510,7 +11811,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -11521,7 +11822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -11532,7 +11833,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -11543,7 +11844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -11554,7 +11855,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -11565,7 +11866,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -11576,7 +11877,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -11587,7 +11888,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -11598,7 +11899,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -11609,7 +11910,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -11620,7 +11921,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6">
       <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
@@ -11631,7 +11932,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6">
       <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
@@ -11642,7 +11943,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -11653,7 +11954,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -11664,7 +11965,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -11675,7 +11976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -11686,7 +11987,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6">
       <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
@@ -11697,7 +11998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -11708,7 +12009,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -11722,7 +12023,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -11736,7 +12037,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16.5" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -11756,7 +12057,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -11770,7 +12071,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -11781,7 +12082,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -11792,7 +12093,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -11803,7 +12104,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -11814,7 +12115,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -11825,7 +12126,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -11836,7 +12137,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -11847,7 +12148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -11858,7 +12159,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -11869,7 +12170,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -11880,7 +12181,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -11891,7 +12192,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -11902,7 +12203,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -11913,7 +12214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -11924,7 +12225,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -11935,7 +12236,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -11946,7 +12247,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -11957,7 +12258,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -11968,7 +12269,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -11979,7 +12280,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -11990,7 +12291,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -12001,7 +12302,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -12012,7 +12313,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -12023,7 +12324,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -12034,7 +12335,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -12045,7 +12346,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -12056,7 +12357,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -12067,7 +12368,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -12078,7 +12379,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -12089,7 +12390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -12100,7 +12401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -12111,7 +12412,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -12122,7 +12423,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -12133,7 +12434,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -12144,7 +12445,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -12155,7 +12456,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -12166,7 +12467,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -12177,7 +12478,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -12188,7 +12489,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -12199,7 +12500,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -12210,7 +12511,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -12221,7 +12522,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -12232,7 +12533,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -12243,7 +12544,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -12254,7 +12555,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -12265,7 +12566,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -12276,7 +12577,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -12287,7 +12588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5">
       <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12599,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="15" customHeight="1">
       <c r="A222" s="1" t="s">
         <v>1</v>
       </c>
@@ -12309,7 +12610,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -12320,7 +12621,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="30">
       <c r="A224" s="1" t="s">
         <v>285</v>
       </c>
@@ -12334,7 +12635,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="30">
       <c r="A225" s="1" t="s">
         <v>285</v>
       </c>
@@ -12348,7 +12649,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="30">
       <c r="A226" s="1" t="s">
         <v>285</v>
       </c>
@@ -12359,7 +12660,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="30">
       <c r="A227" s="1" t="s">
         <v>285</v>
       </c>
@@ -12370,7 +12671,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="30">
       <c r="A228" s="1" t="s">
         <v>285</v>
       </c>
@@ -12381,7 +12682,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="30">
       <c r="A229" s="1" t="s">
         <v>285</v>
       </c>
@@ -12392,7 +12693,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="30">
       <c r="A230" s="1" t="s">
         <v>285</v>
       </c>
@@ -12403,7 +12704,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5">
       <c r="A231" s="1" t="s">
         <v>285</v>
       </c>
@@ -12414,7 +12715,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5">
       <c r="A232" s="1" t="s">
         <v>285</v>
       </c>
@@ -12428,7 +12729,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5">
       <c r="A233" s="1" t="s">
         <v>285</v>
       </c>
@@ -12445,7 +12746,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5">
       <c r="A234" s="1" t="s">
         <v>285</v>
       </c>
@@ -12459,7 +12760,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5">
       <c r="A235" s="1" t="s">
         <v>285</v>
       </c>
@@ -12473,7 +12774,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5">
       <c r="A236" s="1" t="s">
         <v>285</v>
       </c>
@@ -12487,7 +12788,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="30">
       <c r="A237" s="1" t="s">
         <v>285</v>
       </c>
@@ -12498,7 +12799,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="30">
       <c r="A238" s="1" t="s">
         <v>285</v>
       </c>
@@ -12509,7 +12810,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="30">
       <c r="A239" s="1" t="s">
         <v>285</v>
       </c>
@@ -12520,7 +12821,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="30">
       <c r="A240" s="1" t="s">
         <v>285</v>
       </c>
@@ -12531,7 +12832,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="30">
       <c r="A241" s="1" t="s">
         <v>285</v>
       </c>
@@ -12542,7 +12843,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="30">
       <c r="A242" s="1" t="s">
         <v>285</v>
       </c>
@@ -12553,7 +12854,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="30">
       <c r="A243" s="1" t="s">
         <v>285</v>
       </c>
@@ -12564,7 +12865,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="30">
       <c r="A244" s="1" t="s">
         <v>285</v>
       </c>
@@ -12575,7 +12876,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="30">
       <c r="A245" s="1" t="s">
         <v>285</v>
       </c>
@@ -12586,7 +12887,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="30">
       <c r="A246" s="1" t="s">
         <v>285</v>
       </c>
@@ -12600,7 +12901,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="30">
       <c r="A247" s="1" t="s">
         <v>285</v>
       </c>
@@ -12614,7 +12915,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="30">
       <c r="A248" s="1" t="s">
         <v>285</v>
       </c>
@@ -12628,7 +12929,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="30">
       <c r="A249" s="1" t="s">
         <v>285</v>
       </c>
@@ -12642,7 +12943,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="30">
       <c r="A250" s="1" t="s">
         <v>285</v>
       </c>
@@ -12653,7 +12954,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="30">
       <c r="A251" s="1" t="s">
         <v>285</v>
       </c>
@@ -12664,7 +12965,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="30">
       <c r="A252" s="1" t="s">
         <v>285</v>
       </c>
@@ -12675,7 +12976,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="30">
       <c r="A253" s="1" t="s">
         <v>285</v>
       </c>
@@ -12686,7 +12987,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>285</v>
       </c>
@@ -12697,7 +12998,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
         <v>285</v>
       </c>
@@ -12708,7 +13009,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="1" t="s">
         <v>285</v>
       </c>
@@ -12719,7 +13020,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>285</v>
       </c>
@@ -12730,7 +13031,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>285</v>
       </c>
@@ -12741,7 +13042,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>285</v>
       </c>
@@ -12752,7 +13053,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>285</v>
       </c>
@@ -12763,7 +13064,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>285</v>
       </c>
@@ -12774,7 +13075,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>285</v>
       </c>
@@ -12785,7 +13086,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>285</v>
       </c>
@@ -12796,7 +13097,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>285</v>
       </c>
@@ -12807,7 +13108,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>285</v>
       </c>
@@ -12818,7 +13119,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>285</v>
       </c>
@@ -12829,7 +13130,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>285</v>
       </c>
@@ -12840,7 +13141,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>285</v>
       </c>
@@ -12851,7 +13152,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>285</v>
       </c>
@@ -12862,7 +13163,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>285</v>
       </c>
@@ -12873,7 +13174,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>285</v>
       </c>
@@ -12884,7 +13185,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>285</v>
       </c>
@@ -12895,7 +13196,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5">
       <c r="A273" s="1" t="s">
         <v>285</v>
       </c>
@@ -12906,7 +13207,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5">
       <c r="A274" s="1" t="s">
         <v>285</v>
       </c>
@@ -12917,7 +13218,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5">
       <c r="A275" s="1" t="s">
         <v>285</v>
       </c>
@@ -12932,7 +13233,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5">
       <c r="A276" s="1" t="s">
         <v>285</v>
       </c>
@@ -12946,7 +13247,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5">
       <c r="A277" s="1" t="s">
         <v>285</v>
       </c>
@@ -12957,7 +13258,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5">
       <c r="A278" s="1" t="s">
         <v>285</v>
       </c>
@@ -12968,7 +13269,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5">
       <c r="A279" s="1" t="s">
         <v>285</v>
       </c>
@@ -12979,7 +13280,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5">
       <c r="A280" s="1" t="s">
         <v>285</v>
       </c>
@@ -12990,7 +13291,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5">
       <c r="A281" s="1" t="s">
         <v>285</v>
       </c>
@@ -13001,7 +13302,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5">
       <c r="A282" s="1" t="s">
         <v>285</v>
       </c>
@@ -13012,7 +13313,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5">
       <c r="A283" s="1" t="s">
         <v>285</v>
       </c>
@@ -13023,7 +13324,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5">
       <c r="A284" s="1" t="s">
         <v>285</v>
       </c>
@@ -13034,7 +13335,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5">
       <c r="A285" s="1" t="s">
         <v>285</v>
       </c>
@@ -13045,7 +13346,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
@@ -13056,7 +13357,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5">
       <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
@@ -13067,7 +13368,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5">
       <c r="A288" s="1" t="s">
         <v>285</v>
       </c>
@@ -13078,7 +13379,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5">
       <c r="A289" s="1" t="s">
         <v>285</v>
       </c>
@@ -13089,7 +13390,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5">
       <c r="A290" s="1" t="s">
         <v>285</v>
       </c>
@@ -13100,7 +13401,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5">
       <c r="A291" s="1" t="s">
         <v>285</v>
       </c>
@@ -13111,7 +13412,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5">
       <c r="A292" s="1" t="s">
         <v>285</v>
       </c>
@@ -13122,7 +13423,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5">
       <c r="A293" s="1" t="s">
         <v>285</v>
       </c>
@@ -13133,7 +13434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5">
       <c r="A294" s="1" t="s">
         <v>285</v>
       </c>
@@ -13144,7 +13445,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5">
       <c r="A295" s="1" t="s">
         <v>285</v>
       </c>
@@ -13155,7 +13456,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>285</v>
       </c>
@@ -13166,7 +13467,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5">
       <c r="A297" s="1" t="s">
         <v>285</v>
       </c>
@@ -13177,7 +13478,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5">
       <c r="A298" s="1" t="s">
         <v>285</v>
       </c>
@@ -13188,7 +13489,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>285</v>
       </c>
@@ -13199,7 +13500,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5">
       <c r="A300" s="1" t="s">
         <v>285</v>
       </c>
@@ -13210,7 +13511,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5">
       <c r="A301" s="1" t="s">
         <v>285</v>
       </c>
@@ -13221,7 +13522,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5">
       <c r="A302" s="1" t="s">
         <v>285</v>
       </c>
@@ -13232,7 +13533,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5">
       <c r="A303" s="1" t="s">
         <v>285</v>
       </c>
@@ -13243,7 +13544,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="105.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="105.75">
       <c r="A304" s="1" t="s">
         <v>531</v>
       </c>
@@ -13260,7 +13561,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5">
       <c r="A305" s="1" t="s">
         <v>531</v>
       </c>
@@ -13271,7 +13572,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5">
       <c r="A306" s="1" t="s">
         <v>531</v>
       </c>
@@ -13282,7 +13583,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="30">
       <c r="A307" s="1" t="s">
         <v>531</v>
       </c>
@@ -13293,7 +13594,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="31.5">
       <c r="A308" s="1" t="s">
         <v>531</v>
       </c>
@@ -13304,7 +13605,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="105.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="105.75">
       <c r="A309" s="1" t="s">
         <v>531</v>
       </c>
@@ -13321,7 +13622,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5">
       <c r="A310" s="1" t="s">
         <v>531</v>
       </c>
@@ -13332,7 +13633,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
         <v>531</v>
       </c>
@@ -13343,7 +13644,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="45.75">
       <c r="A312" s="1" t="s">
         <v>531</v>
       </c>
@@ -13357,7 +13658,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5">
       <c r="A313" s="1" t="s">
         <v>531</v>
       </c>
@@ -13368,7 +13669,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="30">
       <c r="A314" s="1" t="s">
         <v>531</v>
       </c>
@@ -13379,7 +13680,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
         <v>531</v>
       </c>
@@ -13390,7 +13691,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5">
       <c r="A316" s="1" t="s">
         <v>531</v>
       </c>
@@ -13401,7 +13702,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="30">
       <c r="A317" s="1" t="s">
         <v>531</v>
       </c>
@@ -13412,7 +13713,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5">
       <c r="A318" s="1" t="s">
         <v>531</v>
       </c>
@@ -13423,7 +13724,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5">
       <c r="A319" s="1" t="s">
         <v>531</v>
       </c>
@@ -13434,7 +13735,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5">
       <c r="A320" s="1" t="s">
         <v>531</v>
       </c>
@@ -13445,7 +13746,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="1" t="s">
         <v>531</v>
       </c>
@@ -13456,7 +13757,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6">
       <c r="A322" s="1" t="s">
         <v>531</v>
       </c>
@@ -13467,7 +13768,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6">
       <c r="A323" s="1" t="s">
         <v>531</v>
       </c>
@@ -13478,7 +13779,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="A324" s="1" t="s">
         <v>531</v>
       </c>
@@ -13489,7 +13790,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="A325" s="1" t="s">
         <v>531</v>
       </c>
@@ -13500,7 +13801,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="1" t="s">
         <v>531</v>
       </c>
@@ -13511,7 +13812,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="14.25" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>654</v>
       </c>
@@ -13523,7 +13824,7 @@
       </c>
       <c r="D327" s="3"/>
     </row>
-    <row r="328" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="18.75" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>654</v>
       </c>
@@ -13541,7 +13842,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="1" t="s">
         <v>654</v>
       </c>
@@ -13556,7 +13857,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6">
       <c r="A330" s="1" t="s">
         <v>654</v>
       </c>
@@ -13568,7 +13869,7 @@
       </c>
       <c r="D330" s="3"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6">
       <c r="A331" s="1" t="s">
         <v>654</v>
       </c>
@@ -13583,7 +13884,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>654</v>
       </c>
@@ -13600,7 +13901,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="12.75" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>654</v>
       </c>
@@ -13617,7 +13918,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6">
       <c r="A334" s="1" t="s">
         <v>654</v>
       </c>
@@ -13632,7 +13933,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="15" customHeight="1">
       <c r="A335" s="1" t="s">
         <v>654</v>
       </c>
@@ -13646,7 +13947,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
         <v>654</v>
       </c>
@@ -13660,7 +13961,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="16.5" customHeight="1">
       <c r="A337" s="1" t="s">
         <v>654</v>
       </c>
@@ -13674,7 +13975,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="16.5" customHeight="1">
       <c r="A338" s="1" t="s">
         <v>654</v>
       </c>
@@ -13688,7 +13989,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="16.5" customHeight="1">
       <c r="A339" s="1" t="s">
         <v>654</v>
       </c>
@@ -13702,7 +14003,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="16.5" customHeight="1">
       <c r="A340" s="1" t="s">
         <v>654</v>
       </c>
@@ -13716,7 +14017,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="16.5" customHeight="1">
       <c r="A341" s="1" t="s">
         <v>654</v>
       </c>
@@ -13730,7 +14031,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="16.5" customHeight="1">
       <c r="A342" s="1" t="s">
         <v>654</v>
       </c>
@@ -13744,7 +14045,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="16.5" customHeight="1">
       <c r="A343" s="1" t="s">
         <v>654</v>
       </c>
@@ -13758,7 +14059,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="16.5" customHeight="1">
       <c r="A344" s="1" t="s">
         <v>654</v>
       </c>
@@ -13772,7 +14073,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4">
       <c r="A345" s="1" t="s">
         <v>0</v>
       </c>
@@ -13783,7 +14084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
         <v>0</v>
       </c>
@@ -13794,7 +14095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>0</v>
       </c>
@@ -13805,7 +14106,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>0</v>
       </c>
@@ -13816,7 +14117,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4">
       <c r="A349" s="1" t="s">
         <v>0</v>
       </c>
@@ -13827,7 +14128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4">
       <c r="A350" s="1" t="s">
         <v>0</v>
       </c>
@@ -13838,7 +14139,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
         <v>0</v>
       </c>
@@ -13849,7 +14150,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>0</v>
       </c>
@@ -13860,7 +14161,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>0</v>
       </c>
@@ -13871,7 +14172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>0</v>
       </c>
@@ -13882,7 +14183,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>0</v>
       </c>
@@ -13893,7 +14194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>0</v>
       </c>
@@ -13904,7 +14205,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>0</v>
       </c>
@@ -13915,7 +14216,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>0</v>
       </c>
@@ -13926,7 +14227,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>0</v>
       </c>
@@ -13937,7 +14238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>0</v>
       </c>
@@ -13948,7 +14249,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>0</v>
       </c>
@@ -13959,7 +14260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>0</v>
       </c>
@@ -13970,7 +14271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>0</v>
       </c>
@@ -13981,7 +14282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>0</v>
       </c>
@@ -13992,7 +14293,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>0</v>
       </c>
@@ -14003,7 +14304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>0</v>
       </c>
@@ -14014,7 +14315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>0</v>
       </c>
@@ -14025,7 +14326,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>0</v>
       </c>
@@ -14036,7 +14337,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>0</v>
       </c>
@@ -14047,7 +14348,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>0</v>
       </c>
@@ -14058,7 +14359,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>0</v>
       </c>
@@ -14069,7 +14370,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>0</v>
       </c>
@@ -14080,7 +14381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>0</v>
       </c>
@@ -14091,7 +14392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>0</v>
       </c>
@@ -14102,7 +14403,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>0</v>
       </c>
@@ -14113,7 +14414,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>0</v>
       </c>
@@ -14124,7 +14425,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>0</v>
       </c>
@@ -14135,7 +14436,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>0</v>
       </c>
@@ -14146,7 +14447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>0</v>
       </c>
@@ -14157,7 +14458,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>0</v>
       </c>
@@ -14168,7 +14469,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>0</v>
       </c>
@@ -14179,7 +14480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>0</v>
       </c>
@@ -14190,7 +14491,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>0</v>
       </c>
@@ -14201,7 +14502,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>0</v>
       </c>
@@ -14212,7 +14513,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6">
       <c r="A385" s="1" t="s">
         <v>0</v>
       </c>
@@ -14223,7 +14524,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6">
       <c r="A386" s="1" t="s">
         <v>0</v>
       </c>
@@ -14234,7 +14535,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6">
       <c r="A387" s="1" t="s">
         <v>0</v>
       </c>
@@ -14245,7 +14546,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6">
       <c r="A388" s="1" t="s">
         <v>0</v>
       </c>
@@ -14256,7 +14557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6">
       <c r="A389" s="1" t="s">
         <v>0</v>
       </c>
@@ -14267,7 +14568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6">
       <c r="A390" s="1" t="s">
         <v>0</v>
       </c>
@@ -14278,7 +14579,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6">
       <c r="A391" s="1" t="s">
         <v>0</v>
       </c>
@@ -14289,7 +14590,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6">
       <c r="A392" s="1" t="s">
         <v>0</v>
       </c>
@@ -14300,7 +14601,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6">
       <c r="A393" s="1" t="s">
         <v>0</v>
       </c>
@@ -14311,7 +14612,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6">
       <c r="A394" s="1" t="s">
         <v>0</v>
       </c>
@@ -14322,7 +14623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6">
       <c r="A395" s="1" t="s">
         <v>0</v>
       </c>
@@ -14333,7 +14634,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="15" customHeight="1">
       <c r="A396" s="1" t="s">
         <v>0</v>
       </c>
@@ -14350,7 +14651,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="20.25" customHeight="1">
       <c r="A397" s="1" t="s">
         <v>0</v>
       </c>
@@ -14370,7 +14671,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6">
       <c r="A398" s="1" t="s">
         <v>0</v>
       </c>
@@ -14387,7 +14688,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6">
       <c r="A399" s="1" t="s">
         <v>0</v>
       </c>
@@ -14404,7 +14705,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="30">
       <c r="A400" s="1" t="s">
         <v>0</v>
       </c>
@@ -14421,7 +14722,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="16.5" customHeight="1">
       <c r="A401" s="1" t="s">
         <v>0</v>
       </c>
@@ -14441,7 +14742,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6">
       <c r="A402" s="1" t="s">
         <v>0</v>
       </c>
@@ -14458,7 +14759,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="14.25" customHeight="1">
       <c r="A403" s="1" t="s">
         <v>0</v>
       </c>
@@ -14475,7 +14776,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="18" customHeight="1">
       <c r="A404" s="1" t="s">
         <v>0</v>
       </c>
@@ -14492,7 +14793,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="13.5" customHeight="1">
       <c r="A405" s="1" t="s">
         <v>0</v>
       </c>
@@ -14509,7 +14810,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="18" customHeight="1">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
@@ -14526,7 +14827,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="15" customHeight="1">
       <c r="A407" s="1" t="s">
         <v>0</v>
       </c>
@@ -14543,7 +14844,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="30">
       <c r="A408" s="1" t="s">
         <v>0</v>
       </c>
@@ -14560,7 +14861,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="30">
       <c r="A409" s="1" t="s">
         <v>0</v>
       </c>
@@ -14577,7 +14878,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6">
       <c r="A410" s="1" t="s">
         <v>0</v>
       </c>
@@ -14589,7 +14890,7 @@
       </c>
       <c r="D410" s="3"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6">
       <c r="A411" s="1" t="s">
         <v>0</v>
       </c>
@@ -14606,7 +14907,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6">
       <c r="A412" s="1" t="s">
         <v>0</v>
       </c>
@@ -14623,7 +14924,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="15.75" customHeight="1">
       <c r="A413" s="1" t="s">
         <v>0</v>
       </c>
@@ -14640,7 +14941,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="30">
       <c r="A414" s="1" t="s">
         <v>0</v>
       </c>
@@ -14657,7 +14958,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6">
       <c r="A415" s="1" t="s">
         <v>0</v>
       </c>
@@ -14674,7 +14975,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6">
       <c r="A416" s="1" t="s">
         <v>0</v>
       </c>
@@ -14691,7 +14992,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5">
       <c r="A417" s="1" t="s">
         <v>0</v>
       </c>
@@ -14708,7 +15009,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="30">
       <c r="A418" s="1" t="s">
         <v>0</v>
       </c>
@@ -14725,7 +15026,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="13.5" customHeight="1">
       <c r="A419" s="1" t="s">
         <v>0</v>
       </c>
@@ -14742,7 +15043,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5">
       <c r="A420" s="1" t="s">
         <v>369</v>
       </c>
@@ -14753,7 +15054,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="15" customHeight="1">
       <c r="A421" s="1" t="s">
         <v>369</v>
       </c>
@@ -14764,7 +15065,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5">
       <c r="A422" s="1" t="s">
         <v>369</v>
       </c>
@@ -14775,7 +15076,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5">
       <c r="A423" s="1" t="s">
         <v>369</v>
       </c>
@@ -14786,7 +15087,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5">
       <c r="A424" s="1" t="s">
         <v>369</v>
       </c>
@@ -14797,7 +15098,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5">
       <c r="A425" s="1" t="s">
         <v>369</v>
       </c>
@@ -14808,7 +15109,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5">
       <c r="A426" s="1" t="s">
         <v>369</v>
       </c>
@@ -14819,7 +15120,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5">
       <c r="A427" s="1" t="s">
         <v>369</v>
       </c>
@@ -14830,7 +15131,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5">
       <c r="A428" s="1" t="s">
         <v>369</v>
       </c>
@@ -14841,7 +15142,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5">
       <c r="A429" s="1" t="s">
         <v>369</v>
       </c>
@@ -14852,7 +15153,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5">
       <c r="A430" s="1" t="s">
         <v>369</v>
       </c>
@@ -14863,7 +15164,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5">
       <c r="A431" s="1" t="s">
         <v>369</v>
       </c>
@@ -14874,7 +15175,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5">
       <c r="A432" s="1" t="s">
         <v>369</v>
       </c>
@@ -14885,7 +15186,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="30">
       <c r="A433" s="1" t="s">
         <v>369</v>
       </c>
@@ -14896,7 +15197,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>369</v>
       </c>
@@ -14907,7 +15208,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>369</v>
       </c>
@@ -14918,7 +15219,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>369</v>
       </c>
@@ -14929,7 +15230,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>369</v>
       </c>
@@ -14940,7 +15241,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>369</v>
       </c>
@@ -14951,7 +15252,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>369</v>
       </c>
@@ -14962,7 +15263,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>369</v>
       </c>
@@ -14973,7 +15274,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>369</v>
       </c>
@@ -14984,7 +15285,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>369</v>
       </c>
@@ -14995,7 +15296,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>369</v>
       </c>
@@ -15006,7 +15307,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>369</v>
       </c>
@@ -15017,7 +15318,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>369</v>
       </c>
@@ -15028,7 +15329,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>369</v>
       </c>
@@ -15039,7 +15340,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>369</v>
       </c>
@@ -15050,7 +15351,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>369</v>
       </c>
@@ -15061,7 +15362,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>369</v>
       </c>
@@ -15072,7 +15373,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>369</v>
       </c>
@@ -15083,7 +15384,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>369</v>
       </c>
@@ -15094,7 +15395,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>369</v>
       </c>
@@ -15105,7 +15406,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1">
       <c r="A453" s="1" t="s">
         <v>369</v>
       </c>
@@ -15116,7 +15417,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>369</v>
       </c>
@@ -15127,7 +15428,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>369</v>
       </c>
@@ -15138,7 +15439,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>369</v>
       </c>
@@ -15149,7 +15450,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>369</v>
       </c>
@@ -15160,7 +15461,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>369</v>
       </c>
@@ -15171,7 +15472,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>369</v>
       </c>
@@ -15182,7 +15483,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1">
       <c r="A460" s="1" t="s">
         <v>369</v>
       </c>
@@ -15193,7 +15494,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>369</v>
       </c>
@@ -15204,7 +15505,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>369</v>
       </c>
@@ -15215,7 +15516,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>369</v>
       </c>
@@ -15226,7 +15527,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>369</v>
       </c>
@@ -15237,7 +15538,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4">
       <c r="A465" s="1" t="s">
         <v>369</v>
       </c>
@@ -15251,7 +15552,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
         <v>369</v>
       </c>
@@ -15265,7 +15566,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>369</v>
       </c>
@@ -15279,7 +15580,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
         <v>369</v>
       </c>
@@ -15290,7 +15591,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4">
       <c r="A469" s="1" t="s">
         <v>369</v>
       </c>
@@ -15301,7 +15602,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4">
       <c r="A470" s="1" t="s">
         <v>369</v>
       </c>
@@ -15312,7 +15613,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
         <v>369</v>
       </c>
@@ -15323,7 +15624,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
         <v>369</v>
       </c>
@@ -15334,7 +15635,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="15.75">
       <c r="A473" s="1" t="s">
         <v>369</v>
       </c>
@@ -15348,7 +15649,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
         <v>369</v>
       </c>
@@ -15359,7 +15660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>369</v>
       </c>
@@ -15370,7 +15671,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4">
       <c r="A476" s="1" t="s">
         <v>369</v>
       </c>
@@ -15381,7 +15682,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="15.75">
       <c r="A477" s="1" t="s">
         <v>369</v>
       </c>
@@ -15395,7 +15696,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
         <v>369</v>
       </c>
@@ -15406,7 +15707,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" ht="15" customHeight="1">
       <c r="A479" s="1" t="s">
         <v>369</v>
       </c>
@@ -15417,7 +15718,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4">
       <c r="A480" s="1" t="s">
         <v>369</v>
       </c>
@@ -15428,7 +15729,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>369</v>
       </c>
@@ -15439,7 +15740,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>369</v>
       </c>
@@ -15450,7 +15751,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>369</v>
       </c>
@@ -15461,7 +15762,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>369</v>
       </c>
@@ -15472,7 +15773,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" ht="30">
       <c r="A485" s="1" t="s">
         <v>369</v>
       </c>
@@ -15483,7 +15784,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>369</v>
       </c>
@@ -15494,7 +15795,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>369</v>
       </c>
@@ -15505,7 +15806,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>369</v>
       </c>
@@ -15516,7 +15817,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>369</v>
       </c>
@@ -15527,7 +15828,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>369</v>
       </c>
@@ -15538,7 +15839,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>369</v>
       </c>
@@ -15549,7 +15850,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>369</v>
       </c>
@@ -15560,7 +15861,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>369</v>
       </c>
@@ -15571,7 +15872,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>369</v>
       </c>
@@ -15582,7 +15883,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>369</v>
       </c>
@@ -15593,7 +15894,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>369</v>
       </c>
@@ -15604,7 +15905,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>369</v>
       </c>
@@ -15615,7 +15916,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>369</v>
       </c>
@@ -15626,7 +15927,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>369</v>
       </c>
@@ -15637,7 +15938,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>369</v>
       </c>
@@ -15648,7 +15949,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" ht="30">
       <c r="A501" s="1" t="s">
         <v>369</v>
       </c>
@@ -15659,7 +15960,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>369</v>
       </c>
@@ -15670,7 +15971,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>369</v>
       </c>
@@ -15681,7 +15982,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>369</v>
       </c>
@@ -15692,7 +15993,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>369</v>
       </c>
@@ -15703,7 +16004,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" ht="30">
       <c r="A506" s="1" t="s">
         <v>369</v>
       </c>
@@ -15714,7 +16015,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>369</v>
       </c>
@@ -15725,7 +16026,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>369</v>
       </c>
@@ -15736,7 +16037,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" ht="30">
       <c r="A509" s="1" t="s">
         <v>369</v>
       </c>
@@ -15747,7 +16048,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" ht="30">
       <c r="A510" s="1" t="s">
         <v>369</v>
       </c>
@@ -15758,7 +16059,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" ht="30">
       <c r="A511" s="1" t="s">
         <v>369</v>
       </c>
@@ -15769,7 +16070,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" ht="30">
       <c r="A512" s="1" t="s">
         <v>369</v>
       </c>
@@ -15780,7 +16081,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>369</v>
       </c>
@@ -15791,7 +16092,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>369</v>
       </c>
@@ -15802,7 +16103,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>369</v>
       </c>
@@ -15813,7 +16114,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="30">
       <c r="A516" s="1" t="s">
         <v>369</v>
       </c>
@@ -15824,7 +16125,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>369</v>
       </c>
@@ -15835,7 +16136,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>369</v>
       </c>
@@ -15846,7 +16147,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="30">
       <c r="A519" s="1" t="s">
         <v>369</v>
       </c>
@@ -15857,7 +16158,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>369</v>
       </c>
@@ -15868,7 +16169,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>369</v>
       </c>
@@ -15879,7 +16180,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>369</v>
       </c>
@@ -15890,7 +16191,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>369</v>
       </c>
@@ -15901,7 +16202,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>369</v>
       </c>
@@ -15912,7 +16213,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>369</v>
       </c>
@@ -15923,7 +16224,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>369</v>
       </c>
@@ -15934,7 +16235,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>369</v>
       </c>
@@ -15945,7 +16246,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" ht="30">
       <c r="A528" s="1" t="s">
         <v>369</v>
       </c>
@@ -15956,7 +16257,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>369</v>
       </c>
@@ -15967,7 +16268,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>369</v>
       </c>
@@ -15978,7 +16279,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>369</v>
       </c>
@@ -15989,7 +16290,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>369</v>
       </c>
@@ -16000,7 +16301,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>369</v>
       </c>
@@ -16011,7 +16312,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>369</v>
       </c>
@@ -16022,7 +16323,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="30">
       <c r="A535" s="1" t="s">
         <v>369</v>
       </c>
@@ -16033,7 +16334,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
         <v>369</v>
       </c>
@@ -16044,7 +16345,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="30">
       <c r="A537" s="1" t="s">
         <v>369</v>
       </c>
@@ -16055,7 +16356,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
         <v>369</v>
       </c>
@@ -16066,7 +16367,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
         <v>369</v>
       </c>
@@ -16077,7 +16378,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="30">
       <c r="A540" s="1" t="s">
         <v>369</v>
       </c>
@@ -16088,7 +16389,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
         <v>369</v>
       </c>
@@ -16099,7 +16400,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="30">
       <c r="A542" s="1" t="s">
         <v>369</v>
       </c>
@@ -16110,7 +16411,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
         <v>369</v>
       </c>
@@ -16121,7 +16422,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="30">
       <c r="A544" s="1" t="s">
         <v>369</v>
       </c>
@@ -16132,7 +16433,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" ht="30">
       <c r="A545" s="1" t="s">
         <v>369</v>
       </c>
@@ -16143,7 +16444,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
         <v>369</v>
       </c>
@@ -16154,7 +16455,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" ht="30">
       <c r="A547" s="1" t="s">
         <v>369</v>
       </c>
@@ -16165,7 +16466,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" ht="30">
       <c r="A548" s="1" t="s">
         <v>369</v>
       </c>
@@ -16176,7 +16477,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
         <v>369</v>
       </c>
@@ -16187,7 +16488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
         <v>369</v>
       </c>
@@ -16198,7 +16499,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
         <v>369</v>
       </c>
@@ -16209,7 +16510,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>369</v>
       </c>
@@ -16220,7 +16521,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>369</v>
       </c>
@@ -16231,7 +16532,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>369</v>
       </c>
@@ -16242,7 +16543,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>369</v>
       </c>
@@ -16253,7 +16554,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
         <v>369</v>
       </c>
@@ -16264,7 +16565,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" ht="30">
       <c r="A557" s="1" t="s">
         <v>369</v>
       </c>
@@ -16275,7 +16576,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
         <v>369</v>
       </c>
@@ -16286,7 +16587,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
         <v>369</v>
       </c>
@@ -16297,7 +16598,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
         <v>369</v>
       </c>
@@ -16308,7 +16609,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" ht="30">
       <c r="A561" s="1" t="s">
         <v>369</v>
       </c>
@@ -16319,7 +16620,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
         <v>369</v>
       </c>
@@ -16330,7 +16631,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
         <v>369</v>
       </c>
@@ -16341,7 +16642,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
         <v>369</v>
       </c>
@@ -16352,7 +16653,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
         <v>369</v>
       </c>
@@ -16363,7 +16664,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
         <v>369</v>
       </c>
@@ -16374,7 +16675,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
         <v>369</v>
       </c>
@@ -16385,7 +16686,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" ht="30">
       <c r="A568" s="1" t="s">
         <v>369</v>
       </c>
@@ -16396,7 +16697,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
         <v>369</v>
       </c>
@@ -16407,7 +16708,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
         <v>369</v>
       </c>
@@ -16418,7 +16719,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" ht="30">
       <c r="A571" s="1" t="s">
         <v>369</v>
       </c>
@@ -16429,7 +16730,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
         <v>369</v>
       </c>
@@ -16440,7 +16741,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
         <v>369</v>
       </c>
@@ -16451,7 +16752,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
         <v>369</v>
       </c>
@@ -16462,7 +16763,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
         <v>369</v>
       </c>
@@ -16473,7 +16774,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
         <v>369</v>
       </c>
@@ -16484,7 +16785,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6">
       <c r="A577" s="1" t="s">
         <v>369</v>
       </c>
@@ -16495,7 +16796,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6">
       <c r="A578" s="1" t="s">
         <v>369</v>
       </c>
@@ -16506,7 +16807,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6">
       <c r="A579" s="1" t="s">
         <v>369</v>
       </c>
@@ -16517,7 +16818,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6">
       <c r="A580" s="1" t="s">
         <v>369</v>
       </c>
@@ -16528,7 +16829,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="30">
       <c r="A581" s="1" t="s">
         <v>369</v>
       </c>
@@ -16548,7 +16849,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6">
       <c r="A582" s="1" t="s">
         <v>369</v>
       </c>
@@ -16565,7 +16866,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="21.75" customHeight="1">
       <c r="A583" s="1" t="s">
         <v>369</v>
       </c>
@@ -16585,7 +16886,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15.75">
       <c r="A584" s="20" t="s">
         <v>675</v>
       </c>
@@ -16599,7 +16900,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6">
       <c r="A585" s="18" t="s">
         <v>675</v>
       </c>
@@ -16613,7 +16914,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="30">
       <c r="A586" s="18" t="s">
         <v>675</v>
       </c>
@@ -16627,7 +16928,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="74.25" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="60">
       <c r="A587" s="18" t="s">
         <v>675</v>
       </c>
@@ -16641,7 +16942,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="60">
       <c r="A588" s="18" t="s">
         <v>675</v>
       </c>
@@ -16655,7 +16956,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="119.25" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="90">
       <c r="A589" s="18" t="s">
         <v>675</v>
       </c>
@@ -16669,7 +16970,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="30">
       <c r="A590" s="18" t="s">
         <v>675</v>
       </c>
@@ -16683,7 +16984,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15.75">
       <c r="A591" s="1" t="s">
         <v>696</v>
       </c>
@@ -16700,7 +17001,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="25.5" customHeight="1">
       <c r="A592" s="1" t="s">
         <v>696</v>
       </c>
@@ -16714,7 +17015,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="20.25" customHeight="1">
       <c r="A593" s="1" t="s">
         <v>696</v>
       </c>
@@ -16734,7 +17035,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="19.5" customHeight="1">
       <c r="A594" s="1" t="s">
         <v>696</v>
       </c>
@@ -16748,7 +17049,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6">
       <c r="A595" s="1" t="s">
         <v>696</v>
       </c>
@@ -16759,7 +17060,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="16.5" customHeight="1">
       <c r="A596" s="1" t="s">
         <v>696</v>
       </c>
@@ -16773,7 +17074,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="15.75" customHeight="1">
       <c r="A597" s="1" t="s">
         <v>696</v>
       </c>
@@ -16787,7 +17088,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6">
       <c r="A598" s="1" t="s">
         <v>714</v>
       </c>
@@ -16798,7 +17099,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="15" customHeight="1">
       <c r="A599" s="1" t="s">
         <v>714</v>
       </c>
@@ -16812,7 +17113,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6">
       <c r="A600" s="1" t="s">
         <v>714</v>
       </c>
@@ -16823,7 +17124,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6">
       <c r="A601" s="1" t="s">
         <v>714</v>
       </c>
@@ -16834,7 +17135,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="17.25" customHeight="1">
       <c r="A602" s="1" t="s">
         <v>714</v>
       </c>
@@ -16848,7 +17149,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6">
       <c r="A603" s="1" t="s">
         <v>714</v>
       </c>
@@ -16862,7 +17163,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6">
       <c r="A604" s="1" t="s">
         <v>714</v>
       </c>
@@ -16876,7 +17177,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6">
       <c r="A605" s="1" t="s">
         <v>714</v>
       </c>
@@ -16890,7 +17191,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6">
       <c r="A606" s="1" t="s">
         <v>714</v>
       </c>
@@ -16901,7 +17202,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6">
       <c r="A607" s="1" t="s">
         <v>714</v>
       </c>
@@ -16912,7 +17213,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6">
       <c r="A608" s="1" t="s">
         <v>714</v>
       </c>
@@ -16923,7 +17224,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4">
       <c r="A609" s="1" t="s">
         <v>714</v>
       </c>
@@ -16934,7 +17235,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4">
       <c r="A610" s="1" t="s">
         <v>714</v>
       </c>
@@ -16945,7 +17246,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4">
       <c r="A611" s="1" t="s">
         <v>714</v>
       </c>
@@ -16956,7 +17257,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4">
       <c r="A612" s="1" t="s">
         <v>714</v>
       </c>
@@ -16967,7 +17268,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4">
       <c r="A613" s="1" t="s">
         <v>714</v>
       </c>
@@ -16978,7 +17279,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4">
       <c r="A614" s="1" t="s">
         <v>714</v>
       </c>
@@ -16989,7 +17290,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4">
       <c r="A615" s="1" t="s">
         <v>714</v>
       </c>
@@ -17000,7 +17301,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4">
       <c r="A616" s="1" t="s">
         <v>714</v>
       </c>
@@ -17011,7 +17312,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4">
       <c r="A617" s="1" t="s">
         <v>714</v>
       </c>
@@ -17022,7 +17323,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4">
       <c r="A618" s="1" t="s">
         <v>714</v>
       </c>
@@ -17033,7 +17334,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4">
       <c r="A619" s="1" t="s">
         <v>714</v>
       </c>
@@ -17044,7 +17345,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4">
       <c r="A620" s="1" t="s">
         <v>714</v>
       </c>
@@ -17055,7 +17356,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4">
       <c r="A621" s="1" t="s">
         <v>714</v>
       </c>
@@ -17069,7 +17370,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4">
       <c r="A622" s="1" t="s">
         <v>714</v>
       </c>
@@ -17080,7 +17381,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4">
       <c r="A623" s="1" t="s">
         <v>714</v>
       </c>
@@ -17094,7 +17395,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4">
       <c r="A624" s="1" t="s">
         <v>714</v>
       </c>
@@ -17105,7 +17406,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4">
       <c r="A625" s="1" t="s">
         <v>714</v>
       </c>
@@ -17119,7 +17420,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4">
       <c r="A626" s="1" t="s">
         <v>714</v>
       </c>
@@ -17133,7 +17434,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4">
       <c r="A627" s="1" t="s">
         <v>714</v>
       </c>
@@ -17144,7 +17445,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4">
       <c r="A628" s="1" t="s">
         <v>714</v>
       </c>
@@ -17158,7 +17459,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4">
       <c r="A629" s="1" t="s">
         <v>714</v>
       </c>
@@ -17172,7 +17473,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4">
       <c r="A630" s="1" t="s">
         <v>714</v>
       </c>
@@ -17183,7 +17484,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4">
       <c r="A631" s="1" t="s">
         <v>714</v>
       </c>
@@ -17194,7 +17495,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4">
       <c r="A632" s="1" t="s">
         <v>714</v>
       </c>
@@ -17205,7 +17506,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4">
       <c r="A633" s="1" t="s">
         <v>714</v>
       </c>
@@ -17216,7 +17517,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4">
       <c r="A634" s="1" t="s">
         <v>714</v>
       </c>
@@ -17227,7 +17528,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4">
       <c r="A635" s="1" t="s">
         <v>714</v>
       </c>
@@ -17241,7 +17542,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4">
       <c r="A636" s="1" t="s">
         <v>714</v>
       </c>
@@ -17252,7 +17553,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4">
       <c r="A637" s="1" t="s">
         <v>714</v>
       </c>
@@ -17266,7 +17567,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4">
       <c r="A638" s="1" t="s">
         <v>714</v>
       </c>
@@ -17280,7 +17581,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4">
       <c r="A639" s="1" t="s">
         <v>714</v>
       </c>
@@ -17294,7 +17595,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4">
       <c r="A640" s="1" t="s">
         <v>714</v>
       </c>
@@ -17305,7 +17606,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4">
       <c r="A641" s="1" t="s">
         <v>714</v>
       </c>
@@ -17316,7 +17617,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4">
       <c r="A642" s="1" t="s">
         <v>714</v>
       </c>
@@ -17327,7 +17628,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4">
       <c r="A643" s="1" t="s">
         <v>714</v>
       </c>
@@ -17338,7 +17639,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4">
       <c r="A644" s="1" t="s">
         <v>714</v>
       </c>
@@ -17349,7 +17650,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4">
       <c r="A645" s="1" t="s">
         <v>714</v>
       </c>
@@ -17360,7 +17661,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4">
       <c r="A646" s="1" t="s">
         <v>714</v>
       </c>
@@ -17371,7 +17672,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" ht="30">
       <c r="A647" s="1" t="s">
         <v>714</v>
       </c>
@@ -17385,7 +17686,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4">
       <c r="A648" s="1" t="s">
         <v>714</v>
       </c>
@@ -17396,7 +17697,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4">
       <c r="A649" s="1" t="s">
         <v>714</v>
       </c>
@@ -17407,7 +17708,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4">
       <c r="A650" s="1" t="s">
         <v>714</v>
       </c>
@@ -17418,7 +17719,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4">
       <c r="A651" s="1" t="s">
         <v>714</v>
       </c>
@@ -17429,7 +17730,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" ht="30">
       <c r="A652" s="1" t="s">
         <v>714</v>
       </c>
@@ -17440,7 +17741,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4">
       <c r="A653" s="1" t="s">
         <v>714</v>
       </c>
@@ -17451,7 +17752,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4">
       <c r="A654" s="1" t="s">
         <v>714</v>
       </c>
@@ -17462,7 +17763,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4">
       <c r="A655" s="1" t="s">
         <v>714</v>
       </c>
@@ -17473,7 +17774,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4">
       <c r="A656" s="1" t="s">
         <v>714</v>
       </c>
@@ -17484,7 +17785,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5">
       <c r="A657" s="1" t="s">
         <v>714</v>
       </c>
@@ -17495,7 +17796,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5">
       <c r="A658" s="1" t="s">
         <v>714</v>
       </c>
@@ -17506,7 +17807,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5">
       <c r="A659" s="1" t="s">
         <v>714</v>
       </c>
@@ -17517,7 +17818,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" ht="27.75" customHeight="1">
       <c r="A660" s="1" t="s">
         <v>714</v>
       </c>
@@ -17534,7 +17835,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5">
       <c r="A661" s="1" t="s">
         <v>714</v>
       </c>
@@ -17545,7 +17846,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5">
       <c r="A662" s="1" t="s">
         <v>714</v>
       </c>
@@ -17556,7 +17857,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5">
       <c r="A663" s="1" t="s">
         <v>714</v>
       </c>
@@ -17567,7 +17868,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5">
       <c r="A664" s="1" t="s">
         <v>714</v>
       </c>
@@ -17584,7 +17885,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" ht="30">
       <c r="A665" s="1" t="s">
         <v>714</v>
       </c>
@@ -17601,7 +17902,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5">
       <c r="A666" s="1" t="s">
         <v>814</v>
       </c>
@@ -17612,7 +17913,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5">
       <c r="A667" s="1" t="s">
         <v>814</v>
       </c>
@@ -17623,7 +17924,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5">
       <c r="A668" s="1" t="s">
         <v>814</v>
       </c>
@@ -17634,7 +17935,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5">
       <c r="A669" s="1" t="s">
         <v>814</v>
       </c>
@@ -17645,7 +17946,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5">
       <c r="A670" s="1" t="s">
         <v>814</v>
       </c>
@@ -17656,7 +17957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5">
       <c r="A671" s="1" t="s">
         <v>814</v>
       </c>
@@ -17667,7 +17968,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5">
       <c r="A672" s="1" t="s">
         <v>814</v>
       </c>
@@ -17678,7 +17979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3">
       <c r="A673" s="1" t="s">
         <v>814</v>
       </c>
@@ -17689,7 +17990,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3">
       <c r="A674" s="1" t="s">
         <v>814</v>
       </c>
@@ -17700,7 +18001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3">
       <c r="A675" s="1" t="s">
         <v>814</v>
       </c>
@@ -17711,7 +18012,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3">
       <c r="A676" s="1" t="s">
         <v>814</v>
       </c>
@@ -17722,7 +18023,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3">
       <c r="A677" s="1" t="s">
         <v>814</v>
       </c>
@@ -17733,7 +18034,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3">
       <c r="A678" s="1" t="s">
         <v>814</v>
       </c>
@@ -17744,7 +18045,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
         <v>814</v>
       </c>
@@ -17755,7 +18056,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3">
       <c r="A680" s="1" t="s">
         <v>814</v>
       </c>
@@ -17766,7 +18067,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3">
       <c r="A681" s="1" t="s">
         <v>814</v>
       </c>
@@ -17777,7 +18078,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
         <v>814</v>
       </c>
@@ -17788,7 +18089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
         <v>814</v>
       </c>
@@ -17799,7 +18100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3">
       <c r="A684" s="1" t="s">
         <v>814</v>
       </c>
@@ -17810,7 +18111,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3">
       <c r="A685" s="1" t="s">
         <v>814</v>
       </c>
@@ -17821,7 +18122,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
         <v>814</v>
       </c>
@@ -17832,7 +18133,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3">
       <c r="A687" s="1" t="s">
         <v>814</v>
       </c>
@@ -17843,7 +18144,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3">
       <c r="A688" s="1" t="s">
         <v>814</v>
       </c>
@@ -17854,7 +18155,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
         <v>814</v>
       </c>
@@ -17865,7 +18166,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3">
       <c r="A690" s="1" t="s">
         <v>814</v>
       </c>
@@ -17876,7 +18177,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3">
       <c r="A691" s="1" t="s">
         <v>814</v>
       </c>
@@ -17887,7 +18188,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3">
       <c r="A692" s="1" t="s">
         <v>814</v>
       </c>
@@ -17898,7 +18199,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3">
       <c r="A693" s="1" t="s">
         <v>814</v>
       </c>
@@ -17909,7 +18210,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3">
       <c r="A694" s="1" t="s">
         <v>814</v>
       </c>
@@ -17920,7 +18221,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3">
       <c r="A695" s="1" t="s">
         <v>814</v>
       </c>
@@ -17931,7 +18232,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3">
       <c r="A696" s="1" t="s">
         <v>814</v>
       </c>
@@ -17942,7 +18243,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3">
       <c r="A697" s="1" t="s">
         <v>814</v>
       </c>
@@ -17953,7 +18254,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3">
       <c r="A698" s="1" t="s">
         <v>814</v>
       </c>
@@ -17964,7 +18265,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3">
       <c r="A699" s="1" t="s">
         <v>814</v>
       </c>
@@ -17975,7 +18276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3">
       <c r="A700" s="1" t="s">
         <v>814</v>
       </c>
@@ -17986,7 +18287,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3">
       <c r="A701" s="1" t="s">
         <v>814</v>
       </c>
@@ -17997,7 +18298,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3">
       <c r="A702" s="1" t="s">
         <v>814</v>
       </c>
@@ -18008,7 +18309,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3">
       <c r="A703" s="1" t="s">
         <v>814</v>
       </c>
@@ -18019,7 +18320,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3">
       <c r="A704" s="1" t="s">
         <v>814</v>
       </c>
@@ -18030,7 +18331,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4">
       <c r="A705" s="1" t="s">
         <v>814</v>
       </c>
@@ -18041,7 +18342,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4">
       <c r="A706" s="1" t="s">
         <v>814</v>
       </c>
@@ -18052,7 +18353,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4">
       <c r="A707" s="1" t="s">
         <v>814</v>
       </c>
@@ -18063,7 +18364,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4">
       <c r="A708" s="1" t="s">
         <v>814</v>
       </c>
@@ -18074,7 +18375,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4">
       <c r="A709" s="1" t="s">
         <v>814</v>
       </c>
@@ -18085,7 +18386,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4">
       <c r="A710" s="1" t="s">
         <v>814</v>
       </c>
@@ -18099,7 +18400,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4">
       <c r="A711" s="1" t="s">
         <v>814</v>
       </c>
@@ -18110,7 +18411,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4">
       <c r="A712" s="1" t="s">
         <v>814</v>
       </c>
@@ -18121,7 +18422,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4">
       <c r="A713" s="1" t="s">
         <v>814</v>
       </c>
@@ -18132,7 +18433,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4">
       <c r="A714" s="1" t="s">
         <v>814</v>
       </c>
@@ -18146,7 +18447,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4">
       <c r="A715" s="1" t="s">
         <v>814</v>
       </c>
@@ -18157,7 +18458,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4">
       <c r="A716" s="1" t="s">
         <v>814</v>
       </c>
@@ -18171,7 +18472,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4">
       <c r="A717" s="1" t="s">
         <v>814</v>
       </c>
@@ -18185,7 +18486,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4">
       <c r="A718" s="1" t="s">
         <v>814</v>
       </c>
@@ -18196,7 +18497,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4">
       <c r="A719" s="1" t="s">
         <v>814</v>
       </c>
@@ -18207,7 +18508,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4">
       <c r="A720" s="1" t="s">
         <v>814</v>
       </c>
@@ -18218,7 +18519,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4">
       <c r="A721" s="1" t="s">
         <v>814</v>
       </c>
@@ -18229,7 +18530,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4">
       <c r="A722" s="1" t="s">
         <v>814</v>
       </c>
@@ -18240,7 +18541,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4">
       <c r="A723" s="1" t="s">
         <v>814</v>
       </c>
@@ -18251,7 +18552,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4">
       <c r="A724" s="1" t="s">
         <v>814</v>
       </c>
@@ -18265,7 +18566,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4">
       <c r="A725" s="1" t="s">
         <v>814</v>
       </c>
@@ -18276,7 +18577,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4">
       <c r="A726" s="1" t="s">
         <v>814</v>
       </c>
@@ -18287,7 +18588,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4">
       <c r="A727" s="1" t="s">
         <v>814</v>
       </c>
@@ -18298,7 +18599,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4">
       <c r="A728" s="1" t="s">
         <v>814</v>
       </c>
@@ -18309,7 +18610,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4">
       <c r="A729" s="1" t="s">
         <v>814</v>
       </c>
@@ -18320,7 +18621,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4">
       <c r="A730" s="1" t="s">
         <v>814</v>
       </c>
@@ -18331,7 +18632,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4">
       <c r="A731" s="1" t="s">
         <v>814</v>
       </c>
@@ -18342,7 +18643,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4">
       <c r="A732" s="1" t="s">
         <v>814</v>
       </c>
@@ -18353,7 +18654,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4">
       <c r="A733" s="1" t="s">
         <v>814</v>
       </c>
@@ -18364,7 +18665,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4">
       <c r="A734" s="1" t="s">
         <v>814</v>
       </c>
@@ -18375,7 +18676,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4">
       <c r="A735" s="1" t="s">
         <v>814</v>
       </c>
@@ -18386,7 +18687,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" ht="18.75" customHeight="1">
       <c r="A736" s="1" t="s">
         <v>872</v>
       </c>
@@ -18397,7 +18698,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" ht="18" customHeight="1">
       <c r="A737" s="1" t="s">
         <v>872</v>
       </c>
@@ -18408,7 +18709,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" ht="18" customHeight="1">
       <c r="A738" s="1" t="s">
         <v>872</v>
       </c>
@@ -18419,7 +18720,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" ht="18" customHeight="1">
       <c r="A739" s="1" t="s">
         <v>872</v>
       </c>
@@ -18430,7 +18731,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" ht="18" customHeight="1">
       <c r="A740" s="1" t="s">
         <v>872</v>
       </c>
@@ -18441,7 +18742,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" ht="18" customHeight="1">
       <c r="A741" s="1" t="s">
         <v>872</v>
       </c>
@@ -18452,7 +18753,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" ht="18" customHeight="1">
       <c r="A742" s="1" t="s">
         <v>872</v>
       </c>
@@ -18463,7 +18764,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" ht="18" customHeight="1">
       <c r="A743" s="1" t="s">
         <v>872</v>
       </c>
@@ -18474,7 +18775,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" ht="18" customHeight="1">
       <c r="A744" s="1" t="s">
         <v>872</v>
       </c>
@@ -18485,7 +18786,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" ht="18" customHeight="1">
       <c r="A745" s="1" t="s">
         <v>872</v>
       </c>
@@ -18496,7 +18797,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" ht="18" customHeight="1">
       <c r="A746" s="1" t="s">
         <v>872</v>
       </c>
@@ -18507,7 +18808,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" ht="18" customHeight="1">
       <c r="A747" s="1" t="s">
         <v>872</v>
       </c>
@@ -18518,7 +18819,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" ht="18" customHeight="1">
       <c r="A748" s="1" t="s">
         <v>872</v>
       </c>
@@ -18529,7 +18830,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" ht="18" customHeight="1">
       <c r="A749" s="1" t="s">
         <v>872</v>
       </c>
@@ -18540,7 +18841,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" ht="18" customHeight="1">
       <c r="A750" s="1" t="s">
         <v>872</v>
       </c>
@@ -18551,7 +18852,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" ht="18" customHeight="1">
       <c r="A751" s="1" t="s">
         <v>872</v>
       </c>
@@ -18562,7 +18863,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" ht="18" customHeight="1">
       <c r="A752" s="1" t="s">
         <v>872</v>
       </c>
@@ -18573,7 +18874,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" ht="18" customHeight="1">
       <c r="A753" s="1" t="s">
         <v>872</v>
       </c>
@@ -18584,7 +18885,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" ht="18" customHeight="1">
       <c r="A754" s="1" t="s">
         <v>872</v>
       </c>
@@ -18595,7 +18896,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" ht="18" customHeight="1">
       <c r="A755" s="1" t="s">
         <v>872</v>
       </c>
@@ -18606,7 +18907,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" ht="18" customHeight="1">
       <c r="A756" s="1" t="s">
         <v>872</v>
       </c>
@@ -18617,7 +18918,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" ht="18" customHeight="1">
       <c r="A757" s="1" t="s">
         <v>872</v>
       </c>
@@ -18628,7 +18929,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" ht="18" customHeight="1">
       <c r="A758" s="1" t="s">
         <v>872</v>
       </c>
@@ -18639,7 +18940,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" ht="18" customHeight="1">
       <c r="A759" s="1" t="s">
         <v>872</v>
       </c>
@@ -18650,7 +18951,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" ht="18" customHeight="1">
       <c r="A760" s="1" t="s">
         <v>872</v>
       </c>
@@ -18661,7 +18962,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" ht="18" customHeight="1">
       <c r="A761" s="1" t="s">
         <v>872</v>
       </c>
@@ -18672,7 +18973,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" ht="18" customHeight="1">
       <c r="A762" s="1" t="s">
         <v>872</v>
       </c>
@@ -18683,7 +18984,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" ht="18" customHeight="1">
       <c r="A763" s="1" t="s">
         <v>872</v>
       </c>
@@ -18694,7 +18995,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" ht="18" customHeight="1">
       <c r="A764" s="1" t="s">
         <v>872</v>
       </c>
@@ -18705,7 +19006,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" ht="18" customHeight="1">
       <c r="A765" s="1" t="s">
         <v>872</v>
       </c>
@@ -18716,7 +19017,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" ht="18" customHeight="1">
       <c r="A766" s="1" t="s">
         <v>872</v>
       </c>
@@ -18727,7 +19028,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" ht="18" customHeight="1">
       <c r="A767" s="1" t="s">
         <v>872</v>
       </c>
@@ -18738,7 +19039,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" ht="18" customHeight="1">
       <c r="A768" s="1" t="s">
         <v>872</v>
       </c>
@@ -18749,7 +19050,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" ht="18" customHeight="1">
       <c r="A769" s="1" t="s">
         <v>872</v>
       </c>
@@ -18760,7 +19061,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" ht="18" customHeight="1">
       <c r="A770" s="1" t="s">
         <v>872</v>
       </c>
@@ -18771,7 +19072,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" ht="18" customHeight="1">
       <c r="A771" s="1" t="s">
         <v>872</v>
       </c>
@@ -18782,7 +19083,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" ht="18" customHeight="1">
       <c r="A772" s="1" t="s">
         <v>872</v>
       </c>
@@ -18793,7 +19094,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" ht="18" customHeight="1">
       <c r="A773" s="1" t="s">
         <v>872</v>
       </c>
@@ -18804,7 +19105,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" ht="18" customHeight="1">
       <c r="A774" s="1" t="s">
         <v>872</v>
       </c>
@@ -18818,7 +19119,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" ht="18" customHeight="1">
       <c r="A775" s="1" t="s">
         <v>872</v>
       </c>
@@ -18829,7 +19130,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" ht="18" customHeight="1">
       <c r="A776" s="1" t="s">
         <v>872</v>
       </c>
@@ -18840,7 +19141,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" ht="18" customHeight="1">
       <c r="A777" s="1" t="s">
         <v>872</v>
       </c>
@@ -18851,7 +19152,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" ht="18" customHeight="1">
       <c r="A778" s="1" t="s">
         <v>872</v>
       </c>
@@ -18862,7 +19163,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" ht="18" customHeight="1">
       <c r="A779" s="1" t="s">
         <v>872</v>
       </c>
@@ -18873,7 +19174,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="18" customHeight="1">
       <c r="A780" s="1" t="s">
         <v>872</v>
       </c>
@@ -18884,7 +19185,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="18" customHeight="1">
       <c r="A781" s="1" t="s">
         <v>872</v>
       </c>
@@ -18895,7 +19196,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" ht="18" customHeight="1">
       <c r="A782" s="1" t="s">
         <v>872</v>
       </c>
@@ -18906,7 +19207,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" ht="18" customHeight="1">
       <c r="A783" s="1" t="s">
         <v>872</v>
       </c>
@@ -18917,7 +19218,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" ht="18" customHeight="1">
       <c r="A784" s="1" t="s">
         <v>872</v>
       </c>
@@ -18928,7 +19229,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" ht="18" customHeight="1">
       <c r="A785" s="1" t="s">
         <v>872</v>
       </c>
@@ -18939,7 +19240,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" ht="18" customHeight="1">
       <c r="A786" s="1" t="s">
         <v>872</v>
       </c>
@@ -18950,7 +19251,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5">
       <c r="A787" s="1" t="s">
         <v>872</v>
       </c>
@@ -18961,7 +19262,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5">
       <c r="A788" s="1" t="s">
         <v>872</v>
       </c>
@@ -18972,7 +19273,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5">
       <c r="A789" s="1" t="s">
         <v>872</v>
       </c>
@@ -18983,7 +19284,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5">
       <c r="A790" s="1" t="s">
         <v>872</v>
       </c>
@@ -18994,7 +19295,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5">
       <c r="A791" s="1" t="s">
         <v>872</v>
       </c>
@@ -19005,7 +19306,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5">
       <c r="A792" s="1" t="s">
         <v>872</v>
       </c>
@@ -19016,7 +19317,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5">
       <c r="A793" s="1" t="s">
         <v>872</v>
       </c>
@@ -19027,7 +19328,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5">
       <c r="A794" s="1" t="s">
         <v>948</v>
       </c>
@@ -19035,7 +19336,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" ht="60">
       <c r="A795" s="1" t="s">
         <v>950</v>
       </c>
@@ -19052,7 +19353,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" ht="30">
       <c r="A796" s="1" t="s">
         <v>972</v>
       </c>
@@ -19085,32 +19386,32 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="18" max="18" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="18:18">
       <c r="R6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="18:18">
       <c r="R7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="18:18">
       <c r="R8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="18:18">
       <c r="R10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="18:18">
       <c r="R11" t="s">
         <v>6</v>
       </c>
@@ -19127,10 +19428,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="2" width="12.5" style="11" customWidth="1"/>
@@ -19139,7 +19440,7 @@
     <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="10" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>804</v>
       </c>
@@ -19153,7 +19454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="62.25" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -19167,7 +19468,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.25" customHeight="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -19181,7 +19482,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="87" customHeight="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -19195,7 +19496,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="54.75" customHeight="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -19207,7 +19508,7 @@
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="63" customHeight="1">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -19221,7 +19522,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="75">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -19243,6 +19544,431 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785F4D-2864-4D79-BE90-1D92C405778F}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="4" max="5" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="15">
+      <c r="A1" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>626</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D31" t="s">
+        <v>999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ACE657-E41F-44F4-82D4-47E9BD7A3632}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="25.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A2" s="24">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB21179-E0D9-4F6F-AB6D-0E5D9A298424}">
   <dimension ref="B7:D10"/>
   <sheetViews>
@@ -19250,12 +19976,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -19263,7 +19989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -19274,7 +20000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -19282,7 +20008,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>16</v>
       </c>

--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20872737-F37F-48E7-8A33-DB700E35F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E584D-05EE-4DEA-B630-6F182499A188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matplotlib" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="1044">
   <si>
     <t>Modules</t>
   </si>
@@ -4116,9 +4116,6 @@
     <t>axes'</t>
   </si>
   <si>
-    <t>ax.transAxes</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -6672,12 +6669,892 @@
 绘制这个图的作用主要是检查预测变量与目标变量之间是否满足同方差性</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图加标签</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>for bar in barcontainer:
+    x = bar.get_width()/2+br.get_x()
+    y = bar.get_height()
+    ax.text(x=x,y=y+0.1,s=str(bar.get_height())+"Hr")</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>retangle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以获取定型定位尺寸</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>折线图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>for line in linelist:
+    for x,y in zip(line.get_xdata(),line.get_ydata()):
+        ax.text(x=x,y=y+0.5,s=y)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.transAxes</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>font = {'family' : 'SimHei'};
+mpl.rc('font', **font);</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文显示</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>临时解决办法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加入下面代码即可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+plt.rcParams['font.sans-serif']=['SimHei']    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用来设置字体样式以正常显示中文标签</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+plt.rcParams['axes.unicode_minus']=False    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认是使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Unicode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负号，设置正常显示字符，如正常显示负号</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>永久解决办法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找到自己想要的中文字体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在系统中查找已有的字体（好处是不需要安装）：在“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C:\Windows\Fonts”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中选择后缀为“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ttf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的中文字体并复制，这一步我选择了黑体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> fontpalace </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上下载对应版本的后缀为“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ttf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的字体，复制到“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C:\Windows\Fonts”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把字体复制到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的字体文件中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入下面命令找到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        print(matplotlib.matplotlib_fname())
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c:\program files\python37\lib\site-packages\matplotlib\mpl-data\matplotlibrc”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>font/ttf”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件夹中粘贴刚刚复制的字体，然后修改配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>matplotlibrc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，去掉以下三行代码开头的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#
+    font.family         : sans-serif
+    font.sans-serif     : SimHei, DejaVu Sans, Bitstream Vera Sans, ...    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里注意要把字体名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SimHei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放在第一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    axes.unicode_minus  : False    # </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>False</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，作用是解决负号的乱码问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>还要注意有的字体名称并不是字体文件的名称，可以查看字体文件的属性（标题）确认一下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重新加载字体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>做完以上操作后执行下面命令</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        from matplotlib.font_manager import _rebuild
+            _rebuild()
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>之后重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，很多时候这样就解决了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>matplotlib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缓存文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果仍然不能正常显示输入以下代码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        matplotlib.get_cachedir()
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C:\Users\sunch.matplotlib’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找到缓存文件夹并删除该文件夹，之后重启</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>python</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果还是不行可以试试重启电脑，我就是重启了才可以，果然没有什么是一次重启解决不了的，如果有那就两次</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax.right_ax.set_ylim([8,12])</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">手册里没有提到 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ax.right_ax.xxx</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6753,6 +7630,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6796,7 +7687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6859,6 +7750,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9598,8 +10498,8 @@
   <dimension ref="A1:F796"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D789" sqref="D789"/>
+      <pane ySplit="1" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C770" sqref="C770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16419,10 +17319,10 @@
         <v>693</v>
       </c>
       <c r="C586" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D586" s="17" t="s">
         <v>694</v>
-      </c>
-      <c r="D586" s="17" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="60" x14ac:dyDescent="0.2">
@@ -16430,13 +17330,13 @@
         <v>686</v>
       </c>
       <c r="B587" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="C587" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="C587" s="17" t="s">
+      <c r="D587" s="17" t="s">
         <v>697</v>
-      </c>
-      <c r="D587" s="17" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="60" x14ac:dyDescent="0.2">
@@ -16444,13 +17344,13 @@
         <v>686</v>
       </c>
       <c r="B588" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="C588" s="17" t="s">
         <v>699</v>
       </c>
-      <c r="C588" s="17" t="s">
+      <c r="D588" s="17" t="s">
         <v>700</v>
-      </c>
-      <c r="D588" s="17" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="90" x14ac:dyDescent="0.2">
@@ -16458,13 +17358,13 @@
         <v>686</v>
       </c>
       <c r="B589" s="18" t="s">
+        <v>701</v>
+      </c>
+      <c r="C589" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="C589" s="17" t="s">
+      <c r="D589" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="D589" s="17" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="30" x14ac:dyDescent="0.2">
@@ -16472,936 +17372,936 @@
         <v>686</v>
       </c>
       <c r="B590" s="18" t="s">
+        <v>704</v>
+      </c>
+      <c r="C590" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="C590" s="17" t="s">
+      <c r="D590" s="17" t="s">
         <v>706</v>
-      </c>
-      <c r="D590" s="17" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B591" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B591" s="10" t="s">
+      <c r="C591" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="C591" s="10" t="s">
+      <c r="D591" s="10" t="s">
         <v>710</v>
       </c>
-      <c r="D591" s="10" t="s">
+      <c r="E591" s="10" t="s">
         <v>711</v>
-      </c>
-      <c r="E591" s="10" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="592" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B592" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B592" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="C592" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="D592" s="10" t="s">
         <v>713</v>
-      </c>
-      <c r="D592" s="10" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B593" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B593" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="C593" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="D593" s="10" t="s">
         <v>715</v>
       </c>
-      <c r="D593" s="10" t="s">
+      <c r="E593" s="10" t="s">
         <v>716</v>
       </c>
-      <c r="E593" s="10" t="s">
+      <c r="F593" s="10" t="s">
         <v>717</v>
-      </c>
-      <c r="F593" s="10" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="B594" s="10" t="s">
         <v>708</v>
       </c>
-      <c r="B594" s="10" t="s">
-        <v>709</v>
-      </c>
       <c r="C594" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="D594" s="10" t="s">
         <v>719</v>
-      </c>
-      <c r="D594" s="10" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C595" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C596" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D596" s="10" t="s">
         <v>722</v>
-      </c>
-      <c r="D596" s="10" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C597" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="D597" s="10" t="s">
         <v>724</v>
-      </c>
-      <c r="D597" s="10" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B598" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B598" s="10" t="s">
+      <c r="C598" s="10" t="s">
         <v>727</v>
-      </c>
-      <c r="C598" s="10" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B599" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B599" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C599" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D599" s="10" t="s">
         <v>729</v>
-      </c>
-      <c r="D599" s="10" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B600" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B600" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C600" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B601" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B601" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C601" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B602" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B602" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C602" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="D602" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="D602" s="10" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B603" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B603" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C603" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="D603" s="10" t="s">
         <v>735</v>
-      </c>
-      <c r="D603" s="10" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B604" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B604" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C604" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="D604" s="10" t="s">
         <v>737</v>
-      </c>
-      <c r="D604" s="10" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B605" s="10" t="s">
         <v>726</v>
-      </c>
-      <c r="B605" s="10" t="s">
-        <v>727</v>
       </c>
       <c r="C605" s="10" t="s">
         <v>560</v>
       </c>
       <c r="D605" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B606" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B606" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C606" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B607" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B607" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C607" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B608" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B608" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C608" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B609" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B609" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C609" s="10" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B610" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B610" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C610" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B611" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B611" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C611" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B612" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B612" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C612" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B613" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B613" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C613" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B614" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B614" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C614" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B615" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B615" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C615" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B616" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B616" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C616" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B617" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B617" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C617" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B618" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B618" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C618" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B619" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B619" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C619" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B620" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B620" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C620" s="10" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B621" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B621" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C621" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="D621" s="10" t="s">
         <v>755</v>
-      </c>
-      <c r="D621" s="10" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B622" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B622" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C622" s="10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B623" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B623" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C623" s="10" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D623" s="10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B624" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B624" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C624" s="10" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B625" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B625" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C625" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="D625" s="10" t="s">
         <v>760</v>
-      </c>
-      <c r="D625" s="10" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B626" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B626" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C626" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D626" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B627" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B627" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C627" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B628" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B628" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C628" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="D628" s="10" t="s">
         <v>764</v>
-      </c>
-      <c r="D628" s="10" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B629" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B629" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C629" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D629" s="10" t="s">
         <v>766</v>
-      </c>
-      <c r="D629" s="10" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B630" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B630" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C630" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B631" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B631" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C631" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B632" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B632" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C632" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B633" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B633" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C633" s="10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B634" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B634" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C634" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B635" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B635" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C635" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="D635" s="10" t="s">
         <v>772</v>
-      </c>
-      <c r="D635" s="10" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B636" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B636" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C636" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B637" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B637" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C637" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="D637" s="10" t="s">
         <v>775</v>
-      </c>
-      <c r="D637" s="10" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B638" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B638" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C638" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="D638" s="10" t="s">
         <v>777</v>
-      </c>
-      <c r="D638" s="10" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B639" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B639" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C639" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D639" s="10" t="s">
         <v>779</v>
-      </c>
-      <c r="D639" s="10" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B640" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B640" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C640" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B641" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B641" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C641" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B642" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B642" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C642" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B643" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B643" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C643" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B644" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B644" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C644" s="10" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B645" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B645" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C645" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B646" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B646" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C646" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A647" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B647" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B647" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C647" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="D647" s="10" t="s">
         <v>788</v>
-      </c>
-      <c r="D647" s="10" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B648" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B648" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C648" s="10" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B649" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B649" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C649" s="10" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B650" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B650" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C650" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B651" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B651" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C651" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="652" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A652" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B652" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B652" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C652" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B653" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B653" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C653" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B654" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B654" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C654" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B655" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B655" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C655" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B656" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B656" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C656" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A657" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B657" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B657" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C657" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A658" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B658" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B658" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C658" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A659" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B659" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B659" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C659" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="660" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B660" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B660" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C660" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="D660" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="D660" s="10" t="s">
+      <c r="E660" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="E660" s="10" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A661" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B661" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B661" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C661" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A662" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B662" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B662" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C662" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A663" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B663" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B663" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C663" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A664" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B664" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B664" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C664" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D664" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E664" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="665" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A665" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="B665" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="B665" s="10" t="s">
-        <v>727</v>
-      </c>
       <c r="C665" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D665" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E665" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A666" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B666" s="10" t="s">
         <v>84</v>
@@ -17412,7 +18312,7 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A667" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B667" s="10" t="s">
         <v>84</v>
@@ -17423,7 +18323,7 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A668" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B668" s="10" t="s">
         <v>84</v>
@@ -17434,18 +18334,18 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A669" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B669" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C669" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A670" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B670" s="10" t="s">
         <v>84</v>
@@ -17456,7 +18356,7 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A671" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B671" s="10" t="s">
         <v>84</v>
@@ -17467,7 +18367,7 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A672" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B672" s="10" t="s">
         <v>84</v>
@@ -17478,18 +18378,18 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B673" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C673" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B674" s="10" t="s">
         <v>84</v>
@@ -17500,62 +18400,62 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B675" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C675" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B676" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C676" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B677" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C677" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B678" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C678" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B679" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C679" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B680" s="10" t="s">
         <v>84</v>
@@ -17566,18 +18466,18 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B681" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C681" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B682" s="10" t="s">
         <v>84</v>
@@ -17588,7 +18488,7 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B683" s="10" t="s">
         <v>84</v>
@@ -17599,7 +18499,7 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B684" s="10" t="s">
         <v>84</v>
@@ -17610,106 +18510,106 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B685" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C685" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B686" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C686" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B687" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C687" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B688" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C688" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B689" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C689" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B690" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C690" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B691" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C691" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B692" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C692" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B693" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C693" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B694" s="10" t="s">
         <v>84</v>
@@ -17720,7 +18620,7 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B695" s="10" t="s">
         <v>84</v>
@@ -17731,18 +18631,18 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B696" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C696" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B697" s="10" t="s">
         <v>84</v>
@@ -17753,7 +18653,7 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B698" s="10" t="s">
         <v>84</v>
@@ -17764,7 +18664,7 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B699" s="10" t="s">
         <v>84</v>
@@ -17775,29 +18675,29 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B700" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C700" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B701" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C701" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B702" s="10" t="s">
         <v>84</v>
@@ -17808,7 +18708,7 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B703" s="10" t="s">
         <v>84</v>
@@ -17819,7 +18719,7 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B704" s="10" t="s">
         <v>84</v>
@@ -17830,29 +18730,29 @@
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B705" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C705" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B706" s="10" t="s">
         <v>84</v>
       </c>
       <c r="C706" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B707" s="10" t="s">
         <v>84</v>
@@ -17863,1008 +18763,1008 @@
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B708" s="10" t="s">
+        <v>834</v>
+      </c>
+      <c r="C708" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="C708" s="10" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B709" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C709" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B710" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C710" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="D710" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="D710" s="10" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B711" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C711" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B712" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C712" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B713" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C713" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B714" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C714" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="D714" s="10" t="s">
         <v>842</v>
-      </c>
-      <c r="D714" s="10" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B715" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C715" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B716" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C716" s="10" t="s">
+        <v>844</v>
+      </c>
+      <c r="D716" s="10" t="s">
         <v>845</v>
-      </c>
-      <c r="D716" s="10" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B717" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C717" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D717" s="10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B718" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C718" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B719" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C719" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B720" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C720" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B721" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C721" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B722" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C722" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B723" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C723" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B724" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C724" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D724" s="10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B725" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C725" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B726" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C726" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B727" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C727" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B728" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C728" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B729" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C729" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B730" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C730" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B731" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C731" s="10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B732" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C732" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B733" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C733" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B734" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C734" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B735" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C735" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="736" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B736" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B736" s="10" t="s">
+      <c r="C736" s="10" t="s">
         <v>855</v>
-      </c>
-      <c r="C736" s="10" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="737" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B737" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B737" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C737" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="738" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B738" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B738" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C738" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="739" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B739" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B739" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C739" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="740" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B740" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B740" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C740" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="741" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B741" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B741" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C741" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="742" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B742" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B742" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C742" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="743" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B743" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B743" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C743" s="10" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="744" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B744" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B744" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C744" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="745" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B745" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B745" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C745" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="746" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B746" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B746" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C746" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="747" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B747" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B747" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C747" s="10" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="748" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B748" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B748" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C748" s="10" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="749" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B749" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B749" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C749" s="10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="750" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B750" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B750" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C750" s="10" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="751" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B751" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B751" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C751" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="752" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B752" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B752" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C752" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="753" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B753" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B753" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C753" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="754" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B754" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B754" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C754" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="755" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B755" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B755" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C755" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="756" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B756" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B756" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C756" s="10" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="757" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B757" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B757" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C757" s="10" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="758" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B758" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B758" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C758" s="10" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="759" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B759" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B759" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C759" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="760" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B760" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B760" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C760" s="10" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="761" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B761" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B761" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C761" s="10" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="762" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B762" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B762" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C762" s="10" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="763" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B763" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B763" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C763" s="10" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="764" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B764" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B764" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C764" s="10" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="765" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B765" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B765" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C765" s="10" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="766" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B766" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B766" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C766" s="10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="767" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B767" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B767" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C767" s="10" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="768" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B768" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B768" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C768" s="10" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="769" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B769" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B769" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C769" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="770" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B770" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B770" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C770" s="10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="771" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B771" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B771" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C771" s="10" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="772" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B772" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B772" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C772" s="10" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="773" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B773" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B773" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C773" s="10" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="774" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B774" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B774" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C774" s="19" t="s">
+        <v>893</v>
+      </c>
+      <c r="D774" s="10" t="s">
         <v>894</v>
-      </c>
-      <c r="D774" s="10" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="775" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B775" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B775" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C775" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="776" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B776" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B776" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C776" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="777" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B777" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B777" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C777" s="10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="778" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B778" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B778" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C778" s="10" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="779" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="B779" s="10" t="s">
         <v>854</v>
       </c>
-      <c r="B779" s="10" t="s">
-        <v>855</v>
-      </c>
       <c r="C779" s="10" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="780" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B780" s="10" t="s">
+        <v>899</v>
+      </c>
+      <c r="C780" s="20" t="s">
         <v>900</v>
-      </c>
-      <c r="C780" s="20" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="781" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B781" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C781" s="10" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="782" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B782" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C782" s="10" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="783" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B783" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C783" s="20" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="784" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B784" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C784" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="785" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B785" s="10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C785" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="786" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B786" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C786" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="787" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A787" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B787" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C787" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="788" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A788" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B788" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C788" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="789" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A789" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B789" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C789" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="790" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A790" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B790" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C790" s="10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="791" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A791" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B791" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C791" s="10" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="792" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A792" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B792" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C792" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="793" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A793" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B793" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C793" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="794" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A794" s="10" t="s">
+        <v>911</v>
+      </c>
+      <c r="B794" s="10" t="s">
         <v>912</v>
-      </c>
-      <c r="B794" s="10" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="795" spans="1:5" ht="60" x14ac:dyDescent="0.2">
       <c r="A795" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="B795" s="10" t="s">
+        <v>913</v>
+      </c>
+      <c r="C795" s="10" t="s">
         <v>914</v>
       </c>
-      <c r="B795" s="10" t="s">
-        <v>914</v>
-      </c>
-      <c r="C795" s="10" t="s">
+      <c r="D795" s="10" t="s">
         <v>915</v>
       </c>
-      <c r="D795" s="10" t="s">
+      <c r="E795" s="10" t="s">
         <v>916</v>
-      </c>
-      <c r="E795" s="10" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="796" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A796" s="10" t="s">
+        <v>917</v>
+      </c>
+      <c r="B796" s="13" t="s">
         <v>918</v>
       </c>
-      <c r="B796" s="13" t="s">
+      <c r="C796" s="10" t="s">
         <v>919</v>
       </c>
-      <c r="C796" s="10" t="s">
+      <c r="D796" s="10" t="s">
         <v>920</v>
       </c>
-      <c r="D796" s="10" t="s">
+      <c r="E796" s="10" t="s">
         <v>921</v>
-      </c>
-      <c r="E796" s="10" t="s">
-        <v>922</v>
       </c>
     </row>
   </sheetData>
@@ -18895,22 +19795,22 @@
     </row>
     <row r="7" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R10" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="11" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
@@ -18922,10 +19822,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18933,16 +19833,16 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="73.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="81.25" style="6" customWidth="1"/>
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -18956,13 +19856,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>928</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18970,66 +19870,130 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>929</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>932</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>935</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>937</v>
       </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>941</v>
+    </row>
+    <row r="9" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>
@@ -19057,10 +20021,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>942</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>943</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>3</v>
@@ -19074,239 +20038,239 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B2" t="s">
         <v>944</v>
-      </c>
-      <c r="B2" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>945</v>
+      </c>
+      <c r="B3" t="s">
         <v>946</v>
-      </c>
-      <c r="B3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" t="s">
         <v>949</v>
-      </c>
-      <c r="B5" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>953</v>
+      </c>
+      <c r="B9" t="s">
         <v>954</v>
-      </c>
-      <c r="B9" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>955</v>
+      </c>
+      <c r="B10" t="s">
         <v>956</v>
-      </c>
-      <c r="B10" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>958</v>
+      </c>
+      <c r="B15" t="s">
         <v>959</v>
-      </c>
-      <c r="B15" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>962</v>
+      </c>
+      <c r="B18" t="s">
         <v>963</v>
-      </c>
-      <c r="B18" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
+        <v>964</v>
+      </c>
+      <c r="C19" t="s">
         <v>965</v>
-      </c>
-      <c r="C19" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>967</v>
+      </c>
+      <c r="B21" t="s">
         <v>968</v>
-      </c>
-      <c r="B21" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>971</v>
+      </c>
+      <c r="B24" t="s">
         <v>972</v>
       </c>
-      <c r="B24" t="s">
-        <v>973</v>
-      </c>
       <c r="C24" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B36" t="s">
         <v>482</v>
       </c>
       <c r="C36" t="s">
+        <v>978</v>
+      </c>
+      <c r="D36" t="s">
         <v>979</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>980</v>
-      </c>
-      <c r="E36" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -19316,127 +20280,127 @@
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -19463,10 +20427,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>4</v>
@@ -19480,13 +20444,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C2" t="s">
         <v>1018</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1019</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -19510,37 +20474,37 @@
   <sheetData>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1029</v>
       </c>
     </row>
   </sheetData>

--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E584D-05EE-4DEA-B630-6F182499A188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E8116-6999-4D40-A09B-FB0B5BC83DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matplotlib" sheetId="4" r:id="rId1"/>
@@ -7554,7 +7554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10495,14 +10495,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F796"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A750" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C770" sqref="C770"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C805" sqref="C805"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.75" style="10" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="10" customWidth="1"/>
@@ -10513,7 +10514,7 @@
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -10533,7 +10534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -10544,7 +10545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -10566,7 +10567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -10588,7 +10589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -10599,7 +10600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10610,7 +10611,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -10632,7 +10633,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -10643,7 +10644,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -10676,7 +10677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="15.75" hidden="1">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
@@ -10740,7 +10741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1">
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
@@ -10751,7 +10752,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1">
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
@@ -10773,7 +10774,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -10784,7 +10785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -10806,7 +10807,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -10817,7 +10818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -10839,7 +10840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1">
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
@@ -10872,7 +10873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1">
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" hidden="1">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" hidden="1">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -10905,7 +10906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" hidden="1">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1">
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1">
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
@@ -10960,7 +10961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" hidden="1">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1">
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
@@ -10982,7 +10983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" hidden="1">
       <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" hidden="1">
       <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" hidden="1">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -11015,7 +11016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1">
       <c r="A45" s="10" t="s">
         <v>6</v>
       </c>
@@ -11026,7 +11027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1">
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
@@ -11037,7 +11038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1">
       <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1">
       <c r="A48" s="10" t="s">
         <v>6</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" hidden="1">
       <c r="A49" s="10" t="s">
         <v>6</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1">
       <c r="A51" s="10" t="s">
         <v>6</v>
       </c>
@@ -11092,7 +11093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="10" t="s">
         <v>6</v>
       </c>
@@ -11103,7 +11104,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" hidden="1">
       <c r="A54" s="10" t="s">
         <v>6</v>
       </c>
@@ -11125,7 +11126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1">
       <c r="A55" s="10" t="s">
         <v>6</v>
       </c>
@@ -11136,7 +11137,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" hidden="1">
       <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" hidden="1">
       <c r="A57" s="10" t="s">
         <v>6</v>
       </c>
@@ -11170,7 +11171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="10" t="s">
         <v>6</v>
       </c>
@@ -11190,7 +11191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1">
       <c r="A59" s="10" t="s">
         <v>6</v>
       </c>
@@ -11201,7 +11202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1">
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
@@ -11212,7 +11213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1">
       <c r="A61" s="10" t="s">
         <v>83</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1">
       <c r="A62" s="10" t="s">
         <v>83</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" hidden="1">
       <c r="A63" s="10" t="s">
         <v>83</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" s="10" t="s">
         <v>83</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" hidden="1">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" hidden="1">
       <c r="A66" s="10" t="s">
         <v>83</v>
       </c>
@@ -11278,7 +11279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1">
       <c r="A67" s="10" t="s">
         <v>83</v>
       </c>
@@ -11289,7 +11290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1">
       <c r="A68" s="10" t="s">
         <v>83</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1">
       <c r="A69" s="10" t="s">
         <v>83</v>
       </c>
@@ -11311,7 +11312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1">
       <c r="A70" s="10" t="s">
         <v>83</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1">
       <c r="A71" s="10" t="s">
         <v>83</v>
       </c>
@@ -11333,7 +11334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1">
       <c r="A72" s="10" t="s">
         <v>83</v>
       </c>
@@ -11344,7 +11345,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1">
       <c r="A73" s="10" t="s">
         <v>83</v>
       </c>
@@ -11355,7 +11356,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1">
       <c r="A74" s="10" t="s">
         <v>83</v>
       </c>
@@ -11366,7 +11367,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1">
       <c r="A75" s="10" t="s">
         <v>83</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1">
       <c r="A76" s="10" t="s">
         <v>83</v>
       </c>
@@ -11388,7 +11389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1">
       <c r="A79" s="10" t="s">
         <v>83</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1">
       <c r="A80" s="10" t="s">
         <v>83</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1">
       <c r="A81" s="10" t="s">
         <v>83</v>
       </c>
@@ -11443,7 +11444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1">
       <c r="A82" s="10" t="s">
         <v>83</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1">
       <c r="A83" s="10" t="s">
         <v>83</v>
       </c>
@@ -11465,7 +11466,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1">
       <c r="A84" s="10" t="s">
         <v>83</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1">
       <c r="A85" s="10" t="s">
         <v>83</v>
       </c>
@@ -11487,7 +11488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1">
       <c r="A86" s="10" t="s">
         <v>83</v>
       </c>
@@ -11498,7 +11499,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1">
       <c r="A87" s="10" t="s">
         <v>83</v>
       </c>
@@ -11509,7 +11510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1">
       <c r="A88" s="10" t="s">
         <v>83</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1">
       <c r="A89" s="10" t="s">
         <v>83</v>
       </c>
@@ -11531,7 +11532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1">
       <c r="A90" s="10" t="s">
         <v>83</v>
       </c>
@@ -11542,7 +11543,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1">
       <c r="A91" s="10" t="s">
         <v>83</v>
       </c>
@@ -11553,7 +11554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1">
       <c r="A92" s="10" t="s">
         <v>83</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1">
       <c r="A93" s="10" t="s">
         <v>83</v>
       </c>
@@ -11575,7 +11576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1">
       <c r="A94" s="10" t="s">
         <v>83</v>
       </c>
@@ -11586,7 +11587,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1">
       <c r="A95" s="10" t="s">
         <v>83</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1">
       <c r="A96" s="10" t="s">
         <v>83</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1">
       <c r="A97" s="10" t="s">
         <v>83</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1">
       <c r="A98" s="10" t="s">
         <v>83</v>
       </c>
@@ -11630,7 +11631,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1">
       <c r="A99" s="10" t="s">
         <v>83</v>
       </c>
@@ -11641,7 +11642,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1">
       <c r="A100" s="10" t="s">
         <v>83</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" hidden="1">
       <c r="A101" s="10" t="s">
         <v>83</v>
       </c>
@@ -11663,7 +11664,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" hidden="1">
       <c r="A102" s="10" t="s">
         <v>83</v>
       </c>
@@ -11674,7 +11675,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" hidden="1">
       <c r="A103" s="10" t="s">
         <v>83</v>
       </c>
@@ -11685,7 +11686,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" hidden="1">
       <c r="A104" s="10" t="s">
         <v>83</v>
       </c>
@@ -11696,7 +11697,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" hidden="1">
       <c r="A105" s="10" t="s">
         <v>83</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" hidden="1">
       <c r="A106" s="10" t="s">
         <v>83</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" hidden="1">
       <c r="A107" s="10" t="s">
         <v>83</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" hidden="1">
       <c r="A108" s="10" t="s">
         <v>83</v>
       </c>
@@ -11740,7 +11741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" hidden="1">
       <c r="A109" s="10" t="s">
         <v>83</v>
       </c>
@@ -11751,7 +11752,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" hidden="1">
       <c r="A110" s="10" t="s">
         <v>83</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" hidden="1">
       <c r="A111" s="10" t="s">
         <v>83</v>
       </c>
@@ -11773,7 +11774,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" hidden="1">
       <c r="A112" s="10" t="s">
         <v>83</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" hidden="1">
       <c r="A113" s="10" t="s">
         <v>83</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" hidden="1">
       <c r="A114" s="10" t="s">
         <v>83</v>
       </c>
@@ -11806,7 +11807,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" hidden="1">
       <c r="A115" s="10" t="s">
         <v>83</v>
       </c>
@@ -11817,7 +11818,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" hidden="1">
       <c r="A116" s="10" t="s">
         <v>83</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" hidden="1">
       <c r="A117" s="10" t="s">
         <v>83</v>
       </c>
@@ -11839,7 +11840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" hidden="1">
       <c r="A118" s="10" t="s">
         <v>83</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" hidden="1">
       <c r="A119" s="10" t="s">
         <v>83</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" hidden="1">
       <c r="A120" s="10" t="s">
         <v>83</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" hidden="1">
       <c r="A121" s="10" t="s">
         <v>83</v>
       </c>
@@ -11883,7 +11884,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" hidden="1">
       <c r="A122" s="10" t="s">
         <v>83</v>
       </c>
@@ -11894,7 +11895,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" hidden="1">
       <c r="A123" s="10" t="s">
         <v>83</v>
       </c>
@@ -11905,7 +11906,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" hidden="1">
       <c r="A124" s="10" t="s">
         <v>83</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" hidden="1">
       <c r="A125" s="10" t="s">
         <v>83</v>
       </c>
@@ -11927,7 +11928,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" hidden="1">
       <c r="A126" s="10" t="s">
         <v>83</v>
       </c>
@@ -11938,7 +11939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" hidden="1">
       <c r="A127" s="10" t="s">
         <v>83</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" hidden="1">
       <c r="A128" s="10" t="s">
         <v>83</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" hidden="1">
       <c r="A129" s="10" t="s">
         <v>83</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" hidden="1">
       <c r="A130" s="10" t="s">
         <v>83</v>
       </c>
@@ -11982,7 +11983,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" hidden="1">
       <c r="A131" s="10" t="s">
         <v>83</v>
       </c>
@@ -11993,7 +11994,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" hidden="1">
       <c r="A132" s="10" t="s">
         <v>83</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" hidden="1">
       <c r="A133" s="10" t="s">
         <v>83</v>
       </c>
@@ -12015,7 +12016,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" hidden="1">
       <c r="A134" s="10" t="s">
         <v>83</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" hidden="1">
       <c r="A135" s="10" t="s">
         <v>83</v>
       </c>
@@ -12037,7 +12038,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1">
       <c r="A136" s="10" t="s">
         <v>83</v>
       </c>
@@ -12048,7 +12049,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" hidden="1">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" hidden="1">
       <c r="A138" s="10" t="s">
         <v>83</v>
       </c>
@@ -12070,7 +12071,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" hidden="1">
       <c r="A139" s="10" t="s">
         <v>83</v>
       </c>
@@ -12081,7 +12082,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" hidden="1">
       <c r="A140" s="10" t="s">
         <v>83</v>
       </c>
@@ -12095,7 +12096,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" hidden="1">
       <c r="A141" s="10" t="s">
         <v>83</v>
       </c>
@@ -12106,7 +12107,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" hidden="1">
       <c r="A142" s="10" t="s">
         <v>83</v>
       </c>
@@ -12117,7 +12118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" hidden="1">
       <c r="A143" s="10" t="s">
         <v>83</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" hidden="1">
       <c r="A144" s="10" t="s">
         <v>83</v>
       </c>
@@ -12139,7 +12140,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" hidden="1">
       <c r="A145" s="10" t="s">
         <v>83</v>
       </c>
@@ -12150,7 +12151,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" hidden="1">
       <c r="A146" s="10" t="s">
         <v>83</v>
       </c>
@@ -12161,7 +12162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" hidden="1">
       <c r="A147" s="10" t="s">
         <v>83</v>
       </c>
@@ -12172,7 +12173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" hidden="1">
       <c r="A148" s="10" t="s">
         <v>83</v>
       </c>
@@ -12183,7 +12184,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" hidden="1">
       <c r="A149" s="10" t="s">
         <v>83</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" hidden="1">
       <c r="A150" s="10" t="s">
         <v>83</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" hidden="1">
       <c r="A151" s="10" t="s">
         <v>83</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" hidden="1">
       <c r="A152" s="10" t="s">
         <v>83</v>
       </c>
@@ -12227,7 +12228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" hidden="1">
       <c r="A153" s="10" t="s">
         <v>83</v>
       </c>
@@ -12238,7 +12239,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" hidden="1">
       <c r="A154" s="10" t="s">
         <v>83</v>
       </c>
@@ -12249,7 +12250,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" hidden="1">
       <c r="A155" s="10" t="s">
         <v>83</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" hidden="1">
       <c r="A156" s="10" t="s">
         <v>83</v>
       </c>
@@ -12271,7 +12272,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" hidden="1">
       <c r="A157" s="10" t="s">
         <v>83</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" hidden="1">
       <c r="A158" s="10" t="s">
         <v>83</v>
       </c>
@@ -12293,7 +12294,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" hidden="1">
       <c r="A159" s="10" t="s">
         <v>83</v>
       </c>
@@ -12304,7 +12305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" hidden="1">
       <c r="A160" s="10" t="s">
         <v>83</v>
       </c>
@@ -12315,7 +12316,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" hidden="1">
       <c r="A161" s="10" t="s">
         <v>83</v>
       </c>
@@ -12326,7 +12327,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1">
       <c r="A162" s="10" t="s">
         <v>83</v>
       </c>
@@ -12337,7 +12338,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1">
       <c r="A163" s="10" t="s">
         <v>83</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1">
       <c r="A164" s="10" t="s">
         <v>83</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1">
       <c r="A165" s="10" t="s">
         <v>83</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1">
       <c r="A166" s="10" t="s">
         <v>83</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1">
       <c r="A167" s="10" t="s">
         <v>83</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1">
       <c r="A168" s="10" t="s">
         <v>83</v>
       </c>
@@ -12403,7 +12404,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1">
       <c r="A169" s="10" t="s">
         <v>83</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A170" s="10" t="s">
         <v>83</v>
       </c>
@@ -12428,7 +12429,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1">
       <c r="A171" s="10" t="s">
         <v>83</v>
       </c>
@@ -12442,7 +12443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="10" t="s">
         <v>83</v>
       </c>
@@ -12462,7 +12463,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1">
       <c r="A173" s="10" t="s">
         <v>83</v>
       </c>
@@ -12476,7 +12477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1">
       <c r="A174" s="10" t="s">
         <v>83</v>
       </c>
@@ -12487,7 +12488,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1">
       <c r="A175" s="10" t="s">
         <v>83</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1">
       <c r="A176" s="10" t="s">
         <v>83</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" hidden="1">
       <c r="A177" s="10" t="s">
         <v>83</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" hidden="1">
       <c r="A178" s="10" t="s">
         <v>83</v>
       </c>
@@ -12531,7 +12532,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" hidden="1">
       <c r="A179" s="10" t="s">
         <v>83</v>
       </c>
@@ -12542,7 +12543,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" hidden="1">
       <c r="A180" s="10" t="s">
         <v>83</v>
       </c>
@@ -12553,7 +12554,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" hidden="1">
       <c r="A181" s="10" t="s">
         <v>83</v>
       </c>
@@ -12564,7 +12565,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" hidden="1">
       <c r="A182" s="10" t="s">
         <v>83</v>
       </c>
@@ -12575,7 +12576,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" hidden="1">
       <c r="A183" s="10" t="s">
         <v>83</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" hidden="1">
       <c r="A184" s="10" t="s">
         <v>83</v>
       </c>
@@ -12597,7 +12598,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" hidden="1">
       <c r="A185" s="10" t="s">
         <v>83</v>
       </c>
@@ -12608,7 +12609,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" hidden="1">
       <c r="A186" s="10" t="s">
         <v>83</v>
       </c>
@@ -12619,7 +12620,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" hidden="1">
       <c r="A187" s="10" t="s">
         <v>83</v>
       </c>
@@ -12630,7 +12631,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" hidden="1">
       <c r="A188" s="10" t="s">
         <v>83</v>
       </c>
@@ -12641,7 +12642,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" hidden="1">
       <c r="A189" s="10" t="s">
         <v>83</v>
       </c>
@@ -12652,7 +12653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" hidden="1">
       <c r="A190" s="10" t="s">
         <v>83</v>
       </c>
@@ -12663,7 +12664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" hidden="1">
       <c r="A191" s="10" t="s">
         <v>83</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" hidden="1">
       <c r="A192" s="10" t="s">
         <v>83</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" hidden="1">
       <c r="A193" s="10" t="s">
         <v>83</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" hidden="1">
       <c r="A194" s="10" t="s">
         <v>83</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" hidden="1">
       <c r="A195" s="10" t="s">
         <v>83</v>
       </c>
@@ -12718,7 +12719,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" hidden="1">
       <c r="A196" s="10" t="s">
         <v>83</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" hidden="1">
       <c r="A197" s="10" t="s">
         <v>83</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" hidden="1">
       <c r="A198" s="10" t="s">
         <v>83</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" hidden="1">
       <c r="A199" s="10" t="s">
         <v>83</v>
       </c>
@@ -12762,7 +12763,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" hidden="1">
       <c r="A200" s="10" t="s">
         <v>83</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" hidden="1">
       <c r="A201" s="10" t="s">
         <v>83</v>
       </c>
@@ -12784,7 +12785,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" hidden="1">
       <c r="A202" s="10" t="s">
         <v>83</v>
       </c>
@@ -12795,7 +12796,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3" hidden="1">
       <c r="A203" s="10" t="s">
         <v>83</v>
       </c>
@@ -12806,7 +12807,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" hidden="1">
       <c r="A204" s="10" t="s">
         <v>83</v>
       </c>
@@ -12817,7 +12818,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" hidden="1">
       <c r="A205" s="10" t="s">
         <v>83</v>
       </c>
@@ -12828,7 +12829,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" hidden="1">
       <c r="A206" s="10" t="s">
         <v>83</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3" hidden="1">
       <c r="A207" s="10" t="s">
         <v>83</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3" hidden="1">
       <c r="A208" s="10" t="s">
         <v>83</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" hidden="1">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" hidden="1">
       <c r="A210" s="10" t="s">
         <v>83</v>
       </c>
@@ -12883,7 +12884,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" hidden="1">
       <c r="A211" s="10" t="s">
         <v>83</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" hidden="1">
       <c r="A212" s="10" t="s">
         <v>83</v>
       </c>
@@ -12905,7 +12906,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" hidden="1">
       <c r="A213" s="10" t="s">
         <v>83</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" hidden="1">
       <c r="A214" s="10" t="s">
         <v>83</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" hidden="1">
       <c r="A215" s="10" t="s">
         <v>83</v>
       </c>
@@ -12938,7 +12939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" hidden="1">
       <c r="A216" s="10" t="s">
         <v>83</v>
       </c>
@@ -12949,7 +12950,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" hidden="1">
       <c r="A217" s="10" t="s">
         <v>83</v>
       </c>
@@ -12960,7 +12961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" hidden="1">
       <c r="A218" s="10" t="s">
         <v>83</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" hidden="1">
       <c r="A219" s="10" t="s">
         <v>83</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" hidden="1">
       <c r="A220" s="10" t="s">
         <v>83</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" hidden="1">
       <c r="A221" s="10" t="s">
         <v>83</v>
       </c>
@@ -13004,7 +13005,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A222" s="10" t="s">
         <v>83</v>
       </c>
@@ -13015,7 +13016,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" hidden="1">
       <c r="A223" s="10" t="s">
         <v>83</v>
       </c>
@@ -13026,7 +13027,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="30" hidden="1">
       <c r="A224" s="10" t="s">
         <v>266</v>
       </c>
@@ -13040,7 +13041,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="30" hidden="1">
       <c r="A225" s="10" t="s">
         <v>266</v>
       </c>
@@ -13054,7 +13055,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="30" hidden="1">
       <c r="A226" s="10" t="s">
         <v>266</v>
       </c>
@@ -13065,7 +13066,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="30" hidden="1">
       <c r="A227" s="10" t="s">
         <v>266</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="30" hidden="1">
       <c r="A228" s="10" t="s">
         <v>266</v>
       </c>
@@ -13087,7 +13088,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="30" hidden="1">
       <c r="A229" s="10" t="s">
         <v>266</v>
       </c>
@@ -13098,7 +13099,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="30" hidden="1">
       <c r="A230" s="10" t="s">
         <v>266</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1">
       <c r="A231" s="10" t="s">
         <v>266</v>
       </c>
@@ -13120,7 +13121,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1">
       <c r="A232" s="10" t="s">
         <v>266</v>
       </c>
@@ -13134,7 +13135,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1">
       <c r="A233" s="10" t="s">
         <v>266</v>
       </c>
@@ -13151,7 +13152,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1">
       <c r="A234" s="10" t="s">
         <v>266</v>
       </c>
@@ -13165,7 +13166,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1">
       <c r="A235" s="10" t="s">
         <v>266</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1">
       <c r="A236" s="10" t="s">
         <v>266</v>
       </c>
@@ -13193,7 +13194,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="30" hidden="1">
       <c r="A237" s="10" t="s">
         <v>266</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="30" hidden="1">
       <c r="A238" s="10" t="s">
         <v>266</v>
       </c>
@@ -13215,7 +13216,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="30" hidden="1">
       <c r="A239" s="10" t="s">
         <v>266</v>
       </c>
@@ -13226,7 +13227,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" ht="30" hidden="1">
       <c r="A240" s="10" t="s">
         <v>266</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="30" hidden="1">
       <c r="A241" s="10" t="s">
         <v>266</v>
       </c>
@@ -13248,7 +13249,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="30" hidden="1">
       <c r="A242" s="10" t="s">
         <v>266</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="30" hidden="1">
       <c r="A243" s="10" t="s">
         <v>266</v>
       </c>
@@ -13270,7 +13271,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="30" hidden="1">
       <c r="A244" s="10" t="s">
         <v>266</v>
       </c>
@@ -13281,7 +13282,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="30" hidden="1">
       <c r="A245" s="10" t="s">
         <v>266</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="30" hidden="1">
       <c r="A246" s="10" t="s">
         <v>266</v>
       </c>
@@ -13306,7 +13307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="30" hidden="1">
       <c r="A247" s="10" t="s">
         <v>266</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="30" hidden="1">
       <c r="A248" s="10" t="s">
         <v>266</v>
       </c>
@@ -13334,7 +13335,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="30" hidden="1">
       <c r="A249" s="10" t="s">
         <v>266</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="30" hidden="1">
       <c r="A250" s="10" t="s">
         <v>266</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="30" hidden="1">
       <c r="A251" s="10" t="s">
         <v>266</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="30" hidden="1">
       <c r="A252" s="10" t="s">
         <v>266</v>
       </c>
@@ -13381,7 +13382,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="30" hidden="1">
       <c r="A253" s="10" t="s">
         <v>266</v>
       </c>
@@ -13392,7 +13393,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" hidden="1">
       <c r="A254" s="10" t="s">
         <v>266</v>
       </c>
@@ -13403,7 +13404,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" hidden="1">
       <c r="A255" s="10" t="s">
         <v>266</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" hidden="1">
       <c r="A256" s="10" t="s">
         <v>266</v>
       </c>
@@ -13425,7 +13426,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3" hidden="1">
       <c r="A257" s="10" t="s">
         <v>266</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" hidden="1">
       <c r="A258" s="10" t="s">
         <v>266</v>
       </c>
@@ -13447,7 +13448,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" hidden="1">
       <c r="A259" s="10" t="s">
         <v>266</v>
       </c>
@@ -13458,7 +13459,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" hidden="1">
       <c r="A260" s="10" t="s">
         <v>266</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" hidden="1">
       <c r="A261" s="10" t="s">
         <v>266</v>
       </c>
@@ -13480,7 +13481,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" hidden="1">
       <c r="A262" s="10" t="s">
         <v>266</v>
       </c>
@@ -13491,7 +13492,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" hidden="1">
       <c r="A263" s="10" t="s">
         <v>266</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" hidden="1">
       <c r="A264" s="10" t="s">
         <v>266</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" hidden="1">
       <c r="A265" s="10" t="s">
         <v>266</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3" hidden="1">
       <c r="A266" s="10" t="s">
         <v>266</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" hidden="1">
       <c r="A267" s="10" t="s">
         <v>266</v>
       </c>
@@ -13546,7 +13547,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" hidden="1">
       <c r="A268" s="10" t="s">
         <v>266</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" hidden="1">
       <c r="A269" s="10" t="s">
         <v>266</v>
       </c>
@@ -13568,7 +13569,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" hidden="1">
       <c r="A270" s="10" t="s">
         <v>266</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3" hidden="1">
       <c r="A271" s="10" t="s">
         <v>266</v>
       </c>
@@ -13590,7 +13591,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" hidden="1">
       <c r="A272" s="10" t="s">
         <v>266</v>
       </c>
@@ -13601,7 +13602,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" hidden="1">
       <c r="A273" s="10" t="s">
         <v>266</v>
       </c>
@@ -13612,7 +13613,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" hidden="1">
       <c r="A274" s="10" t="s">
         <v>266</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" hidden="1">
       <c r="A275" s="10" t="s">
         <v>266</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" hidden="1">
       <c r="A276" s="10" t="s">
         <v>266</v>
       </c>
@@ -13651,7 +13652,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" hidden="1">
       <c r="A277" s="10" t="s">
         <v>266</v>
       </c>
@@ -13662,7 +13663,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" hidden="1">
       <c r="A278" s="10" t="s">
         <v>266</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" hidden="1">
       <c r="A279" s="10" t="s">
         <v>266</v>
       </c>
@@ -13684,7 +13685,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" hidden="1">
       <c r="A280" s="10" t="s">
         <v>266</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" hidden="1">
       <c r="A281" s="10" t="s">
         <v>266</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" hidden="1">
       <c r="A282" s="10" t="s">
         <v>266</v>
       </c>
@@ -13717,7 +13718,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" hidden="1">
       <c r="A283" s="10" t="s">
         <v>266</v>
       </c>
@@ -13728,7 +13729,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" hidden="1">
       <c r="A284" s="10" t="s">
         <v>266</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" hidden="1">
       <c r="A285" s="10" t="s">
         <v>266</v>
       </c>
@@ -13750,7 +13751,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" hidden="1">
       <c r="A286" s="10" t="s">
         <v>266</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" hidden="1">
       <c r="A287" s="10" t="s">
         <v>266</v>
       </c>
@@ -13772,7 +13773,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" hidden="1">
       <c r="A288" s="10" t="s">
         <v>266</v>
       </c>
@@ -13783,7 +13784,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" hidden="1">
       <c r="A289" s="10" t="s">
         <v>266</v>
       </c>
@@ -13794,7 +13795,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" hidden="1">
       <c r="A290" s="10" t="s">
         <v>266</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" hidden="1">
       <c r="A291" s="10" t="s">
         <v>266</v>
       </c>
@@ -13816,7 +13817,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" hidden="1">
       <c r="A292" s="10" t="s">
         <v>266</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" hidden="1">
       <c r="A293" s="10" t="s">
         <v>266</v>
       </c>
@@ -13838,7 +13839,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" hidden="1">
       <c r="A294" s="10" t="s">
         <v>266</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" hidden="1">
       <c r="A295" s="10" t="s">
         <v>266</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" hidden="1">
       <c r="A296" s="10" t="s">
         <v>266</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" hidden="1">
       <c r="A297" s="10" t="s">
         <v>266</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" hidden="1">
       <c r="A298" s="10" t="s">
         <v>266</v>
       </c>
@@ -13893,7 +13894,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" hidden="1">
       <c r="A299" s="10" t="s">
         <v>266</v>
       </c>
@@ -13904,7 +13905,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" hidden="1">
       <c r="A300" s="10" t="s">
         <v>266</v>
       </c>
@@ -13915,7 +13916,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" hidden="1">
       <c r="A301" s="10" t="s">
         <v>266</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" hidden="1">
       <c r="A302" s="10" t="s">
         <v>266</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" hidden="1">
       <c r="A303" s="10" t="s">
         <v>266</v>
       </c>
@@ -13948,7 +13949,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="105.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="105.75" hidden="1">
       <c r="A304" s="10" t="s">
         <v>371</v>
       </c>
@@ -13965,7 +13966,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" hidden="1">
       <c r="A305" s="10" t="s">
         <v>371</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" hidden="1">
       <c r="A306" s="10" t="s">
         <v>371</v>
       </c>
@@ -13987,7 +13988,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="30" hidden="1">
       <c r="A307" s="10" t="s">
         <v>371</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="31.5" hidden="1">
       <c r="A308" s="10" t="s">
         <v>371</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="105.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="105.75" hidden="1">
       <c r="A309" s="10" t="s">
         <v>371</v>
       </c>
@@ -14026,7 +14027,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" hidden="1">
       <c r="A310" s="10" t="s">
         <v>371</v>
       </c>
@@ -14037,7 +14038,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" hidden="1">
       <c r="A311" s="10" t="s">
         <v>371</v>
       </c>
@@ -14048,7 +14049,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="45.75" hidden="1">
       <c r="A312" s="10" t="s">
         <v>371</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" hidden="1">
       <c r="A313" s="10" t="s">
         <v>371</v>
       </c>
@@ -14073,7 +14074,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="30" hidden="1">
       <c r="A314" s="10" t="s">
         <v>371</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" hidden="1">
       <c r="A315" s="10" t="s">
         <v>371</v>
       </c>
@@ -14095,7 +14096,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" hidden="1">
       <c r="A316" s="10" t="s">
         <v>371</v>
       </c>
@@ -14106,7 +14107,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" ht="30" hidden="1">
       <c r="A317" s="10" t="s">
         <v>371</v>
       </c>
@@ -14117,7 +14118,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" hidden="1">
       <c r="A318" s="10" t="s">
         <v>371</v>
       </c>
@@ -14128,7 +14129,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" hidden="1">
       <c r="A319" s="10" t="s">
         <v>371</v>
       </c>
@@ -14139,7 +14140,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" hidden="1">
       <c r="A320" s="10" t="s">
         <v>371</v>
       </c>
@@ -14150,7 +14151,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" hidden="1">
       <c r="A321" s="10" t="s">
         <v>371</v>
       </c>
@@ -14161,7 +14162,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" hidden="1">
       <c r="A322" s="10" t="s">
         <v>371</v>
       </c>
@@ -14172,7 +14173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" hidden="1">
       <c r="A323" s="10" t="s">
         <v>371</v>
       </c>
@@ -14183,7 +14184,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" hidden="1">
       <c r="A324" s="10" t="s">
         <v>371</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" hidden="1">
       <c r="A325" s="10" t="s">
         <v>371</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" hidden="1">
       <c r="A326" s="10" t="s">
         <v>371</v>
       </c>
@@ -14216,7 +14217,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="14.25" hidden="1" customHeight="1">
       <c r="A327" s="10" t="s">
         <v>401</v>
       </c>
@@ -14227,7 +14228,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="18.75" hidden="1" customHeight="1">
       <c r="A328" s="10" t="s">
         <v>401</v>
       </c>
@@ -14244,7 +14245,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" hidden="1">
       <c r="A329" s="10" t="s">
         <v>401</v>
       </c>
@@ -14258,7 +14259,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" hidden="1">
       <c r="A330" s="10" t="s">
         <v>401</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" hidden="1">
       <c r="A331" s="10" t="s">
         <v>401</v>
       </c>
@@ -14283,7 +14284,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A332" s="10" t="s">
         <v>401</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="12.75" hidden="1" customHeight="1">
       <c r="A333" s="10" t="s">
         <v>401</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" hidden="1">
       <c r="A334" s="10" t="s">
         <v>401</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A335" s="10" t="s">
         <v>401</v>
       </c>
@@ -14345,7 +14346,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A336" s="10" t="s">
         <v>401</v>
       </c>
@@ -14359,7 +14360,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
@@ -14373,7 +14374,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A338" s="10" t="s">
         <v>401</v>
       </c>
@@ -14387,7 +14388,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A339" s="10" t="s">
         <v>401</v>
       </c>
@@ -14401,7 +14402,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A340" s="10" t="s">
         <v>401</v>
       </c>
@@ -14415,7 +14416,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A341" s="10" t="s">
         <v>401</v>
       </c>
@@ -14429,7 +14430,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A342" s="10" t="s">
         <v>401</v>
       </c>
@@ -14443,7 +14444,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A343" s="10" t="s">
         <v>401</v>
       </c>
@@ -14457,7 +14458,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="16.5" hidden="1" customHeight="1">
       <c r="A344" s="10" t="s">
         <v>401</v>
       </c>
@@ -14471,7 +14472,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" hidden="1">
       <c r="A345" s="10" t="s">
         <v>440</v>
       </c>
@@ -14482,7 +14483,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" hidden="1">
       <c r="A346" s="10" t="s">
         <v>440</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" hidden="1">
       <c r="A347" s="10" t="s">
         <v>440</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" hidden="1">
       <c r="A348" s="10" t="s">
         <v>440</v>
       </c>
@@ -14515,7 +14516,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" hidden="1">
       <c r="A349" s="10" t="s">
         <v>440</v>
       </c>
@@ -14526,7 +14527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" hidden="1">
       <c r="A350" s="10" t="s">
         <v>440</v>
       </c>
@@ -14537,7 +14538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" hidden="1">
       <c r="A351" s="10" t="s">
         <v>440</v>
       </c>
@@ -14548,7 +14549,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" hidden="1">
       <c r="A352" s="10" t="s">
         <v>440</v>
       </c>
@@ -14559,7 +14560,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" hidden="1">
       <c r="A353" s="10" t="s">
         <v>440</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" hidden="1">
       <c r="A354" s="10" t="s">
         <v>440</v>
       </c>
@@ -14581,7 +14582,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3" hidden="1">
       <c r="A355" s="10" t="s">
         <v>440</v>
       </c>
@@ -14592,7 +14593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3" hidden="1">
       <c r="A356" s="10" t="s">
         <v>440</v>
       </c>
@@ -14603,7 +14604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3" hidden="1">
       <c r="A357" s="10" t="s">
         <v>440</v>
       </c>
@@ -14614,7 +14615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3" hidden="1">
       <c r="A358" s="10" t="s">
         <v>440</v>
       </c>
@@ -14625,7 +14626,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3" hidden="1">
       <c r="A359" s="10" t="s">
         <v>440</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3" hidden="1">
       <c r="A360" s="10" t="s">
         <v>440</v>
       </c>
@@ -14647,7 +14648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" hidden="1">
       <c r="A361" s="10" t="s">
         <v>440</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" hidden="1">
       <c r="A362" s="10" t="s">
         <v>440</v>
       </c>
@@ -14669,7 +14670,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" hidden="1">
       <c r="A363" s="10" t="s">
         <v>440</v>
       </c>
@@ -14680,7 +14681,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" hidden="1">
       <c r="A364" s="10" t="s">
         <v>440</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" hidden="1">
       <c r="A365" s="10" t="s">
         <v>440</v>
       </c>
@@ -14702,7 +14703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" hidden="1">
       <c r="A366" s="10" t="s">
         <v>440</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" hidden="1">
       <c r="A367" s="10" t="s">
         <v>440</v>
       </c>
@@ -14724,7 +14725,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" hidden="1">
       <c r="A368" s="10" t="s">
         <v>440</v>
       </c>
@@ -14735,7 +14736,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" hidden="1">
       <c r="A369" s="10" t="s">
         <v>440</v>
       </c>
@@ -14746,7 +14747,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3" hidden="1">
       <c r="A370" s="10" t="s">
         <v>440</v>
       </c>
@@ -14757,7 +14758,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" hidden="1">
       <c r="A371" s="10" t="s">
         <v>440</v>
       </c>
@@ -14768,7 +14769,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3" hidden="1">
       <c r="A372" s="10" t="s">
         <v>440</v>
       </c>
@@ -14779,7 +14780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3" hidden="1">
       <c r="A373" s="10" t="s">
         <v>440</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" hidden="1">
       <c r="A374" s="10" t="s">
         <v>440</v>
       </c>
@@ -14801,7 +14802,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3" hidden="1">
       <c r="A375" s="10" t="s">
         <v>440</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" hidden="1">
       <c r="A376" s="10" t="s">
         <v>440</v>
       </c>
@@ -14823,7 +14824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" hidden="1">
       <c r="A377" s="10" t="s">
         <v>440</v>
       </c>
@@ -14834,7 +14835,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" hidden="1">
       <c r="A378" s="10" t="s">
         <v>440</v>
       </c>
@@ -14845,7 +14846,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" hidden="1">
       <c r="A379" s="10" t="s">
         <v>440</v>
       </c>
@@ -14856,7 +14857,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" hidden="1">
       <c r="A380" s="10" t="s">
         <v>440</v>
       </c>
@@ -14867,7 +14868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3" hidden="1">
       <c r="A381" s="10" t="s">
         <v>440</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3" hidden="1">
       <c r="A382" s="10" t="s">
         <v>440</v>
       </c>
@@ -14889,7 +14890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" hidden="1">
       <c r="A383" s="10" t="s">
         <v>440</v>
       </c>
@@ -14900,7 +14901,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" hidden="1">
       <c r="A384" s="10" t="s">
         <v>440</v>
       </c>
@@ -14911,7 +14912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" hidden="1">
       <c r="A385" s="10" t="s">
         <v>440</v>
       </c>
@@ -14922,7 +14923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" hidden="1">
       <c r="A386" s="10" t="s">
         <v>440</v>
       </c>
@@ -14933,7 +14934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" hidden="1">
       <c r="A387" s="10" t="s">
         <v>440</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" hidden="1">
       <c r="A388" s="10" t="s">
         <v>440</v>
       </c>
@@ -14955,7 +14956,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" hidden="1">
       <c r="A389" s="10" t="s">
         <v>440</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" hidden="1">
       <c r="A390" s="10" t="s">
         <v>440</v>
       </c>
@@ -14977,7 +14978,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" hidden="1">
       <c r="A391" s="10" t="s">
         <v>440</v>
       </c>
@@ -14988,7 +14989,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" hidden="1">
       <c r="A392" s="10" t="s">
         <v>440</v>
       </c>
@@ -14999,7 +15000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" hidden="1">
       <c r="A393" s="10" t="s">
         <v>440</v>
       </c>
@@ -15010,7 +15011,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" hidden="1">
       <c r="A394" s="10" t="s">
         <v>440</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" hidden="1">
       <c r="A395" s="10" t="s">
         <v>440</v>
       </c>
@@ -15032,7 +15033,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A396" s="10" t="s">
         <v>440</v>
       </c>
@@ -15049,7 +15050,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="20.25" hidden="1" customHeight="1">
       <c r="A397" s="10" t="s">
         <v>440</v>
       </c>
@@ -15069,7 +15070,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" hidden="1">
       <c r="A398" s="10" t="s">
         <v>440</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" hidden="1">
       <c r="A399" s="10" t="s">
         <v>440</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="30" hidden="1">
       <c r="A400" s="10" t="s">
         <v>440</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="16.5" hidden="1" customHeight="1">
       <c r="A401" s="10" t="s">
         <v>440</v>
       </c>
@@ -15140,7 +15141,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" hidden="1">
       <c r="A402" s="10" t="s">
         <v>440</v>
       </c>
@@ -15157,7 +15158,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="14.25" hidden="1" customHeight="1">
       <c r="A403" s="10" t="s">
         <v>440</v>
       </c>
@@ -15174,7 +15175,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="18" hidden="1" customHeight="1">
       <c r="A404" s="10" t="s">
         <v>440</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="13.5" hidden="1" customHeight="1">
       <c r="A405" s="10" t="s">
         <v>440</v>
       </c>
@@ -15208,7 +15209,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="18" hidden="1" customHeight="1">
       <c r="A406" s="10" t="s">
         <v>440</v>
       </c>
@@ -15225,7 +15226,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A407" s="10" t="s">
         <v>440</v>
       </c>
@@ -15242,7 +15243,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="30" hidden="1">
       <c r="A408" s="10" t="s">
         <v>440</v>
       </c>
@@ -15259,7 +15260,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="30" hidden="1">
       <c r="A409" s="10" t="s">
         <v>440</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" hidden="1">
       <c r="A410" s="10" t="s">
         <v>440</v>
       </c>
@@ -15287,7 +15288,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" hidden="1">
       <c r="A411" s="10" t="s">
         <v>440</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" hidden="1">
       <c r="A412" s="10" t="s">
         <v>440</v>
       </c>
@@ -15321,7 +15322,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A413" s="10" t="s">
         <v>440</v>
       </c>
@@ -15338,7 +15339,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" ht="30" hidden="1">
       <c r="A414" s="10" t="s">
         <v>440</v>
       </c>
@@ -15355,7 +15356,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" hidden="1">
       <c r="A415" s="10" t="s">
         <v>440</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" hidden="1">
       <c r="A416" s="10" t="s">
         <v>440</v>
       </c>
@@ -15389,7 +15390,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" hidden="1">
       <c r="A417" s="10" t="s">
         <v>440</v>
       </c>
@@ -15406,7 +15407,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="30" hidden="1">
       <c r="A418" s="10" t="s">
         <v>440</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="13.5" hidden="1" customHeight="1">
       <c r="A419" s="10" t="s">
         <v>440</v>
       </c>
@@ -15440,7 +15441,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" hidden="1">
       <c r="A420" s="10" t="s">
         <v>508</v>
       </c>
@@ -15451,7 +15452,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="15" hidden="1" customHeight="1">
       <c r="A421" s="10" t="s">
         <v>508</v>
       </c>
@@ -15462,7 +15463,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" hidden="1">
       <c r="A422" s="10" t="s">
         <v>508</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" hidden="1">
       <c r="A423" s="10" t="s">
         <v>508</v>
       </c>
@@ -15484,7 +15485,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" hidden="1">
       <c r="A424" s="10" t="s">
         <v>508</v>
       </c>
@@ -15495,7 +15496,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" hidden="1">
       <c r="A425" s="10" t="s">
         <v>508</v>
       </c>
@@ -15506,7 +15507,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" hidden="1">
       <c r="A426" s="10" t="s">
         <v>508</v>
       </c>
@@ -15517,7 +15518,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" hidden="1">
       <c r="A427" s="10" t="s">
         <v>508</v>
       </c>
@@ -15528,7 +15529,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" hidden="1">
       <c r="A428" s="10" t="s">
         <v>508</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" hidden="1">
       <c r="A429" s="10" t="s">
         <v>508</v>
       </c>
@@ -15550,7 +15551,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" hidden="1">
       <c r="A430" s="10" t="s">
         <v>508</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" hidden="1">
       <c r="A431" s="10" t="s">
         <v>508</v>
       </c>
@@ -15572,7 +15573,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" hidden="1">
       <c r="A432" s="10" t="s">
         <v>508</v>
       </c>
@@ -15583,7 +15584,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" ht="30" hidden="1">
       <c r="A433" s="10" t="s">
         <v>508</v>
       </c>
@@ -15594,7 +15595,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" hidden="1">
       <c r="A434" s="10" t="s">
         <v>508</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" hidden="1">
       <c r="A435" s="10" t="s">
         <v>508</v>
       </c>
@@ -15616,7 +15617,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" hidden="1">
       <c r="A436" s="10" t="s">
         <v>508</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3" hidden="1">
       <c r="A437" s="10" t="s">
         <v>508</v>
       </c>
@@ -15638,7 +15639,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" hidden="1">
       <c r="A438" s="10" t="s">
         <v>508</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" hidden="1">
       <c r="A439" s="10" t="s">
         <v>508</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" hidden="1">
       <c r="A440" s="10" t="s">
         <v>508</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" hidden="1">
       <c r="A441" s="10" t="s">
         <v>508</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" hidden="1">
       <c r="A442" s="10" t="s">
         <v>508</v>
       </c>
@@ -15693,7 +15694,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3" hidden="1">
       <c r="A443" s="10" t="s">
         <v>508</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" hidden="1">
       <c r="A444" s="10" t="s">
         <v>508</v>
       </c>
@@ -15715,7 +15716,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" hidden="1">
       <c r="A445" s="10" t="s">
         <v>508</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" hidden="1">
       <c r="A446" s="10" t="s">
         <v>508</v>
       </c>
@@ -15737,7 +15738,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3" hidden="1">
       <c r="A447" s="10" t="s">
         <v>508</v>
       </c>
@@ -15748,7 +15749,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3" hidden="1">
       <c r="A448" s="10" t="s">
         <v>508</v>
       </c>
@@ -15759,7 +15760,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3" hidden="1">
       <c r="A449" s="10" t="s">
         <v>508</v>
       </c>
@@ -15770,7 +15771,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" hidden="1">
       <c r="A450" s="10" t="s">
         <v>508</v>
       </c>
@@ -15781,7 +15782,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" hidden="1">
       <c r="A451" s="10" t="s">
         <v>508</v>
       </c>
@@ -15792,7 +15793,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:3" hidden="1">
       <c r="A452" s="10" t="s">
         <v>508</v>
       </c>
@@ -15803,7 +15804,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:3" ht="14.25" hidden="1" customHeight="1">
       <c r="A453" s="10" t="s">
         <v>508</v>
       </c>
@@ -15814,7 +15815,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" hidden="1">
       <c r="A454" s="10" t="s">
         <v>508</v>
       </c>
@@ -15825,7 +15826,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:3" hidden="1">
       <c r="A455" s="10" t="s">
         <v>508</v>
       </c>
@@ -15836,7 +15837,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:3" hidden="1">
       <c r="A456" s="10" t="s">
         <v>508</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" hidden="1">
       <c r="A457" s="10" t="s">
         <v>508</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" hidden="1">
       <c r="A458" s="10" t="s">
         <v>508</v>
       </c>
@@ -15869,7 +15870,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" hidden="1">
       <c r="A459" s="10" t="s">
         <v>508</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:3" ht="15.75" hidden="1" customHeight="1">
       <c r="A460" s="10" t="s">
         <v>508</v>
       </c>
@@ -15891,7 +15892,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" hidden="1">
       <c r="A461" s="10" t="s">
         <v>508</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" hidden="1">
       <c r="A462" s="10" t="s">
         <v>508</v>
       </c>
@@ -15913,7 +15914,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:3" hidden="1">
       <c r="A463" s="10" t="s">
         <v>508</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" hidden="1">
       <c r="A464" s="10" t="s">
         <v>508</v>
       </c>
@@ -15935,7 +15936,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" hidden="1">
       <c r="A465" s="10" t="s">
         <v>508</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" hidden="1">
       <c r="A466" s="10" t="s">
         <v>508</v>
       </c>
@@ -15963,7 +15964,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" hidden="1">
       <c r="A467" s="10" t="s">
         <v>508</v>
       </c>
@@ -15977,7 +15978,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" hidden="1">
       <c r="A468" s="10" t="s">
         <v>508</v>
       </c>
@@ -15988,7 +15989,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" hidden="1">
       <c r="A469" s="10" t="s">
         <v>508</v>
       </c>
@@ -15999,7 +16000,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" hidden="1">
       <c r="A470" s="10" t="s">
         <v>508</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" hidden="1">
       <c r="A471" s="10" t="s">
         <v>508</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" hidden="1">
       <c r="A472" s="10" t="s">
         <v>508</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" ht="15.75" hidden="1">
       <c r="A473" s="10" t="s">
         <v>508</v>
       </c>
@@ -16046,7 +16047,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" hidden="1">
       <c r="A474" s="10" t="s">
         <v>508</v>
       </c>
@@ -16057,7 +16058,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" hidden="1">
       <c r="A475" s="10" t="s">
         <v>508</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" hidden="1">
       <c r="A476" s="10" t="s">
         <v>508</v>
       </c>
@@ -16079,7 +16080,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="15.75" hidden="1">
       <c r="A477" s="10" t="s">
         <v>508</v>
       </c>
@@ -16093,7 +16094,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" hidden="1">
       <c r="A478" s="10" t="s">
         <v>508</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" ht="15" hidden="1" customHeight="1">
       <c r="A479" s="10" t="s">
         <v>508</v>
       </c>
@@ -16115,7 +16116,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" hidden="1">
       <c r="A480" s="10" t="s">
         <v>508</v>
       </c>
@@ -16126,7 +16127,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" hidden="1">
       <c r="A481" s="10" t="s">
         <v>508</v>
       </c>
@@ -16137,7 +16138,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" hidden="1">
       <c r="A482" s="10" t="s">
         <v>508</v>
       </c>
@@ -16148,7 +16149,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" hidden="1">
       <c r="A483" s="10" t="s">
         <v>508</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:3" hidden="1">
       <c r="A484" s="10" t="s">
         <v>508</v>
       </c>
@@ -16170,7 +16171,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:3" ht="30" hidden="1">
       <c r="A485" s="10" t="s">
         <v>508</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:3" hidden="1">
       <c r="A486" s="10" t="s">
         <v>508</v>
       </c>
@@ -16192,7 +16193,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:3" hidden="1">
       <c r="A487" s="10" t="s">
         <v>508</v>
       </c>
@@ -16203,7 +16204,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" hidden="1">
       <c r="A488" s="10" t="s">
         <v>508</v>
       </c>
@@ -16214,7 +16215,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:3" hidden="1">
       <c r="A489" s="10" t="s">
         <v>508</v>
       </c>
@@ -16225,7 +16226,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:3" hidden="1">
       <c r="A490" s="10" t="s">
         <v>508</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:3" hidden="1">
       <c r="A491" s="10" t="s">
         <v>508</v>
       </c>
@@ -16247,7 +16248,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" hidden="1">
       <c r="A492" s="10" t="s">
         <v>508</v>
       </c>
@@ -16258,7 +16259,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:3" hidden="1">
       <c r="A493" s="10" t="s">
         <v>508</v>
       </c>
@@ -16269,7 +16270,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" hidden="1">
       <c r="A494" s="10" t="s">
         <v>508</v>
       </c>
@@ -16280,7 +16281,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:3" hidden="1">
       <c r="A495" s="10" t="s">
         <v>508</v>
       </c>
@@ -16291,7 +16292,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" hidden="1">
       <c r="A496" s="10" t="s">
         <v>508</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:3" hidden="1">
       <c r="A497" s="10" t="s">
         <v>508</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" hidden="1">
       <c r="A498" s="10" t="s">
         <v>508</v>
       </c>
@@ -16324,7 +16325,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" hidden="1">
       <c r="A499" s="10" t="s">
         <v>508</v>
       </c>
@@ -16335,7 +16336,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" hidden="1">
       <c r="A500" s="10" t="s">
         <v>508</v>
       </c>
@@ -16346,7 +16347,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:3" ht="30" hidden="1">
       <c r="A501" s="10" t="s">
         <v>508</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" hidden="1">
       <c r="A502" s="10" t="s">
         <v>508</v>
       </c>
@@ -16368,7 +16369,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" hidden="1">
       <c r="A503" s="10" t="s">
         <v>508</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" hidden="1">
       <c r="A504" s="10" t="s">
         <v>508</v>
       </c>
@@ -16390,7 +16391,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:3" hidden="1">
       <c r="A505" s="10" t="s">
         <v>508</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" ht="30" hidden="1">
       <c r="A506" s="10" t="s">
         <v>508</v>
       </c>
@@ -16412,7 +16413,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" hidden="1">
       <c r="A507" s="10" t="s">
         <v>508</v>
       </c>
@@ -16423,7 +16424,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" hidden="1">
       <c r="A508" s="10" t="s">
         <v>508</v>
       </c>
@@ -16434,7 +16435,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" ht="30" hidden="1">
       <c r="A509" s="10" t="s">
         <v>508</v>
       </c>
@@ -16445,7 +16446,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" ht="30" hidden="1">
       <c r="A510" s="10" t="s">
         <v>508</v>
       </c>
@@ -16456,7 +16457,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" ht="30" hidden="1">
       <c r="A511" s="10" t="s">
         <v>508</v>
       </c>
@@ -16467,7 +16468,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:3" ht="30" hidden="1">
       <c r="A512" s="10" t="s">
         <v>508</v>
       </c>
@@ -16478,7 +16479,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" hidden="1">
       <c r="A513" s="10" t="s">
         <v>508</v>
       </c>
@@ -16489,7 +16490,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:3" hidden="1">
       <c r="A514" s="10" t="s">
         <v>508</v>
       </c>
@@ -16500,7 +16501,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:3" hidden="1">
       <c r="A515" s="10" t="s">
         <v>508</v>
       </c>
@@ -16511,7 +16512,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" ht="30" hidden="1">
       <c r="A516" s="10" t="s">
         <v>508</v>
       </c>
@@ -16522,7 +16523,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" hidden="1">
       <c r="A517" s="10" t="s">
         <v>508</v>
       </c>
@@ -16533,7 +16534,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" hidden="1">
       <c r="A518" s="10" t="s">
         <v>508</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" ht="30" hidden="1">
       <c r="A519" s="10" t="s">
         <v>508</v>
       </c>
@@ -16555,7 +16556,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:3" hidden="1">
       <c r="A520" s="10" t="s">
         <v>508</v>
       </c>
@@ -16566,7 +16567,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:3" hidden="1">
       <c r="A521" s="10" t="s">
         <v>508</v>
       </c>
@@ -16577,7 +16578,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" hidden="1">
       <c r="A522" s="10" t="s">
         <v>508</v>
       </c>
@@ -16588,7 +16589,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" hidden="1">
       <c r="A523" s="10" t="s">
         <v>508</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" hidden="1">
       <c r="A524" s="10" t="s">
         <v>508</v>
       </c>
@@ -16610,7 +16611,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:3" hidden="1">
       <c r="A525" s="10" t="s">
         <v>508</v>
       </c>
@@ -16621,7 +16622,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:3" hidden="1">
       <c r="A526" s="10" t="s">
         <v>508</v>
       </c>
@@ -16632,7 +16633,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" hidden="1">
       <c r="A527" s="10" t="s">
         <v>508</v>
       </c>
@@ -16643,7 +16644,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:3" ht="30" hidden="1">
       <c r="A528" s="10" t="s">
         <v>508</v>
       </c>
@@ -16654,7 +16655,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:3" hidden="1">
       <c r="A529" s="10" t="s">
         <v>508</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" hidden="1">
       <c r="A530" s="10" t="s">
         <v>508</v>
       </c>
@@ -16676,7 +16677,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" hidden="1">
       <c r="A531" s="10" t="s">
         <v>508</v>
       </c>
@@ -16687,7 +16688,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:3" hidden="1">
       <c r="A532" s="10" t="s">
         <v>508</v>
       </c>
@@ -16698,7 +16699,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" hidden="1">
       <c r="A533" s="10" t="s">
         <v>508</v>
       </c>
@@ -16709,7 +16710,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" hidden="1">
       <c r="A534" s="10" t="s">
         <v>508</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:3" ht="30" hidden="1">
       <c r="A535" s="10" t="s">
         <v>508</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" hidden="1">
       <c r="A536" s="10" t="s">
         <v>508</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:3" ht="30" hidden="1">
       <c r="A537" s="10" t="s">
         <v>508</v>
       </c>
@@ -16753,7 +16754,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:3" hidden="1">
       <c r="A538" s="10" t="s">
         <v>508</v>
       </c>
@@ -16764,7 +16765,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:3" hidden="1">
       <c r="A539" s="10" t="s">
         <v>508</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" ht="30" hidden="1">
       <c r="A540" s="10" t="s">
         <v>508</v>
       </c>
@@ -16786,7 +16787,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" hidden="1">
       <c r="A541" s="10" t="s">
         <v>508</v>
       </c>
@@ -16797,7 +16798,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" ht="30" hidden="1">
       <c r="A542" s="10" t="s">
         <v>508</v>
       </c>
@@ -16808,7 +16809,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:3" hidden="1">
       <c r="A543" s="10" t="s">
         <v>508</v>
       </c>
@@ -16819,7 +16820,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:3" ht="30" hidden="1">
       <c r="A544" s="10" t="s">
         <v>508</v>
       </c>
@@ -16830,7 +16831,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" ht="30" hidden="1">
       <c r="A545" s="10" t="s">
         <v>508</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" hidden="1">
       <c r="A546" s="10" t="s">
         <v>508</v>
       </c>
@@ -16852,7 +16853,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" ht="30" hidden="1">
       <c r="A547" s="10" t="s">
         <v>508</v>
       </c>
@@ -16863,7 +16864,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" ht="30" hidden="1">
       <c r="A548" s="10" t="s">
         <v>508</v>
       </c>
@@ -16874,7 +16875,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:3" hidden="1">
       <c r="A549" s="10" t="s">
         <v>508</v>
       </c>
@@ -16885,7 +16886,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:3" hidden="1">
       <c r="A550" s="10" t="s">
         <v>508</v>
       </c>
@@ -16896,7 +16897,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:3" hidden="1">
       <c r="A551" s="10" t="s">
         <v>508</v>
       </c>
@@ -16907,7 +16908,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" hidden="1">
       <c r="A552" s="10" t="s">
         <v>508</v>
       </c>
@@ -16918,7 +16919,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" hidden="1">
       <c r="A553" s="10" t="s">
         <v>508</v>
       </c>
@@ -16929,7 +16930,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:3" hidden="1">
       <c r="A554" s="10" t="s">
         <v>508</v>
       </c>
@@ -16940,7 +16941,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:3" hidden="1">
       <c r="A555" s="10" t="s">
         <v>508</v>
       </c>
@@ -16951,7 +16952,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:3" hidden="1">
       <c r="A556" s="10" t="s">
         <v>508</v>
       </c>
@@ -16962,7 +16963,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" ht="30" hidden="1">
       <c r="A557" s="10" t="s">
         <v>508</v>
       </c>
@@ -16973,7 +16974,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" hidden="1">
       <c r="A558" s="10" t="s">
         <v>508</v>
       </c>
@@ -16984,7 +16985,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" hidden="1">
       <c r="A559" s="10" t="s">
         <v>508</v>
       </c>
@@ -16995,7 +16996,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" hidden="1">
       <c r="A560" s="10" t="s">
         <v>508</v>
       </c>
@@ -17006,7 +17007,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" ht="30" hidden="1">
       <c r="A561" s="10" t="s">
         <v>508</v>
       </c>
@@ -17017,7 +17018,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:3" hidden="1">
       <c r="A562" s="10" t="s">
         <v>508</v>
       </c>
@@ -17028,7 +17029,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" hidden="1">
       <c r="A563" s="10" t="s">
         <v>508</v>
       </c>
@@ -17039,7 +17040,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:3" hidden="1">
       <c r="A564" s="10" t="s">
         <v>508</v>
       </c>
@@ -17050,7 +17051,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:3" hidden="1">
       <c r="A565" s="10" t="s">
         <v>508</v>
       </c>
@@ -17061,7 +17062,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" hidden="1">
       <c r="A566" s="10" t="s">
         <v>508</v>
       </c>
@@ -17072,7 +17073,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:3" hidden="1">
       <c r="A567" s="10" t="s">
         <v>508</v>
       </c>
@@ -17083,7 +17084,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" ht="30" hidden="1">
       <c r="A568" s="10" t="s">
         <v>508</v>
       </c>
@@ -17094,7 +17095,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" hidden="1">
       <c r="A569" s="10" t="s">
         <v>508</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" hidden="1">
       <c r="A570" s="10" t="s">
         <v>508</v>
       </c>
@@ -17116,7 +17117,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:3" ht="30" hidden="1">
       <c r="A571" s="10" t="s">
         <v>508</v>
       </c>
@@ -17127,7 +17128,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" hidden="1">
       <c r="A572" s="10" t="s">
         <v>508</v>
       </c>
@@ -17138,7 +17139,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" hidden="1">
       <c r="A573" s="10" t="s">
         <v>508</v>
       </c>
@@ -17149,7 +17150,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:3" hidden="1">
       <c r="A574" s="10" t="s">
         <v>508</v>
       </c>
@@ -17160,7 +17161,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:3" hidden="1">
       <c r="A575" s="10" t="s">
         <v>508</v>
       </c>
@@ -17171,7 +17172,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:3" hidden="1">
       <c r="A576" s="10" t="s">
         <v>508</v>
       </c>
@@ -17182,7 +17183,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" hidden="1">
       <c r="A577" s="10" t="s">
         <v>508</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" hidden="1">
       <c r="A578" s="10" t="s">
         <v>508</v>
       </c>
@@ -17204,7 +17205,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" hidden="1">
       <c r="A579" s="10" t="s">
         <v>508</v>
       </c>
@@ -17215,7 +17216,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" hidden="1">
       <c r="A580" s="10" t="s">
         <v>508</v>
       </c>
@@ -17226,7 +17227,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" ht="30" hidden="1">
       <c r="A581" s="10" t="s">
         <v>508</v>
       </c>
@@ -17246,7 +17247,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" hidden="1">
       <c r="A582" s="10" t="s">
         <v>508</v>
       </c>
@@ -17263,7 +17264,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" ht="21.75" hidden="1" customHeight="1">
       <c r="A583" s="10" t="s">
         <v>508</v>
       </c>
@@ -17283,7 +17284,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15.75">
       <c r="A584" s="15" t="s">
         <v>686</v>
       </c>
@@ -17297,7 +17298,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6">
       <c r="A585" s="17" t="s">
         <v>686</v>
       </c>
@@ -17311,7 +17312,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" ht="30">
       <c r="A586" s="17" t="s">
         <v>686</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" ht="60">
       <c r="A587" s="17" t="s">
         <v>686</v>
       </c>
@@ -17339,7 +17340,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" ht="60">
       <c r="A588" s="17" t="s">
         <v>686</v>
       </c>
@@ -17353,7 +17354,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="90" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" ht="90">
       <c r="A589" s="17" t="s">
         <v>686</v>
       </c>
@@ -17367,7 +17368,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" ht="30">
       <c r="A590" s="17" t="s">
         <v>686</v>
       </c>
@@ -17381,7 +17382,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15.75" hidden="1">
       <c r="A591" s="10" t="s">
         <v>707</v>
       </c>
@@ -17398,7 +17399,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="25.5" hidden="1" customHeight="1">
       <c r="A592" s="10" t="s">
         <v>707</v>
       </c>
@@ -17412,7 +17413,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="20.25" hidden="1" customHeight="1">
       <c r="A593" s="10" t="s">
         <v>707</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="19.5" hidden="1" customHeight="1">
       <c r="A594" s="10" t="s">
         <v>707</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" hidden="1">
       <c r="A595" s="10" t="s">
         <v>707</v>
       </c>
@@ -17457,7 +17458,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" ht="16.5" hidden="1" customHeight="1">
       <c r="A596" s="10" t="s">
         <v>707</v>
       </c>
@@ -17471,7 +17472,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A597" s="10" t="s">
         <v>707</v>
       </c>
@@ -17485,7 +17486,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" hidden="1">
       <c r="A598" s="10" t="s">
         <v>725</v>
       </c>
@@ -17496,7 +17497,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" ht="15" hidden="1" customHeight="1">
       <c r="A599" s="10" t="s">
         <v>725</v>
       </c>
@@ -17510,7 +17511,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" hidden="1">
       <c r="A600" s="10" t="s">
         <v>725</v>
       </c>
@@ -17521,7 +17522,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" hidden="1">
       <c r="A601" s="10" t="s">
         <v>725</v>
       </c>
@@ -17532,7 +17533,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" ht="17.25" hidden="1" customHeight="1">
       <c r="A602" s="10" t="s">
         <v>725</v>
       </c>
@@ -17546,7 +17547,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" hidden="1">
       <c r="A603" s="10" t="s">
         <v>725</v>
       </c>
@@ -17560,7 +17561,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:6" hidden="1">
       <c r="A604" s="10" t="s">
         <v>725</v>
       </c>
@@ -17574,7 +17575,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:6" hidden="1">
       <c r="A605" s="10" t="s">
         <v>725</v>
       </c>
@@ -17588,7 +17589,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:6" hidden="1">
       <c r="A606" s="10" t="s">
         <v>725</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:6" hidden="1">
       <c r="A607" s="10" t="s">
         <v>725</v>
       </c>
@@ -17610,7 +17611,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:6" hidden="1">
       <c r="A608" s="10" t="s">
         <v>725</v>
       </c>
@@ -17621,7 +17622,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" hidden="1">
       <c r="A609" s="10" t="s">
         <v>725</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" hidden="1">
       <c r="A610" s="10" t="s">
         <v>725</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" hidden="1">
       <c r="A611" s="10" t="s">
         <v>725</v>
       </c>
@@ -17654,7 +17655,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" hidden="1">
       <c r="A612" s="10" t="s">
         <v>725</v>
       </c>
@@ -17665,7 +17666,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" hidden="1">
       <c r="A613" s="10" t="s">
         <v>725</v>
       </c>
@@ -17676,7 +17677,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" hidden="1">
       <c r="A614" s="10" t="s">
         <v>725</v>
       </c>
@@ -17687,7 +17688,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" hidden="1">
       <c r="A615" s="10" t="s">
         <v>725</v>
       </c>
@@ -17698,7 +17699,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" hidden="1">
       <c r="A616" s="10" t="s">
         <v>725</v>
       </c>
@@ -17709,7 +17710,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" hidden="1">
       <c r="A617" s="10" t="s">
         <v>725</v>
       </c>
@@ -17720,7 +17721,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" hidden="1">
       <c r="A618" s="10" t="s">
         <v>725</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" hidden="1">
       <c r="A619" s="10" t="s">
         <v>725</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" hidden="1">
       <c r="A620" s="10" t="s">
         <v>725</v>
       </c>
@@ -17753,7 +17754,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" hidden="1">
       <c r="A621" s="10" t="s">
         <v>725</v>
       </c>
@@ -17767,7 +17768,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" hidden="1">
       <c r="A622" s="10" t="s">
         <v>725</v>
       </c>
@@ -17778,7 +17779,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" hidden="1">
       <c r="A623" s="10" t="s">
         <v>725</v>
       </c>
@@ -17792,7 +17793,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" hidden="1">
       <c r="A624" s="10" t="s">
         <v>725</v>
       </c>
@@ -17803,7 +17804,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" hidden="1">
       <c r="A625" s="10" t="s">
         <v>725</v>
       </c>
@@ -17817,7 +17818,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" hidden="1">
       <c r="A626" s="10" t="s">
         <v>725</v>
       </c>
@@ -17831,7 +17832,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" hidden="1">
       <c r="A627" s="10" t="s">
         <v>725</v>
       </c>
@@ -17842,7 +17843,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" hidden="1">
       <c r="A628" s="10" t="s">
         <v>725</v>
       </c>
@@ -17856,7 +17857,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" hidden="1">
       <c r="A629" s="10" t="s">
         <v>725</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" hidden="1">
       <c r="A630" s="10" t="s">
         <v>725</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" hidden="1">
       <c r="A631" s="10" t="s">
         <v>725</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" hidden="1">
       <c r="A632" s="10" t="s">
         <v>725</v>
       </c>
@@ -17903,7 +17904,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" hidden="1">
       <c r="A633" s="10" t="s">
         <v>725</v>
       </c>
@@ -17914,7 +17915,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4" hidden="1">
       <c r="A634" s="10" t="s">
         <v>725</v>
       </c>
@@ -17925,7 +17926,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4" hidden="1">
       <c r="A635" s="10" t="s">
         <v>725</v>
       </c>
@@ -17939,7 +17940,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" hidden="1">
       <c r="A636" s="10" t="s">
         <v>725</v>
       </c>
@@ -17950,7 +17951,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" hidden="1">
       <c r="A637" s="10" t="s">
         <v>725</v>
       </c>
@@ -17964,7 +17965,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" hidden="1">
       <c r="A638" s="10" t="s">
         <v>725</v>
       </c>
@@ -17978,7 +17979,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" hidden="1">
       <c r="A639" s="10" t="s">
         <v>725</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" hidden="1">
       <c r="A640" s="10" t="s">
         <v>725</v>
       </c>
@@ -18003,7 +18004,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" hidden="1">
       <c r="A641" s="10" t="s">
         <v>725</v>
       </c>
@@ -18014,7 +18015,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" hidden="1">
       <c r="A642" s="10" t="s">
         <v>725</v>
       </c>
@@ -18025,7 +18026,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" hidden="1">
       <c r="A643" s="10" t="s">
         <v>725</v>
       </c>
@@ -18036,7 +18037,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" hidden="1">
       <c r="A644" s="10" t="s">
         <v>725</v>
       </c>
@@ -18047,7 +18048,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" hidden="1">
       <c r="A645" s="10" t="s">
         <v>725</v>
       </c>
@@ -18058,7 +18059,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" hidden="1">
       <c r="A646" s="10" t="s">
         <v>725</v>
       </c>
@@ -18069,7 +18070,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" ht="30" hidden="1">
       <c r="A647" s="10" t="s">
         <v>725</v>
       </c>
@@ -18083,7 +18084,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" hidden="1">
       <c r="A648" s="10" t="s">
         <v>725</v>
       </c>
@@ -18094,7 +18095,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" hidden="1">
       <c r="A649" s="10" t="s">
         <v>725</v>
       </c>
@@ -18105,7 +18106,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" hidden="1">
       <c r="A650" s="10" t="s">
         <v>725</v>
       </c>
@@ -18116,7 +18117,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" hidden="1">
       <c r="A651" s="10" t="s">
         <v>725</v>
       </c>
@@ -18127,7 +18128,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" ht="30" hidden="1">
       <c r="A652" s="10" t="s">
         <v>725</v>
       </c>
@@ -18138,7 +18139,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" hidden="1">
       <c r="A653" s="10" t="s">
         <v>725</v>
       </c>
@@ -18149,7 +18150,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" hidden="1">
       <c r="A654" s="10" t="s">
         <v>725</v>
       </c>
@@ -18160,7 +18161,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" hidden="1">
       <c r="A655" s="10" t="s">
         <v>725</v>
       </c>
@@ -18171,7 +18172,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" hidden="1">
       <c r="A656" s="10" t="s">
         <v>725</v>
       </c>
@@ -18182,7 +18183,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" hidden="1">
       <c r="A657" s="10" t="s">
         <v>725</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" hidden="1">
       <c r="A658" s="10" t="s">
         <v>725</v>
       </c>
@@ -18204,7 +18205,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" hidden="1">
       <c r="A659" s="10" t="s">
         <v>725</v>
       </c>
@@ -18215,7 +18216,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" ht="27.75" hidden="1" customHeight="1">
       <c r="A660" s="10" t="s">
         <v>725</v>
       </c>
@@ -18232,7 +18233,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" hidden="1">
       <c r="A661" s="10" t="s">
         <v>725</v>
       </c>
@@ -18243,7 +18244,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" hidden="1">
       <c r="A662" s="10" t="s">
         <v>725</v>
       </c>
@@ -18254,7 +18255,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" hidden="1">
       <c r="A663" s="10" t="s">
         <v>725</v>
       </c>
@@ -18265,7 +18266,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" hidden="1">
       <c r="A664" s="10" t="s">
         <v>725</v>
       </c>
@@ -18282,7 +18283,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" ht="30" hidden="1">
       <c r="A665" s="10" t="s">
         <v>725</v>
       </c>
@@ -18299,7 +18300,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" hidden="1">
       <c r="A666" s="10" t="s">
         <v>811</v>
       </c>
@@ -18310,7 +18311,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" hidden="1">
       <c r="A667" s="10" t="s">
         <v>811</v>
       </c>
@@ -18321,7 +18322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" hidden="1">
       <c r="A668" s="10" t="s">
         <v>811</v>
       </c>
@@ -18332,7 +18333,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" hidden="1">
       <c r="A669" s="10" t="s">
         <v>811</v>
       </c>
@@ -18343,7 +18344,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" hidden="1">
       <c r="A670" s="10" t="s">
         <v>811</v>
       </c>
@@ -18354,7 +18355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" hidden="1">
       <c r="A671" s="10" t="s">
         <v>811</v>
       </c>
@@ -18365,7 +18366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" hidden="1">
       <c r="A672" s="10" t="s">
         <v>811</v>
       </c>
@@ -18376,7 +18377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:3" hidden="1">
       <c r="A673" s="10" t="s">
         <v>811</v>
       </c>
@@ -18387,7 +18388,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:3" hidden="1">
       <c r="A674" s="10" t="s">
         <v>811</v>
       </c>
@@ -18398,7 +18399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:3" hidden="1">
       <c r="A675" s="10" t="s">
         <v>811</v>
       </c>
@@ -18409,7 +18410,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:3" hidden="1">
       <c r="A676" s="10" t="s">
         <v>811</v>
       </c>
@@ -18420,7 +18421,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:3" hidden="1">
       <c r="A677" s="10" t="s">
         <v>811</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:3" hidden="1">
       <c r="A678" s="10" t="s">
         <v>811</v>
       </c>
@@ -18442,7 +18443,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:3" hidden="1">
       <c r="A679" s="10" t="s">
         <v>811</v>
       </c>
@@ -18453,7 +18454,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:3" hidden="1">
       <c r="A680" s="10" t="s">
         <v>811</v>
       </c>
@@ -18464,7 +18465,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:3" hidden="1">
       <c r="A681" s="10" t="s">
         <v>811</v>
       </c>
@@ -18475,7 +18476,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:3" hidden="1">
       <c r="A682" s="10" t="s">
         <v>811</v>
       </c>
@@ -18486,7 +18487,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:3" hidden="1">
       <c r="A683" s="10" t="s">
         <v>811</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:3" hidden="1">
       <c r="A684" s="10" t="s">
         <v>811</v>
       </c>
@@ -18508,7 +18509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:3" hidden="1">
       <c r="A685" s="10" t="s">
         <v>811</v>
       </c>
@@ -18519,7 +18520,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:3" hidden="1">
       <c r="A686" s="10" t="s">
         <v>811</v>
       </c>
@@ -18530,7 +18531,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:3" hidden="1">
       <c r="A687" s="10" t="s">
         <v>811</v>
       </c>
@@ -18541,7 +18542,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:3" hidden="1">
       <c r="A688" s="10" t="s">
         <v>811</v>
       </c>
@@ -18552,7 +18553,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:3" hidden="1">
       <c r="A689" s="10" t="s">
         <v>811</v>
       </c>
@@ -18563,7 +18564,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:3" hidden="1">
       <c r="A690" s="10" t="s">
         <v>811</v>
       </c>
@@ -18574,7 +18575,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:3" hidden="1">
       <c r="A691" s="10" t="s">
         <v>811</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:3" hidden="1">
       <c r="A692" s="10" t="s">
         <v>811</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:3" hidden="1">
       <c r="A693" s="10" t="s">
         <v>811</v>
       </c>
@@ -18607,7 +18608,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:3" hidden="1">
       <c r="A694" s="10" t="s">
         <v>811</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:3" hidden="1">
       <c r="A695" s="10" t="s">
         <v>811</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:3" hidden="1">
       <c r="A696" s="10" t="s">
         <v>811</v>
       </c>
@@ -18640,7 +18641,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:3" hidden="1">
       <c r="A697" s="10" t="s">
         <v>811</v>
       </c>
@@ -18651,7 +18652,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:3" hidden="1">
       <c r="A698" s="10" t="s">
         <v>811</v>
       </c>
@@ -18662,7 +18663,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:3" hidden="1">
       <c r="A699" s="10" t="s">
         <v>811</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:3" hidden="1">
       <c r="A700" s="10" t="s">
         <v>811</v>
       </c>
@@ -18684,7 +18685,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:3" hidden="1">
       <c r="A701" s="10" t="s">
         <v>811</v>
       </c>
@@ -18695,7 +18696,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:3" hidden="1">
       <c r="A702" s="10" t="s">
         <v>811</v>
       </c>
@@ -18706,7 +18707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:3" hidden="1">
       <c r="A703" s="10" t="s">
         <v>811</v>
       </c>
@@ -18717,7 +18718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:3" hidden="1">
       <c r="A704" s="10" t="s">
         <v>811</v>
       </c>
@@ -18728,7 +18729,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" hidden="1">
       <c r="A705" s="10" t="s">
         <v>811</v>
       </c>
@@ -18739,7 +18740,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" hidden="1">
       <c r="A706" s="10" t="s">
         <v>811</v>
       </c>
@@ -18750,7 +18751,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" hidden="1">
       <c r="A707" s="10" t="s">
         <v>811</v>
       </c>
@@ -18761,7 +18762,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" hidden="1">
       <c r="A708" s="10" t="s">
         <v>811</v>
       </c>
@@ -18772,7 +18773,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" hidden="1">
       <c r="A709" s="10" t="s">
         <v>811</v>
       </c>
@@ -18783,7 +18784,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" hidden="1">
       <c r="A710" s="10" t="s">
         <v>811</v>
       </c>
@@ -18797,7 +18798,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" hidden="1">
       <c r="A711" s="10" t="s">
         <v>811</v>
       </c>
@@ -18808,7 +18809,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" hidden="1">
       <c r="A712" s="10" t="s">
         <v>811</v>
       </c>
@@ -18819,7 +18820,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" hidden="1">
       <c r="A713" s="10" t="s">
         <v>811</v>
       </c>
@@ -18830,7 +18831,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" hidden="1">
       <c r="A714" s="10" t="s">
         <v>811</v>
       </c>
@@ -18844,7 +18845,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" hidden="1">
       <c r="A715" s="10" t="s">
         <v>811</v>
       </c>
@@ -18855,7 +18856,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4" hidden="1">
       <c r="A716" s="10" t="s">
         <v>811</v>
       </c>
@@ -18869,7 +18870,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" hidden="1">
       <c r="A717" s="10" t="s">
         <v>811</v>
       </c>
@@ -18883,7 +18884,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" hidden="1">
       <c r="A718" s="10" t="s">
         <v>811</v>
       </c>
@@ -18894,7 +18895,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" hidden="1">
       <c r="A719" s="10" t="s">
         <v>811</v>
       </c>
@@ -18905,7 +18906,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" hidden="1">
       <c r="A720" s="10" t="s">
         <v>811</v>
       </c>
@@ -18916,7 +18917,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4" hidden="1">
       <c r="A721" s="10" t="s">
         <v>811</v>
       </c>
@@ -18927,7 +18928,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4" hidden="1">
       <c r="A722" s="10" t="s">
         <v>811</v>
       </c>
@@ -18938,7 +18939,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" hidden="1">
       <c r="A723" s="10" t="s">
         <v>811</v>
       </c>
@@ -18949,7 +18950,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" hidden="1">
       <c r="A724" s="10" t="s">
         <v>811</v>
       </c>
@@ -18963,7 +18964,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" hidden="1">
       <c r="A725" s="10" t="s">
         <v>811</v>
       </c>
@@ -18974,7 +18975,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" hidden="1">
       <c r="A726" s="10" t="s">
         <v>811</v>
       </c>
@@ -18985,7 +18986,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" hidden="1">
       <c r="A727" s="10" t="s">
         <v>811</v>
       </c>
@@ -18996,7 +18997,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4" hidden="1">
       <c r="A728" s="10" t="s">
         <v>811</v>
       </c>
@@ -19007,7 +19008,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4" hidden="1">
       <c r="A729" s="10" t="s">
         <v>811</v>
       </c>
@@ -19018,7 +19019,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" hidden="1">
       <c r="A730" s="10" t="s">
         <v>811</v>
       </c>
@@ -19029,7 +19030,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" hidden="1">
       <c r="A731" s="10" t="s">
         <v>811</v>
       </c>
@@ -19040,7 +19041,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" hidden="1">
       <c r="A732" s="10" t="s">
         <v>811</v>
       </c>
@@ -19051,7 +19052,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" hidden="1">
       <c r="A733" s="10" t="s">
         <v>811</v>
       </c>
@@ -19062,7 +19063,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" hidden="1">
       <c r="A734" s="10" t="s">
         <v>811</v>
       </c>
@@ -19073,7 +19074,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" hidden="1">
       <c r="A735" s="10" t="s">
         <v>811</v>
       </c>
@@ -19084,7 +19085,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" ht="18.75" hidden="1" customHeight="1">
       <c r="A736" s="10" t="s">
         <v>853</v>
       </c>
@@ -19095,7 +19096,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A737" s="10" t="s">
         <v>853</v>
       </c>
@@ -19106,7 +19107,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A738" s="10" t="s">
         <v>853</v>
       </c>
@@ -19117,7 +19118,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A739" s="10" t="s">
         <v>853</v>
       </c>
@@ -19128,7 +19129,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A740" s="10" t="s">
         <v>853</v>
       </c>
@@ -19139,7 +19140,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A741" s="10" t="s">
         <v>853</v>
       </c>
@@ -19150,7 +19151,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A742" s="10" t="s">
         <v>853</v>
       </c>
@@ -19161,7 +19162,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A743" s="10" t="s">
         <v>853</v>
       </c>
@@ -19172,7 +19173,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A744" s="10" t="s">
         <v>853</v>
       </c>
@@ -19183,7 +19184,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A745" s="10" t="s">
         <v>853</v>
       </c>
@@ -19194,7 +19195,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A746" s="10" t="s">
         <v>853</v>
       </c>
@@ -19205,7 +19206,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A747" s="10" t="s">
         <v>853</v>
       </c>
@@ -19216,7 +19217,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A748" s="10" t="s">
         <v>853</v>
       </c>
@@ -19227,7 +19228,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A749" s="10" t="s">
         <v>853</v>
       </c>
@@ -19238,7 +19239,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A750" s="10" t="s">
         <v>853</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A751" s="10" t="s">
         <v>853</v>
       </c>
@@ -19260,7 +19261,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A752" s="10" t="s">
         <v>853</v>
       </c>
@@ -19271,7 +19272,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A753" s="10" t="s">
         <v>853</v>
       </c>
@@ -19282,7 +19283,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A754" s="10" t="s">
         <v>853</v>
       </c>
@@ -19293,7 +19294,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A755" s="10" t="s">
         <v>853</v>
       </c>
@@ -19304,7 +19305,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A756" s="10" t="s">
         <v>853</v>
       </c>
@@ -19315,7 +19316,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A757" s="10" t="s">
         <v>853</v>
       </c>
@@ -19326,7 +19327,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A758" s="10" t="s">
         <v>853</v>
       </c>
@@ -19337,7 +19338,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A759" s="10" t="s">
         <v>853</v>
       </c>
@@ -19348,7 +19349,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A760" s="10" t="s">
         <v>853</v>
       </c>
@@ -19359,7 +19360,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A761" s="10" t="s">
         <v>853</v>
       </c>
@@ -19370,7 +19371,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A762" s="10" t="s">
         <v>853</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A763" s="10" t="s">
         <v>853</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A764" s="10" t="s">
         <v>853</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A765" s="10" t="s">
         <v>853</v>
       </c>
@@ -19414,7 +19415,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A766" s="10" t="s">
         <v>853</v>
       </c>
@@ -19425,7 +19426,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A767" s="10" t="s">
         <v>853</v>
       </c>
@@ -19436,7 +19437,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:3" ht="18" hidden="1" customHeight="1">
       <c r="A768" s="10" t="s">
         <v>853</v>
       </c>
@@ -19447,7 +19448,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A769" s="10" t="s">
         <v>853</v>
       </c>
@@ -19458,7 +19459,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A770" s="10" t="s">
         <v>853</v>
       </c>
@@ -19469,7 +19470,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A771" s="10" t="s">
         <v>853</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A772" s="10" t="s">
         <v>853</v>
       </c>
@@ -19491,7 +19492,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A773" s="10" t="s">
         <v>853</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A774" s="10" t="s">
         <v>853</v>
       </c>
@@ -19516,7 +19517,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A775" s="10" t="s">
         <v>853</v>
       </c>
@@ -19527,7 +19528,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A776" s="10" t="s">
         <v>853</v>
       </c>
@@ -19538,7 +19539,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A777" s="10" t="s">
         <v>853</v>
       </c>
@@ -19549,7 +19550,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A778" s="10" t="s">
         <v>853</v>
       </c>
@@ -19560,7 +19561,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A779" s="10" t="s">
         <v>853</v>
       </c>
@@ -19571,7 +19572,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A780" s="10" t="s">
         <v>853</v>
       </c>
@@ -19582,7 +19583,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A781" s="10" t="s">
         <v>853</v>
       </c>
@@ -19593,7 +19594,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A782" s="10" t="s">
         <v>853</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A783" s="10" t="s">
         <v>853</v>
       </c>
@@ -19615,7 +19616,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" ht="18" hidden="1" customHeight="1">
       <c r="A784" s="10" t="s">
         <v>853</v>
       </c>
@@ -19626,7 +19627,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" ht="18" hidden="1" customHeight="1">
       <c r="A785" s="10" t="s">
         <v>853</v>
       </c>
@@ -19637,7 +19638,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" ht="18" hidden="1" customHeight="1">
       <c r="A786" s="10" t="s">
         <v>853</v>
       </c>
@@ -19648,7 +19649,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" hidden="1">
       <c r="A787" s="10" t="s">
         <v>853</v>
       </c>
@@ -19659,7 +19660,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" hidden="1">
       <c r="A788" s="10" t="s">
         <v>853</v>
       </c>
@@ -19670,7 +19671,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" hidden="1">
       <c r="A789" s="10" t="s">
         <v>853</v>
       </c>
@@ -19681,7 +19682,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" hidden="1">
       <c r="A790" s="10" t="s">
         <v>853</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" hidden="1">
       <c r="A791" s="10" t="s">
         <v>853</v>
       </c>
@@ -19703,7 +19704,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" hidden="1">
       <c r="A792" s="10" t="s">
         <v>853</v>
       </c>
@@ -19714,7 +19715,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" hidden="1">
       <c r="A793" s="10" t="s">
         <v>853</v>
       </c>
@@ -19725,7 +19726,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" hidden="1">
       <c r="A794" s="10" t="s">
         <v>911</v>
       </c>
@@ -19733,7 +19734,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" ht="60" hidden="1">
       <c r="A795" s="10" t="s">
         <v>913</v>
       </c>
@@ -19750,7 +19751,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" ht="30" hidden="1">
       <c r="A796" s="10" t="s">
         <v>917</v>
       </c>
@@ -19768,7 +19769,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F796" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F796" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Transforms"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19783,32 +19790,32 @@
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="18" max="18" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="18:18">
       <c r="R6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="18:18">
       <c r="R7" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="18:18">
       <c r="R8" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="10" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="18:18">
       <c r="R10" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="11" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="18:18">
       <c r="R11" t="s">
         <v>923</v>
       </c>
@@ -19828,7 +19835,7 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="12.5" style="5" customWidth="1"/>
@@ -19837,7 +19844,7 @@
     <col min="5" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>924</v>
       </c>
@@ -19851,7 +19858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="62.25" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -19865,7 +19872,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="41.25" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -19879,7 +19886,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="41.25" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -19893,7 +19900,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="87" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -19907,7 +19914,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="54.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -19918,7 +19925,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="63" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -19932,7 +19939,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="75">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -19946,7 +19953,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="74.25" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -19960,7 +19967,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -19971,7 +19978,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -19982,7 +19989,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="60" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -20011,7 +20018,7 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -20019,7 +20026,7 @@
     <col min="4" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="15">
       <c r="A1" s="4" t="s">
         <v>941</v>
       </c>
@@ -20036,7 +20043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>943</v>
       </c>
@@ -20044,7 +20051,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>945</v>
       </c>
@@ -20052,7 +20059,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>945</v>
       </c>
@@ -20060,7 +20067,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>948</v>
       </c>
@@ -20068,22 +20075,22 @@
         <v>949</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>953</v>
       </c>
@@ -20091,7 +20098,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>955</v>
       </c>
@@ -20099,7 +20106,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>955</v>
       </c>
@@ -20107,7 +20114,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>958</v>
       </c>
@@ -20115,17 +20122,17 @@
         <v>959</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>962</v>
       </c>
@@ -20133,7 +20140,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>964</v>
       </c>
@@ -20141,12 +20148,12 @@
         <v>965</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>967</v>
       </c>
@@ -20154,17 +20161,17 @@
         <v>968</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="B22" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="28.5">
       <c r="A24" t="s">
         <v>971</v>
       </c>
@@ -20175,7 +20182,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="B25" t="s">
         <v>973</v>
       </c>
@@ -20183,7 +20190,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="42.75">
       <c r="B26" t="s">
         <v>974</v>
       </c>
@@ -20191,17 +20198,17 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="B27" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="B28" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>977</v>
       </c>
@@ -20218,187 +20225,187 @@
         <v>980</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="B44" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:2">
       <c r="B64" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:2">
       <c r="B68" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:2">
       <c r="B69" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:2">
       <c r="B70" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:2">
       <c r="B71" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:2">
       <c r="B72" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:2">
       <c r="B73" t="s">
         <v>1016</v>
       </c>
@@ -20417,7 +20424,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
@@ -20425,7 +20432,7 @@
     <col min="4" max="4" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>924</v>
       </c>
@@ -20439,7 +20446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="23.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -20467,12 +20474,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>1020</v>
       </c>
@@ -20480,7 +20487,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>1022</v>
       </c>
@@ -20491,7 +20498,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>1025</v>
       </c>
@@ -20499,7 +20506,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>1027</v>
       </c>

--- a/DataVisulization.xlsx
+++ b/DataVisulization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Matplotlib_Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E8116-6999-4D40-A09B-FB0B5BC83DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D17909-2CBC-4017-999B-64654B6A0FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="26955" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matplotlib" sheetId="4" r:id="rId1"/>
@@ -10495,12 +10495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F796"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A584" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C805" sqref="C805"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -10534,7 +10533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
@@ -10567,7 +10566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
@@ -10578,7 +10577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
@@ -10611,7 +10610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6">
       <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
@@ -10633,7 +10632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
@@ -10644,7 +10643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6">
       <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6">
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1">
+    <row r="15" spans="1:6">
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6">
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
@@ -10699,7 +10698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1">
+    <row r="17" spans="1:5">
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
@@ -10716,7 +10715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" hidden="1">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
@@ -10730,7 +10729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1">
+    <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
@@ -10741,7 +10740,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1">
+    <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
@@ -10752,7 +10751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1">
+    <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1">
+    <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
@@ -10785,7 +10784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1">
+    <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
@@ -10796,7 +10795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1">
+    <row r="25" spans="1:5">
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1">
+    <row r="26" spans="1:5">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -10818,7 +10817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1">
+    <row r="27" spans="1:5">
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1">
+    <row r="28" spans="1:5">
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1">
+    <row r="29" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
@@ -10851,7 +10850,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1">
+    <row r="30" spans="1:5">
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
@@ -10862,7 +10861,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1">
+    <row r="31" spans="1:5">
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
@@ -10873,7 +10872,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1">
+    <row r="32" spans="1:5">
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1">
+    <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1">
+    <row r="34" spans="1:3">
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
@@ -10906,7 +10905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1">
+    <row r="35" spans="1:3">
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1">
+    <row r="36" spans="1:3">
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1">
+    <row r="37" spans="1:3">
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1">
+    <row r="38" spans="1:3">
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
@@ -10950,7 +10949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1">
+    <row r="39" spans="1:3">
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
@@ -10961,7 +10960,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" hidden="1">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
@@ -10972,7 +10971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1">
+    <row r="41" spans="1:3">
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
@@ -10983,7 +10982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1">
+    <row r="42" spans="1:3">
       <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1">
+    <row r="43" spans="1:3">
       <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
@@ -11005,7 +11004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1">
+    <row r="44" spans="1:3">
       <c r="A44" s="10" t="s">
         <v>6</v>
       </c>
@@ -11016,7 +11015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1">
+    <row r="45" spans="1:3">
       <c r="A45" s="10" t="s">
         <v>6</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1">
+    <row r="46" spans="1:3">
       <c r="A46" s="10" t="s">
         <v>6</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1">
+    <row r="47" spans="1:3">
       <c r="A47" s="10" t="s">
         <v>6</v>
       </c>
@@ -11049,7 +11048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1">
+    <row r="48" spans="1:3">
       <c r="A48" s="10" t="s">
         <v>6</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1">
+    <row r="49" spans="1:6">
       <c r="A49" s="10" t="s">
         <v>6</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1">
+    <row r="50" spans="1:6">
       <c r="A50" s="10" t="s">
         <v>6</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1">
+    <row r="51" spans="1:6">
       <c r="A51" s="10" t="s">
         <v>6</v>
       </c>
@@ -11093,7 +11092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1">
+    <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
         <v>6</v>
       </c>
@@ -11104,7 +11103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1">
+    <row r="53" spans="1:6">
       <c r="A53" s="10" t="s">
         <v>6</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1">
+    <row r="54" spans="1:6">
       <c r="A54" s="10" t="s">
         <v>6</v>
       </c>
@@ -11126,7 +11125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
         <v>6</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1">
+    <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
         <v>6</v>
       </c>
@@ -11157,7 +11156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1">
+    <row r="57" spans="1:6">
       <c r="A57" s="10" t="s">
         <v>6</v>
       </c>
@@ -11171,7 +11170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1">
+    <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
         <v>6</v>
       </c>
@@ -11191,7 +11190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1">
+    <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
         <v>6</v>
       </c>
@@ -11202,7 +11201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1">
+    <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
         <v>6</v>
       </c>
@@ -11213,7 +11212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1">
+    <row r="61" spans="1:6">
       <c r="A61" s="10" t="s">
         <v>83</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1">
+    <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
         <v>83</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1">
+    <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
         <v>83</v>
       </c>
@@ -11246,7 +11245,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1">
+    <row r="64" spans="1:6">
       <c r="A64" s="10" t="s">
         <v>83</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1">
+    <row r="65" spans="1:3">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -11268,7 +11267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1">
+    <row r="66" spans="1:3">
       <c r="A66" s="10" t="s">
         <v>83</v>
       </c>
@@ -11279,7 +11278,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1">
+    <row r="67" spans="1:3">
       <c r="A67" s="10" t="s">
         <v>83</v>
       </c>
@@ -11290,7 +11289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1">
+    <row r="68" spans="1:3">
       <c r="A68" s="10" t="s">
         <v>83</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1">
+    <row r="69" spans="1:3">
       <c r="A69" s="10" t="s">
         <v>83</v>
       </c>
@@ -11312,7 +11311,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1">
+    <row r="70" spans="1:3">
       <c r="A70" s="10" t="s">
         <v>83</v>
       </c>
@@ -11323,7 +11322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1">
+    <row r="71" spans="1:3">
       <c r="A71" s="10" t="s">
         <v>83</v>
       </c>
@@ -11334,7 +11333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1">
+    <row r="72" spans="1:3">
       <c r="A72" s="10" t="s">
         <v>83</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1">
+    <row r="73" spans="1:3">
       <c r="A73" s="10" t="s">
         <v>83</v>
       </c>
@@ -11356,7 +11355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1">
+    <row r="74" spans="1:3">
       <c r="A74" s="10" t="s">
         <v>83</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1">
+    <row r="75" spans="1:3">
       <c r="A75" s="10" t="s">
         <v>83</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1">
+    <row r="76" spans="1:3">
       <c r="A76" s="10" t="s">
         <v>83</v>
       </c>
@@ -11389,7 +11388,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1">
+    <row r="77" spans="1:3">
       <c r="A77" s="10" t="s">
         <v>83</v>
       </c>
@@ -11400,7 +11399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1">
+    <row r="78" spans="1:3">
       <c r="A78" s="10" t="s">
         <v>83</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1">
+    <row r="79" spans="1:3">
       <c r="A79" s="10" t="s">
         <v>83</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1">
+    <row r="80" spans="1:3">
       <c r="A80" s="10" t="s">
         <v>83</v>
       </c>
@@ -11433,7 +11432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1">
+    <row r="81" spans="1:3">
       <c r="A81" s="10" t="s">
         <v>83</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1">
+    <row r="82" spans="1:3">
       <c r="A82" s="10" t="s">
         <v>83</v>
       </c>
@@ -11455,7 +11454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1">
+    <row r="83" spans="1:3">
       <c r="A83" s="10" t="s">
         <v>83</v>
       </c>
@@ -11466,7 +11465,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1">
+    <row r="84" spans="1:3">
       <c r="A84" s="10" t="s">
         <v>83</v>
       </c>
@@ -11477,7 +11476,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1">
+    <row r="85" spans="1:3">
       <c r="A85" s="10" t="s">
         <v>83</v>
       </c>
@@ -11488,7 +11487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1">
+    <row r="86" spans="1:3">
       <c r="A86" s="10" t="s">
         <v>83</v>
       </c>
@@ -11499,7 +11498,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1">
+    <row r="87" spans="1:3">
       <c r="A87" s="10" t="s">
         <v>83</v>
       </c>
@@ -11510,7 +11509,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1">
+    <row r="88" spans="1:3">
       <c r="A88" s="10" t="s">
         <v>83</v>
       </c>
@@ -11521,7 +11520,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1">
+    <row r="89" spans="1:3">
       <c r="A89" s="10" t="s">
         <v>83</v>
       </c>
@@ -11532,7 +11531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1">
+    <row r="90" spans="1:3">
       <c r="A90" s="10" t="s">
         <v>83</v>
       </c>
@@ -11543,7 +11542,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1">
+    <row r="91" spans="1:3">
       <c r="A91" s="10" t="s">
         <v>83</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1">
+    <row r="92" spans="1:3">
       <c r="A92" s="10" t="s">
         <v>83</v>
       </c>
@@ -11565,7 +11564,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1">
+    <row r="93" spans="1:3">
       <c r="A93" s="10" t="s">
         <v>83</v>
       </c>
@@ -11576,7 +11575,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1">
+    <row r="94" spans="1:3">
       <c r="A94" s="10" t="s">
         <v>83</v>
       </c>
@@ -11587,7 +11586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1">
+    <row r="95" spans="1:3">
       <c r="A95" s="10" t="s">
         <v>83</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1">
+    <row r="96" spans="1:3">
       <c r="A96" s="10" t="s">
         <v>83</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1">
+    <row r="97" spans="1:3">
       <c r="A97" s="10" t="s">
         <v>83</v>
       </c>
@@ -11620,7 +11619,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1">
+    <row r="98" spans="1:3">
       <c r="A98" s="10" t="s">
         <v>83</v>
       </c>
@@ -11631,7 +11630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1">
+    <row r="99" spans="1:3">
       <c r="A99" s="10" t="s">
         <v>83</v>
       </c>
@@ -11642,7 +11641,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1">
+    <row r="100" spans="1:3">
       <c r="A100" s="10" t="s">
         <v>83</v>
       </c>
@@ -11653,7 +11652,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1">
+    <row r="101" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>83</v>
       </c>
@@ -11664,7 +11663,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1">
+    <row r="102" spans="1:3">
       <c r="A102" s="10" t="s">
         <v>83</v>
       </c>
@@ -11675,7 +11674,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1">
+    <row r="103" spans="1:3">
       <c r="A103" s="10" t="s">
         <v>83</v>
       </c>
@@ -11686,7 +11685,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1">
+    <row r="104" spans="1:3">
       <c r="A104" s="10" t="s">
         <v>83</v>
       </c>
@@ -11697,7 +11696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1">
+    <row r="105" spans="1:3">
       <c r="A105" s="10" t="s">
         <v>83</v>
       </c>
@@ -11708,7 +11707,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1">
+    <row r="106" spans="1:3">
       <c r="A106" s="10" t="s">
         <v>83</v>
       </c>
@@ -11719,7 +11718,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1">
+    <row r="107" spans="1:3">
       <c r="A107" s="10" t="s">
         <v>83</v>
       </c>
@@ -11730,7 +11729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1">
+    <row r="108" spans="1:3">
       <c r="A108" s="10" t="s">
         <v>83</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1">
+    <row r="109" spans="1:3">
       <c r="A109" s="10" t="s">
         <v>83</v>
       </c>
@@ -11752,7 +11751,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1">
+    <row r="110" spans="1:3">
       <c r="A110" s="10" t="s">
         <v>83</v>
       </c>
@@ -11763,7 +11762,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1">
+    <row r="111" spans="1:3">
       <c r="A111" s="10" t="s">
         <v>83</v>
       </c>
@@ -11774,7 +11773,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1">
+    <row r="112" spans="1:3">
       <c r="A112" s="10" t="s">
         <v>83</v>
       </c>
@@ -11785,7 +11784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1">
+    <row r="113" spans="1:3">
       <c r="A113" s="10" t="s">
         <v>83</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1">
+    <row r="114" spans="1:3">
       <c r="A114" s="10" t="s">
         <v>83</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1">
+    <row r="115" spans="1:3">
       <c r="A115" s="10" t="s">
         <v>83</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1">
+    <row r="116" spans="1:3">
       <c r="A116" s="10" t="s">
         <v>83</v>
       </c>
@@ -11829,7 +11828,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1">
+    <row r="117" spans="1:3">
       <c r="A117" s="10" t="s">
         <v>83</v>
       </c>
@@ -11840,7 +11839,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1">
+    <row r="118" spans="1:3">
       <c r="A118" s="10" t="s">
         <v>83</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1">
+    <row r="119" spans="1:3">
       <c r="A119" s="10" t="s">
         <v>83</v>
       </c>
@@ -11862,7 +11861,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1">
+    <row r="120" spans="1:3">
       <c r="A120" s="10" t="s">
         <v>83</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1">
+    <row r="121" spans="1:3">
       <c r="A121" s="10" t="s">
         <v>83</v>
       </c>
@@ -11884,7 +11883,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1">
+    <row r="122" spans="1:3">
       <c r="A122" s="10" t="s">
         <v>83</v>
       </c>
@@ -11895,7 +11894,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1">
+    <row r="123" spans="1:3">
       <c r="A123" s="10" t="s">
         <v>83</v>
       </c>
@@ -11906,7 +11905,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1">
+    <row r="124" spans="1:3">
       <c r="A124" s="10" t="s">
         <v>83</v>
       </c>
@@ -11917,7 +11916,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1">
+    <row r="125" spans="1:3">
       <c r="A125" s="10" t="s">
         <v>83</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1">
+    <row r="126" spans="1:3">
       <c r="A126" s="10" t="s">
         <v>83</v>
       </c>
@@ -11939,7 +11938,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1">
+    <row r="127" spans="1:3">
       <c r="A127" s="10" t="s">
         <v>83</v>
       </c>
@@ -11950,7 +11949,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1">
+    <row r="128" spans="1:3">
       <c r="A128" s="10" t="s">
         <v>83</v>
       </c>
@@ -11961,7 +11960,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="10" t="s">
         <v>83</v>
       </c>
@@ -11972,7 +11971,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1">
+    <row r="130" spans="1:4">
       <c r="A130" s="10" t="s">
         <v>83</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1">
+    <row r="131" spans="1:4">
       <c r="A131" s="10" t="s">
         <v>83</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1">
+    <row r="132" spans="1:4">
       <c r="A132" s="10" t="s">
         <v>83</v>
       </c>
@@ -12005,7 +12004,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1">
+    <row r="133" spans="1:4">
       <c r="A133" s="10" t="s">
         <v>83</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1">
+    <row r="134" spans="1:4">
       <c r="A134" s="10" t="s">
         <v>83</v>
       </c>
@@ -12027,7 +12026,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1">
+    <row r="135" spans="1:4">
       <c r="A135" s="10" t="s">
         <v>83</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1">
+    <row r="136" spans="1:4">
       <c r="A136" s="10" t="s">
         <v>83</v>
       </c>
@@ -12049,7 +12048,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1">
+    <row r="137" spans="1:4">
       <c r="A137" s="10" t="s">
         <v>83</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1">
+    <row r="138" spans="1:4">
       <c r="A138" s="10" t="s">
         <v>83</v>
       </c>
@@ -12071,7 +12070,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1">
+    <row r="139" spans="1:4">
       <c r="A139" s="10" t="s">
         <v>83</v>
       </c>
@@ -12082,7 +12081,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1">
+    <row r="140" spans="1:4">
       <c r="A140" s="10" t="s">
         <v>83</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1">
+    <row r="141" spans="1:4">
       <c r="A141" s="10" t="s">
         <v>83</v>
       </c>
@@ -12107,7 +12106,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1">
+    <row r="142" spans="1:4">
       <c r="A142" s="10" t="s">
         <v>83</v>
       </c>
@@ -12118,7 +12117,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1">
+    <row r="143" spans="1:4">
       <c r="A143" s="10" t="s">
         <v>83</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1">
+    <row r="144" spans="1:4">
       <c r="A144" s="10" t="s">
         <v>83</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1">
+    <row r="145" spans="1:3">
       <c r="A145" s="10" t="s">
         <v>83</v>
       </c>
@@ -12151,7 +12150,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1">
+    <row r="146" spans="1:3">
       <c r="A146" s="10" t="s">
         <v>83</v>
       </c>
@@ -12162,7 +12161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1">
+    <row r="147" spans="1:3">
       <c r="A147" s="10" t="s">
         <v>83</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1">
+    <row r="148" spans="1:3">
       <c r="A148" s="10" t="s">
         <v>83</v>
       </c>
@@ -12184,7 +12183,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1">
+    <row r="149" spans="1:3">
       <c r="A149" s="10" t="s">
         <v>83</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1">
+    <row r="150" spans="1:3">
       <c r="A150" s="10" t="s">
         <v>83</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1">
+    <row r="151" spans="1:3">
       <c r="A151" s="10" t="s">
         <v>83</v>
       </c>
@@ -12217,7 +12216,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1">
+    <row r="152" spans="1:3">
       <c r="A152" s="10" t="s">
         <v>83</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1">
+    <row r="153" spans="1:3">
       <c r="A153" s="10" t="s">
         <v>83</v>
       </c>
@@ -12239,7 +12238,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1">
+    <row r="154" spans="1:3">
       <c r="A154" s="10" t="s">
         <v>83</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1">
+    <row r="155" spans="1:3">
       <c r="A155" s="10" t="s">
         <v>83</v>
       </c>
@@ -12261,7 +12260,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1">
+    <row r="156" spans="1:3">
       <c r="A156" s="10" t="s">
         <v>83</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1">
+    <row r="157" spans="1:3">
       <c r="A157" s="10" t="s">
         <v>83</v>
       </c>
@@ -12283,7 +12282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1">
+    <row r="158" spans="1:3">
       <c r="A158" s="10" t="s">
         <v>83</v>
       </c>
@@ -12294,7 +12293,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1">
+    <row r="159" spans="1:3">
       <c r="A159" s="10" t="s">
         <v>83</v>
       </c>
@@ -12305,7 +12304,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1">
+    <row r="160" spans="1:3">
       <c r="A160" s="10" t="s">
         <v>83</v>
       </c>
@@ -12316,7 +12315,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1">
+    <row r="161" spans="1:6">
       <c r="A161" s="10" t="s">
         <v>83</v>
       </c>
@@ -12327,7 +12326,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1">
+    <row r="162" spans="1:6">
       <c r="A162" s="10" t="s">
         <v>83</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1">
+    <row r="163" spans="1:6">
       <c r="A163" s="10" t="s">
         <v>83</v>
       </c>
@@ -12349,7 +12348,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1">
+    <row r="164" spans="1:6">
       <c r="A164" s="10" t="s">
         <v>83</v>
       </c>
@@ -12360,7 +12359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1">
+    <row r="165" spans="1:6">
       <c r="A165" s="10" t="s">
         <v>83</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1">
+    <row r="166" spans="1:6">
       <c r="A166" s="10" t="s">
         <v>83</v>
       </c>
@@ -12382,7 +12381,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1">
+    <row r="167" spans="1:6">
       <c r="A167" s="10" t="s">
         <v>83</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1">
+    <row r="168" spans="1:6">
       <c r="A168" s="10" t="s">
         <v>83</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1">
+    <row r="169" spans="1:6">
       <c r="A169" s="10" t="s">
         <v>83</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1">
       <c r="A170" s="10" t="s">
         <v>83</v>
       </c>
@@ -12429,7 +12428,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1">
+    <row r="171" spans="1:6">
       <c r="A171" s="10" t="s">
         <v>83</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="16.5" hidden="1" customHeight="1">
+    <row r="172" spans="1:6" ht="16.5" customHeight="1">
       <c r="A172" s="10" t="s">
         <v>83</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1">
+    <row r="173" spans="1:6">
       <c r="A173" s="10" t="s">
         <v>83</v>
       </c>
@@ -12477,7 +12476,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1">
+    <row r="174" spans="1:6">
       <c r="A174" s="10" t="s">
         <v>83</v>
       </c>
@@ -12488,7 +12487,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1">
+    <row r="175" spans="1:6">
       <c r="A175" s="10" t="s">
         <v>83</v>
       </c>
@@ -12499,7 +12498,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1">
+    <row r="176" spans="1:6">
       <c r="A176" s="10" t="s">
         <v>83</v>
       </c>
@@ -12510,7 +12509,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1">
+    <row r="177" spans="1:3">
       <c r="A177" s="10" t="s">
         <v>83</v>
       </c>
@@ -12521,7 +12520,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1">
+    <row r="178" spans="1:3">
       <c r="A178" s="10" t="s">
         <v>83</v>
       </c>
@@ -12532,7 +12531,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1">
+    <row r="179" spans="1:3">
       <c r="A179" s="10" t="s">
         <v>83</v>
       </c>
@@ -12543,7 +12542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1">
+    <row r="180" spans="1:3">
       <c r="A180" s="10" t="s">
         <v>83</v>
       </c>
@@ -12554,7 +12553,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1">
+    <row r="181" spans="1:3">
       <c r="A181" s="10" t="s">
         <v>83</v>
       </c>
@@ -12565,7 +12564,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1">
+    <row r="182" spans="1:3">
       <c r="A182" s="10" t="s">
         <v>83</v>
       </c>
@@ -12576,7 +12575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1">
+    <row r="183" spans="1:3">
       <c r="A183" s="10" t="s">
         <v>83</v>
       </c>
@@ -12587,7 +12586,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1">
+    <row r="184" spans="1:3">
       <c r="A184" s="10" t="s">
         <v>83</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1">
+    <row r="185" spans="1:3">
       <c r="A185" s="10" t="s">
         <v>83</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1">
+    <row r="186" spans="1:3">
       <c r="A186" s="10" t="s">
         <v>83</v>
       </c>
@@ -12620,7 +12619,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1">
+    <row r="187" spans="1:3">
       <c r="A187" s="10" t="s">
         <v>83</v>
       </c>
@@ -12631,7 +12630,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1">
+    <row r="188" spans="1:3">
       <c r="A188" s="10" t="s">
         <v>83</v>
       </c>
@@ -12642,7 +12641,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1">
+    <row r="189" spans="1:3">
       <c r="A189" s="10" t="s">
         <v>83</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1">
+    <row r="190" spans="1:3">
       <c r="A190" s="10" t="s">
         <v>83</v>
       </c>
@@ -12664,7 +12663,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1">
+    <row r="191" spans="1:3">
       <c r="A191" s="10" t="s">
         <v>83</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1">
+    <row r="192" spans="1:3">
       <c r="A192" s="10" t="s">
         <v>83</v>
       </c>
@@ -12686,7 +12685,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1">
+    <row r="193" spans="1:3">
       <c r="A193" s="10" t="s">
         <v>83</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1">
+    <row r="194" spans="1:3">
       <c r="A194" s="10" t="s">
         <v>83</v>
       </c>
@@ -12708,7 +12707,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1">
+    <row r="195" spans="1:3">
       <c r="A195" s="10" t="s">
         <v>83</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1">
+    <row r="196" spans="1:3">
       <c r="A196" s="10" t="s">
         <v>83</v>
       </c>
@@ -12730,7 +12729,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1">
+    <row r="197" spans="1:3">
       <c r="A197" s="10" t="s">
         <v>83</v>
       </c>
@@ -12741,7 +12740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1">
+    <row r="198" spans="1:3">
       <c r="A198" s="10" t="s">
         <v>83</v>
       </c>
@@ -12752,7 +12751,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1">
+    <row r="199" spans="1:3">
       <c r="A199" s="10" t="s">
         <v>83</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1">
+    <row r="200" spans="1:3">
       <c r="A200" s="10" t="s">
         <v>83</v>
       </c>
@@ -12774,7 +12773,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1">
+    <row r="201" spans="1:3">
       <c r="A201" s="10" t="s">
         <v>83</v>
       </c>
@@ -12785,7 +12784,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1">
+    <row r="202" spans="1:3">
       <c r="A202" s="10" t="s">
         <v>83</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1">
+    <row r="203" spans="1:3">
       <c r="A203" s="10" t="s">
         <v>83</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1">
+    <row r="204" spans="1:3">
       <c r="A204" s="10" t="s">
         <v>83</v>
       </c>
@@ -12818,7 +12817,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1">
+    <row r="205" spans="1:3">
       <c r="A205" s="10" t="s">
         <v>83</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1">
+    <row r="206" spans="1:3">
       <c r="A206" s="10" t="s">
         <v>83</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1">
+    <row r="207" spans="1:3">
       <c r="A207" s="10" t="s">
         <v>83</v>
       </c>
@@ -12851,7 +12850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1">
+    <row r="208" spans="1:3">
       <c r="A208" s="10" t="s">
         <v>83</v>
       </c>
@@ -12862,7 +12861,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1">
+    <row r="209" spans="1:5">
       <c r="A209" s="10" t="s">
         <v>83</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1">
+    <row r="210" spans="1:5">
       <c r="A210" s="10" t="s">
         <v>83</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1">
+    <row r="211" spans="1:5">
       <c r="A211" s="10" t="s">
         <v>83</v>
       </c>
@@ -12895,7 +12894,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1">
+    <row r="212" spans="1:5">
       <c r="A212" s="10" t="s">
         <v>83</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1">
+    <row r="213" spans="1:5">
       <c r="A213" s="10" t="s">
         <v>83</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1">
+    <row r="214" spans="1:5">
       <c r="A214" s="10" t="s">
         <v>83</v>
       </c>
@@ -12928,7 +12927,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1">
+    <row r="215" spans="1:5">
       <c r="A215" s="10" t="s">
         <v>83</v>
       </c>
@@ -12939,7 +12938,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1">
+    <row r="216" spans="1:5">
       <c r="A216" s="10" t="s">
         <v>83</v>
       </c>
@@ -12950,7 +12949,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1">
+    <row r="217" spans="1:5">
       <c r="A217" s="10" t="s">
         <v>83</v>
       </c>
@@ -12961,7 +12960,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1">
+    <row r="218" spans="1:5">
       <c r="A218" s="10" t="s">
         <v>83</v>
       </c>
@@ -12972,7 +12971,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1">
+    <row r="219" spans="1:5">
       <c r="A219" s="10" t="s">
         <v>83</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1">
+    <row r="220" spans="1:5">
       <c r="A220" s="10" t="s">
         <v>83</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1">
+    <row r="221" spans="1:5">
       <c r="A221" s="10" t="s">
         <v>83</v>
       </c>
@@ -13005,7 +13004,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="222" spans="1:5" ht="15" customHeight="1">
       <c r="A222" s="10" t="s">
         <v>83</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1">
+    <row r="223" spans="1:5">
       <c r="A223" s="10" t="s">
         <v>83</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="30" hidden="1">
+    <row r="224" spans="1:5" ht="30">
       <c r="A224" s="10" t="s">
         <v>266</v>
       </c>
@@ -13041,7 +13040,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="30" hidden="1">
+    <row r="225" spans="1:5" ht="30">
       <c r="A225" s="10" t="s">
         <v>266</v>
       </c>
@@ -13055,7 +13054,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="30" hidden="1">
+    <row r="226" spans="1:5" ht="30">
       <c r="A226" s="10" t="s">
         <v>266</v>
       </c>
@@ -13066,7 +13065,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="30" hidden="1">
+    <row r="227" spans="1:5" ht="30">
       <c r="A227" s="10" t="s">
         <v>266</v>
       </c>
@@ -13077,7 +13076,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="30" hidden="1">
+    <row r="228" spans="1:5" ht="30">
       <c r="A228" s="10" t="s">
         <v>266</v>
       </c>
@@ -13088,7 +13087,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="30" hidden="1">
+    <row r="229" spans="1:5" ht="30">
       <c r="A229" s="10" t="s">
         <v>266</v>
       </c>
@@ -13099,7 +13098,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="30" hidden="1">
+    <row r="230" spans="1:5" ht="30">
       <c r="A230" s="10" t="s">
         <v>266</v>
       </c>
@@ -13110,7 +13109,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1">
+    <row r="231" spans="1:5">
       <c r="A231" s="10" t="s">
         <v>266</v>
       </c>
@@ -13121,7 +13120,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1">
+    <row r="232" spans="1:5">
       <c r="A232" s="10" t="s">
         <v>266</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1">
+    <row r="233" spans="1:5">
       <c r="A233" s="10" t="s">
         <v>266</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1">
+    <row r="234" spans="1:5">
       <c r="A234" s="10" t="s">
         <v>266</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1">
+    <row r="235" spans="1:5">
       <c r="A235" s="10" t="s">
         <v>266</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1">
+    <row r="236" spans="1:5">
       <c r="A236" s="10" t="s">
         <v>266</v>
       </c>
@@ -13194,7 +13193,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="30" hidden="1">
+    <row r="237" spans="1:5" ht="30">
       <c r="A237" s="10" t="s">
         <v>266</v>
       </c>
@@ -13205,7 +13204,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30" hidden="1">
+    <row r="238" spans="1:5" ht="30">
       <c r="A238" s="10" t="s">
         <v>266</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="30" hidden="1">
+    <row r="239" spans="1:5" ht="30">
       <c r="A239" s="10" t="s">
         <v>266</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="30" hidden="1">
+    <row r="240" spans="1:5" ht="30">
       <c r="A240" s="10" t="s">
         <v>266</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="30" hidden="1">
+    <row r="241" spans="1:4" ht="30">
       <c r="A241" s="10" t="s">
         <v>266</v>
       </c>
@@ -13249,7 +13248,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="30" hidden="1">
+    <row r="242" spans="1:4" ht="30">
       <c r="A242" s="10" t="s">
         <v>266</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="30" hidden="1">
+    <row r="243" spans="1:4" ht="30">
       <c r="A243" s="10" t="s">
         <v>266</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="30" hidden="1">
+    <row r="244" spans="1:4" ht="30">
       <c r="A244" s="10" t="s">
         <v>266</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="30" hidden="1">
+    <row r="245" spans="1:4" ht="30">
       <c r="A245" s="10" t="s">
         <v>266</v>
       </c>
@@ -13293,7 +13292,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="30" hidden="1">
+    <row r="246" spans="1:4" ht="30">
       <c r="A246" s="10" t="s">
         <v>266</v>
       </c>
@@ -13307,7 +13306,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="30" hidden="1">
+    <row r="247" spans="1:4" ht="30">
       <c r="A247" s="10" t="s">
         <v>266</v>
       </c>
@@ -13321,7 +13320,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="30" hidden="1">
+    <row r="248" spans="1:4" ht="30">
       <c r="A248" s="10" t="s">
         <v>266</v>
       </c>
@@ -13335,7 +13334,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="30" hidden="1">
+    <row r="249" spans="1:4" ht="30">
       <c r="A249" s="10" t="s">
         <v>266</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="30" hidden="1">
+    <row r="250" spans="1:4" ht="30">
       <c r="A250" s="10" t="s">
         <v>266</v>
       </c>
@@ -13360,7 +13359,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="30" hidden="1">
+    <row r="251" spans="1:4" ht="30">
       <c r="A251" s="10" t="s">
         <v>266</v>
       </c>
@@ -13371,7 +13370,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="30" hidden="1">
+    <row r="252" spans="1:4" ht="30">
       <c r="A252" s="10" t="s">
         <v>266</v>
       </c>
@@ -13382,7 +13381,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="30" hidden="1">
+    <row r="253" spans="1:4" ht="30">
       <c r="A253" s="10" t="s">
         <v>266</v>
       </c>
@@ -13393,7 +13392,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1">
+    <row r="254" spans="1:4">
       <c r="A254" s="10" t="s">
         <v>266</v>
       </c>
@@ -13404,7 +13403,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1">
+    <row r="255" spans="1:4">
       <c r="A255" s="10" t="s">
         <v>266</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1">
+    <row r="256" spans="1:4">
       <c r="A256" s="10" t="s">
         <v>266</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1">
+    <row r="257" spans="1:3">
       <c r="A257" s="10" t="s">
         <v>266</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1">
+    <row r="258" spans="1:3">
       <c r="A258" s="10" t="s">
         <v>266</v>
       </c>
@@ -13448,7 +13447,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1">
+    <row r="259" spans="1:3">
       <c r="A259" s="10" t="s">
         <v>266</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1">
+    <row r="260" spans="1:3">
       <c r="A260" s="10" t="s">
         <v>266</v>
       </c>
@@ -13470,7 +13469,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1">
+    <row r="261" spans="1:3">
       <c r="A261" s="10" t="s">
         <v>266</v>
       </c>
@@ -13481,7 +13480,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1">
+    <row r="262" spans="1:3">
       <c r="A262" s="10" t="s">
         <v>266</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1">
+    <row r="263" spans="1:3">
       <c r="A263" s="10" t="s">
         <v>266</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1">
+    <row r="264" spans="1:3">
       <c r="A264" s="10" t="s">
         <v>266</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1">
+    <row r="265" spans="1:3">
       <c r="A265" s="10" t="s">
         <v>266</v>
       </c>
@@ -13525,7 +13524,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1">
+    <row r="266" spans="1:3">
       <c r="A266" s="10" t="s">
         <v>266</v>
       </c>
@@ -13536,7 +13535,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1">
+    <row r="267" spans="1:3">
       <c r="A267" s="10" t="s">
         <v>266</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1">
+    <row r="268" spans="1:3">
       <c r="A268" s="10" t="s">
         <v>266</v>
       </c>
@@ -13558,7 +13557,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1">
+    <row r="269" spans="1:3">
       <c r="A269" s="10" t="s">
         <v>266</v>
       </c>
@@ -13569,7 +13568,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1">
+    <row r="270" spans="1:3">
       <c r="A270" s="10" t="s">
         <v>266</v>
       </c>
@@ -13580,7 +13579,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1">
+    <row r="271" spans="1:3">
       <c r="A271" s="10" t="s">
         <v>266</v>
       </c>
@@ -13591,7 +13590,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1">
+    <row r="272" spans="1:3">
       <c r="A272" s="10" t="s">
         <v>266</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1">
+    <row r="273" spans="1:5">
       <c r="A273" s="10" t="s">
         <v>266</v>
       </c>
@@ -13613,7 +13612,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1">
+    <row r="274" spans="1:5">
       <c r="A274" s="10" t="s">
         <v>266</v>
       </c>
@@ -13624,7 +13623,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1">
+    <row r="275" spans="1:5">
       <c r="A275" s="10" t="s">
         <v>266</v>
       </c>
@@ -13638,7 +13637,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1">
+    <row r="276" spans="1:5">
       <c r="A276" s="10" t="s">
         <v>266</v>
       </c>
@@ -13652,7 +13651,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1">
+    <row r="277" spans="1:5">
       <c r="A277" s="10" t="s">
         <v>266</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1">
+    <row r="278" spans="1:5">
       <c r="A278" s="10" t="s">
         <v>266</v>
       </c>
@@ -13674,7 +13673,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1">
+    <row r="279" spans="1:5">
       <c r="A279" s="10" t="s">
         <v>266</v>
       </c>
@@ -13685,7 +13684,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="280" spans="1:5" hidden="1">
+    <row r="280" spans="1:5">
       <c r="A280" s="10" t="s">
         <v>266</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="281" spans="1:5" hidden="1">
+    <row r="281" spans="1:5">
       <c r="A281" s="10" t="s">
         <v>266</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1">
+    <row r="282" spans="1:5">
       <c r="A282" s="10" t="s">
         <v>266</v>
       </c>
@@ -13718,7 +13717,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1">
+    <row r="283" spans="1:5">
       <c r="A283" s="10" t="s">
         <v>266</v>
       </c>
@@ -13729,7 +13728,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="284" spans="1:5" hidden="1">
+    <row r="284" spans="1:5">
       <c r="A284" s="10" t="s">
         <v>266</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="285" spans="1:5" hidden="1">
+    <row r="285" spans="1:5">
       <c r="A285" s="10" t="s">
         <v>266</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="286" spans="1:5" hidden="1">
+    <row r="286" spans="1:5">
       <c r="A286" s="10" t="s">
         <v>266</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="287" spans="1:5" hidden="1">
+    <row r="287" spans="1:5">
       <c r="A287" s="10" t="s">
         <v>266</v>
       </c>
@@ -13773,7 +13772,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1">
+    <row r="288" spans="1:5">
       <c r="A288" s="10" t="s">
         <v>266</v>
       </c>
@@ -13784,7 +13783,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1">
+    <row r="289" spans="1:5">
       <c r="A289" s="10" t="s">
         <v>266</v>
       </c>
@@ -13795,7 +13794,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1">
+    <row r="290" spans="1:5">
       <c r="A290" s="10" t="s">
         <v>266</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="291" spans="1:5" hidden="1">
+    <row r="291" spans="1:5">
       <c r="A291" s="10" t="s">
         <v>266</v>
       </c>
@@ -13817,7 +13816,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="292" spans="1:5" hidden="1">
+    <row r="292" spans="1:5">
       <c r="A292" s="10" t="s">
         <v>266</v>
       </c>
@@ -13828,7 +13827,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="293" spans="1:5" hidden="1">
+    <row r="293" spans="1:5">
       <c r="A293" s="10" t="s">
         <v>266</v>
       </c>
@@ -13839,7 +13838,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="294" spans="1:5" hidden="1">
+    <row r="294" spans="1:5">
       <c r="A294" s="10" t="s">
         <v>266</v>
       </c>
@@ -13850,7 +13849,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="295" spans="1:5" hidden="1">
+    <row r="295" spans="1:5">
       <c r="A295" s="10" t="s">
         <v>266</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="296" spans="1:5" hidden="1">
+    <row r="296" spans="1:5">
       <c r="A296" s="10" t="s">
         <v>266</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="297" spans="1:5" hidden="1">
+    <row r="297" spans="1:5">
       <c r="A297" s="10" t="s">
         <v>266</v>
       </c>
@@ -13883,7 +13882,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1">
+    <row r="298" spans="1:5">
       <c r="A298" s="10" t="s">
         <v>266</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1">
+    <row r="299" spans="1:5">
       <c r="A299" s="10" t="s">
         <v>266</v>
       </c>
@@ -13905,7 +13904,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1">
+    <row r="300" spans="1:5">
       <c r="A300" s="10" t="s">
         <v>266</v>
       </c>
@@ -13916,7 +13915,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1">
+    <row r="301" spans="1:5">
       <c r="A301" s="10" t="s">
         <v>266</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1">
+    <row r="302" spans="1:5">
       <c r="A302" s="10" t="s">
         <v>266</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1">
+    <row r="303" spans="1:5">
       <c r="A303" s="10" t="s">
         <v>266</v>
       </c>
@@ -13949,7 +13948,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="105.75" hidden="1">
+    <row r="304" spans="1:5" ht="105.75">
       <c r="A304" s="10" t="s">
         <v>371</v>
       </c>
@@ -13966,7 +13965,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1">
+    <row r="305" spans="1:5">
       <c r="A305" s="10" t="s">
         <v>371</v>
       </c>
@@ -13977,7 +13976,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1">
+    <row r="306" spans="1:5">
       <c r="A306" s="10" t="s">
         <v>371</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="30" hidden="1">
+    <row r="307" spans="1:5" ht="30">
       <c r="A307" s="10" t="s">
         <v>371</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="31.5" hidden="1">
+    <row r="308" spans="1:5" ht="31.5">
       <c r="A308" s="10" t="s">
         <v>371</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="105.75" hidden="1">
+    <row r="309" spans="1:5" ht="105.75">
       <c r="A309" s="10" t="s">
         <v>371</v>
       </c>
@@ -14027,7 +14026,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="310" spans="1:5" hidden="1">
+    <row r="310" spans="1:5">
       <c r="A310" s="10" t="s">
         <v>371</v>
       </c>
@@ -14038,7 +14037,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1">
+    <row r="311" spans="1:5">
       <c r="A311" s="10" t="s">
         <v>371</v>
       </c>
@@ -14049,7 +14048,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="45.75" hidden="1">
+    <row r="312" spans="1:5" ht="45.75">
       <c r="A312" s="10" t="s">
         <v>371</v>
       </c>
@@ -14063,7 +14062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1">
+    <row r="313" spans="1:5">
       <c r="A313" s="10" t="s">
         <v>371</v>
       </c>
@@ -14074,7 +14073,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="30" hidden="1">
+    <row r="314" spans="1:5" ht="30">
       <c r="A314" s="10" t="s">
         <v>371</v>
       </c>
@@ -14085,7 +14084,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1">
+    <row r="315" spans="1:5">
       <c r="A315" s="10" t="s">
         <v>371</v>
       </c>
@@ -14096,7 +14095,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1">
+    <row r="316" spans="1:5">
       <c r="A316" s="10" t="s">
         <v>371</v>
       </c>
@@ -14107,7 +14106,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="30" hidden="1">
+    <row r="317" spans="1:5" ht="30">
       <c r="A317" s="10" t="s">
         <v>371</v>
       </c>
@@ -14118,7 +14117,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1">
+    <row r="318" spans="1:5">
       <c r="A318" s="10" t="s">
         <v>371</v>
       </c>
@@ -14129,7 +14128,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1">
+    <row r="319" spans="1:5">
       <c r="A319" s="10" t="s">
         <v>371</v>
       </c>
@@ -14140,7 +14139,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1">
+    <row r="320" spans="1:5">
       <c r="A320" s="10" t="s">
         <v>371</v>
       </c>
@@ -14151,7 +14150,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1">
+    <row r="321" spans="1:6">
       <c r="A321" s="10" t="s">
         <v>371</v>
       </c>
@@ -14162,7 +14161,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="322" spans="1:6" hidden="1">
+    <row r="322" spans="1:6">
       <c r="A322" s="10" t="s">
         <v>371</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1">
+    <row r="323" spans="1:6">
       <c r="A323" s="10" t="s">
         <v>371</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1">
+    <row r="324" spans="1:6">
       <c r="A324" s="10" t="s">
         <v>371</v>
       </c>
@@ -14195,7 +14194,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="325" spans="1:6" hidden="1">
+    <row r="325" spans="1:6">
       <c r="A325" s="10" t="s">
         <v>371</v>
       </c>
@@ -14206,7 +14205,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1">
+    <row r="326" spans="1:6">
       <c r="A326" s="10" t="s">
         <v>371</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="14.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:6" ht="14.25" customHeight="1">
       <c r="A327" s="10" t="s">
         <v>401</v>
       </c>
@@ -14228,7 +14227,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="18.75" hidden="1" customHeight="1">
+    <row r="328" spans="1:6" ht="18.75" customHeight="1">
       <c r="A328" s="10" t="s">
         <v>401</v>
       </c>
@@ -14245,7 +14244,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1">
+    <row r="329" spans="1:6">
       <c r="A329" s="10" t="s">
         <v>401</v>
       </c>
@@ -14259,7 +14258,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1">
+    <row r="330" spans="1:6">
       <c r="A330" s="10" t="s">
         <v>401</v>
       </c>
@@ -14270,7 +14269,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1">
+    <row r="331" spans="1:6">
       <c r="A331" s="10" t="s">
         <v>401</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="332" spans="1:6" ht="15.75" customHeight="1">
       <c r="A332" s="10" t="s">
         <v>401</v>
       </c>
@@ -14301,7 +14300,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="12.75" hidden="1" customHeight="1">
+    <row r="333" spans="1:6" ht="12.75" customHeight="1">
       <c r="A333" s="10" t="s">
         <v>401</v>
       </c>
@@ -14318,7 +14317,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1">
+    <row r="334" spans="1:6">
       <c r="A334" s="10" t="s">
         <v>401</v>
       </c>
@@ -14332,7 +14331,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15" hidden="1" customHeight="1">
+    <row r="335" spans="1:6" ht="15" customHeight="1">
       <c r="A335" s="10" t="s">
         <v>401</v>
       </c>
@@ -14346,7 +14345,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="336" spans="1:6" ht="15.75" customHeight="1">
       <c r="A336" s="10" t="s">
         <v>401</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="337" spans="1:4" ht="16.5" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="338" spans="1:4" ht="16.5" customHeight="1">
       <c r="A338" s="10" t="s">
         <v>401</v>
       </c>
@@ -14388,7 +14387,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="339" spans="1:4" ht="16.5" customHeight="1">
       <c r="A339" s="10" t="s">
         <v>401</v>
       </c>
@@ -14402,7 +14401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="340" spans="1:4" ht="16.5" customHeight="1">
       <c r="A340" s="10" t="s">
         <v>401</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="341" spans="1:4" ht="16.5" customHeight="1">
       <c r="A341" s="10" t="s">
         <v>401</v>
       </c>
@@ -14430,7 +14429,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:4" ht="16.5" customHeight="1">
       <c r="A342" s="10" t="s">
         <v>401</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="343" spans="1:4" ht="16.5" customHeight="1">
       <c r="A343" s="10" t="s">
         <v>401</v>
       </c>
@@ -14458,7 +14457,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" hidden="1" customHeight="1">
+    <row r="344" spans="1:4" ht="16.5" customHeight="1">
       <c r="A344" s="10" t="s">
         <v>401</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="345" spans="1:4" hidden="1">
+    <row r="345" spans="1:4">
       <c r="A345" s="10" t="s">
         <v>440</v>
       </c>
@@ -14483,7 +14482,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:4" hidden="1">
+    <row r="346" spans="1:4">
       <c r="A346" s="10" t="s">
         <v>440</v>
       </c>
@@ -14494,7 +14493,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="1:4" hidden="1">
+    <row r="347" spans="1:4">
       <c r="A347" s="10" t="s">
         <v>440</v>
       </c>
@@ -14505,7 +14504,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="348" spans="1:4" hidden="1">
+    <row r="348" spans="1:4">
       <c r="A348" s="10" t="s">
         <v>440</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="349" spans="1:4" hidden="1">
+    <row r="349" spans="1:4">
       <c r="A349" s="10" t="s">
         <v>440</v>
       </c>
@@ -14527,7 +14526,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="350" spans="1:4" hidden="1">
+    <row r="350" spans="1:4">
       <c r="A350" s="10" t="s">
         <v>440</v>
       </c>
@@ -14538,7 +14537,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="351" spans="1:4" hidden="1">
+    <row r="351" spans="1:4">
       <c r="A351" s="10" t="s">
         <v>440</v>
       </c>
@@ -14549,7 +14548,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="352" spans="1:4" hidden="1">
+    <row r="352" spans="1:4">
       <c r="A352" s="10" t="s">
         <v>440</v>
       </c>
@@ -14560,7 +14559,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="353" spans="1:3" hidden="1">
+    <row r="353" spans="1:3">
       <c r="A353" s="10" t="s">
         <v>440</v>
       </c>
@@ -14571,7 +14570,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="354" spans="1:3" hidden="1">
+    <row r="354" spans="1:3">
       <c r="A354" s="10" t="s">
         <v>440</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="355" spans="1:3" hidden="1">
+    <row r="355" spans="1:3">
       <c r="A355" s="10" t="s">
         <v>440</v>
       </c>
@@ -14593,7 +14592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="356" spans="1:3" hidden="1">
+    <row r="356" spans="1:3">
       <c r="A356" s="10" t="s">
         <v>440</v>
       </c>
@@ -14604,7 +14603,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="357" spans="1:3" hidden="1">
+    <row r="357" spans="1:3">
       <c r="A357" s="10" t="s">
         <v>440</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="358" spans="1:3" hidden="1">
+    <row r="358" spans="1:3">
       <c r="A358" s="10" t="s">
         <v>440</v>
       </c>
@@ -14626,7 +14625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="359" spans="1:3" hidden="1">
+    <row r="359" spans="1:3">
       <c r="A359" s="10" t="s">
         <v>440</v>
       </c>
@@ -14637,7 +14636,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:3" hidden="1">
+    <row r="360" spans="1:3">
       <c r="A360" s="10" t="s">
         <v>440</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:3" hidden="1">
+    <row r="361" spans="1:3">
       <c r="A361" s="10" t="s">
         <v>440</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="362" spans="1:3" hidden="1">
+    <row r="362" spans="1:3">
       <c r="A362" s="10" t="s">
         <v>440</v>
       </c>
@@ -14670,7 +14669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="363" spans="1:3" hidden="1">
+    <row r="363" spans="1:3">
       <c r="A363" s="10" t="s">
         <v>440</v>
       </c>
@@ -14681,7 +14680,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:3" hidden="1">
+    <row r="364" spans="1:3">
       <c r="A364" s="10" t="s">
         <v>440</v>
       </c>
@@ -14692,7 +14691,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="365" spans="1:3" hidden="1">
+    <row r="365" spans="1:3">
       <c r="A365" s="10" t="s">
         <v>440</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="366" spans="1:3" hidden="1">
+    <row r="366" spans="1:3">
       <c r="A366" s="10" t="s">
         <v>440</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="367" spans="1:3" hidden="1">
+    <row r="367" spans="1:3">
       <c r="A367" s="10" t="s">
         <v>440</v>
       </c>
@@ -14725,7 +14724,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="368" spans="1:3" hidden="1">
+    <row r="368" spans="1:3">
       <c r="A368" s="10" t="s">
         <v>440</v>
       </c>
@@ -14736,7 +14735,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="369" spans="1:3" hidden="1">
+    <row r="369" spans="1:3">
       <c r="A369" s="10" t="s">
         <v>440</v>
       </c>
@@ -14747,7 +14746,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="370" spans="1:3" hidden="1">
+    <row r="370" spans="1:3">
       <c r="A370" s="10" t="s">
         <v>440</v>
       </c>
@@ -14758,7 +14757,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="371" spans="1:3" hidden="1">
+    <row r="371" spans="1:3">
       <c r="A371" s="10" t="s">
         <v>440</v>
       </c>
@@ -14769,7 +14768,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="372" spans="1:3" hidden="1">
+    <row r="372" spans="1:3">
       <c r="A372" s="10" t="s">
         <v>440</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="373" spans="1:3" hidden="1">
+    <row r="373" spans="1:3">
       <c r="A373" s="10" t="s">
         <v>440</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="374" spans="1:3" hidden="1">
+    <row r="374" spans="1:3">
       <c r="A374" s="10" t="s">
         <v>440</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="375" spans="1:3" hidden="1">
+    <row r="375" spans="1:3">
       <c r="A375" s="10" t="s">
         <v>440</v>
       </c>
@@ -14813,7 +14812,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="376" spans="1:3" hidden="1">
+    <row r="376" spans="1:3">
       <c r="A376" s="10" t="s">
         <v>440</v>
       </c>
@@ -14824,7 +14823,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="377" spans="1:3" hidden="1">
+    <row r="377" spans="1:3">
       <c r="A377" s="10" t="s">
         <v>440</v>
       </c>
@@ -14835,7 +14834,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="378" spans="1:3" hidden="1">
+    <row r="378" spans="1:3">
       <c r="A378" s="10" t="s">
         <v>440</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="379" spans="1:3" hidden="1">
+    <row r="379" spans="1:3">
       <c r="A379" s="10" t="s">
         <v>440</v>
       </c>
@@ -14857,7 +14856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="380" spans="1:3" hidden="1">
+    <row r="380" spans="1:3">
       <c r="A380" s="10" t="s">
         <v>440</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="381" spans="1:3" hidden="1">
+    <row r="381" spans="1:3">
       <c r="A381" s="10" t="s">
         <v>440</v>
       </c>
@@ -14879,7 +14878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="382" spans="1:3" hidden="1">
+    <row r="382" spans="1:3">
       <c r="A382" s="10" t="s">
         <v>440</v>
       </c>
@@ -14890,7 +14889,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="383" spans="1:3" hidden="1">
+    <row r="383" spans="1:3">
       <c r="A383" s="10" t="s">
         <v>440</v>
       </c>
@@ -14901,7 +14900,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="384" spans="1:3" hidden="1">
+    <row r="384" spans="1:3">
       <c r="A384" s="10" t="s">
         <v>440</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1">
+    <row r="385" spans="1:6">
       <c r="A385" s="10" t="s">
         <v>440</v>
       </c>
@@ -14923,7 +14922,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="386" spans="1:6" hidden="1">
+    <row r="386" spans="1:6">
       <c r="A386" s="10" t="s">
         <v>440</v>
       </c>
@@ -14934,7 +14933,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1">
+    <row r="387" spans="1:6">
       <c r="A387" s="10" t="s">
         <v>440</v>
       </c>
@@ -14945,7 +14944,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1">
+    <row r="388" spans="1:6">
       <c r="A388" s="10" t="s">
         <v>440</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1">
+    <row r="389" spans="1:6">
       <c r="A389" s="10" t="s">
         <v>440</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1">
+    <row r="390" spans="1:6">
       <c r="A390" s="10" t="s">
         <v>440</v>
       </c>
@@ -14978,7 +14977,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1">
+    <row r="391" spans="1:6">
       <c r="A391" s="10" t="s">
         <v>440</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1">
+    <row r="392" spans="1:6">
       <c r="A392" s="10" t="s">
         <v>440</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1">
+    <row r="393" spans="1:6">
       <c r="A393" s="10" t="s">
         <v>440</v>
       </c>
@@ -15011,7 +15010,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="394" spans="1:6" hidden="1">
+    <row r="394" spans="1:6">
       <c r="A394" s="10" t="s">
         <v>440</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="395" spans="1:6" hidden="1">
+    <row r="395" spans="1:6">
       <c r="A395" s="10" t="s">
         <v>440</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1">
+    <row r="396" spans="1:6" ht="15" customHeight="1">
       <c r="A396" s="10" t="s">
         <v>440</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="20.25" hidden="1" customHeight="1">
+    <row r="397" spans="1:6" ht="20.25" customHeight="1">
       <c r="A397" s="10" t="s">
         <v>440</v>
       </c>
@@ -15070,7 +15069,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1">
+    <row r="398" spans="1:6">
       <c r="A398" s="10" t="s">
         <v>440</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:6" hidden="1">
+    <row r="399" spans="1:6">
       <c r="A399" s="10" t="s">
         <v>440</v>
       </c>
@@ -15104,7 +15103,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" hidden="1">
+    <row r="400" spans="1:6" ht="30">
       <c r="A400" s="10" t="s">
         <v>440</v>
       </c>
@@ -15121,7 +15120,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="16.5" hidden="1" customHeight="1">
+    <row r="401" spans="1:6" ht="16.5" customHeight="1">
       <c r="A401" s="10" t="s">
         <v>440</v>
       </c>
@@ -15141,7 +15140,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:6" hidden="1">
+    <row r="402" spans="1:6">
       <c r="A402" s="10" t="s">
         <v>440</v>
       </c>
@@ -15158,7 +15157,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="14.25" hidden="1" customHeight="1">
+    <row r="403" spans="1:6" ht="14.25" customHeight="1">
       <c r="A403" s="10" t="s">
         <v>440</v>
       </c>
@@ -15175,7 +15174,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="18" hidden="1" customHeight="1">
+    <row r="404" spans="1:6" ht="18" customHeight="1">
       <c r="A404" s="10" t="s">
         <v>440</v>
       </c>
@@ -15192,7 +15191,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="13.5" hidden="1" customHeight="1">
+    <row r="405" spans="1:6" ht="13.5" customHeight="1">
       <c r="A405" s="10" t="s">
         <v>440</v>
       </c>
@@ -15209,7 +15208,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="18" hidden="1" customHeight="1">
+    <row r="406" spans="1:6" ht="18" customHeight="1">
       <c r="A406" s="10" t="s">
         <v>440</v>
       </c>
@@ -15226,7 +15225,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15" hidden="1" customHeight="1">
+    <row r="407" spans="1:6" ht="15" customHeight="1">
       <c r="A407" s="10" t="s">
         <v>440</v>
       </c>
@@ -15243,7 +15242,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="30" hidden="1">
+    <row r="408" spans="1:6" ht="30">
       <c r="A408" s="10" t="s">
         <v>440</v>
       </c>
@@ -15260,7 +15259,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30" hidden="1">
+    <row r="409" spans="1:6" ht="30">
       <c r="A409" s="10" t="s">
         <v>440</v>
       </c>
@@ -15277,7 +15276,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="410" spans="1:6" hidden="1">
+    <row r="410" spans="1:6">
       <c r="A410" s="10" t="s">
         <v>440</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="411" spans="1:6" hidden="1">
+    <row r="411" spans="1:6">
       <c r="A411" s="10" t="s">
         <v>440</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="412" spans="1:6" hidden="1">
+    <row r="412" spans="1:6">
       <c r="A412" s="10" t="s">
         <v>440</v>
       </c>
@@ -15322,7 +15321,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="413" spans="1:6" ht="15.75" customHeight="1">
       <c r="A413" s="10" t="s">
         <v>440</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="30" hidden="1">
+    <row r="414" spans="1:6" ht="30">
       <c r="A414" s="10" t="s">
         <v>440</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="415" spans="1:6" hidden="1">
+    <row r="415" spans="1:6">
       <c r="A415" s="10" t="s">
         <v>440</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="416" spans="1:6" hidden="1">
+    <row r="416" spans="1:6">
       <c r="A416" s="10" t="s">
         <v>440</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1">
+    <row r="417" spans="1:5">
       <c r="A417" s="10" t="s">
         <v>440</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="30" hidden="1">
+    <row r="418" spans="1:5" ht="30">
       <c r="A418" s="10" t="s">
         <v>440</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="13.5" hidden="1" customHeight="1">
+    <row r="419" spans="1:5" ht="13.5" customHeight="1">
       <c r="A419" s="10" t="s">
         <v>440</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1">
+    <row r="420" spans="1:5">
       <c r="A420" s="10" t="s">
         <v>508</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="15" hidden="1" customHeight="1">
+    <row r="421" spans="1:5" ht="15" customHeight="1">
       <c r="A421" s="10" t="s">
         <v>508</v>
       </c>
@@ -15463,7 +15462,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1">
+    <row r="422" spans="1:5">
       <c r="A422" s="10" t="s">
         <v>508</v>
       </c>
@@ -15474,7 +15473,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1">
+    <row r="423" spans="1:5">
       <c r="A423" s="10" t="s">
         <v>508</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1">
+    <row r="424" spans="1:5">
       <c r="A424" s="10" t="s">
         <v>508</v>
       </c>
@@ -15496,7 +15495,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1">
+    <row r="425" spans="1:5">
       <c r="A425" s="10" t="s">
         <v>508</v>
       </c>
@@ -15507,7 +15506,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1">
+    <row r="426" spans="1:5">
       <c r="A426" s="10" t="s">
         <v>508</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1">
+    <row r="427" spans="1:5">
       <c r="A427" s="10" t="s">
         <v>508</v>
       </c>
@@ -15529,7 +15528,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1">
+    <row r="428" spans="1:5">
       <c r="A428" s="10" t="s">
         <v>508</v>
       </c>
@@ -15540,7 +15539,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="429" spans="1:5" hidden="1">
+    <row r="429" spans="1:5">
       <c r="A429" s="10" t="s">
         <v>508</v>
       </c>
@@ -15551,7 +15550,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1">
+    <row r="430" spans="1:5">
       <c r="A430" s="10" t="s">
         <v>508</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1">
+    <row r="431" spans="1:5">
       <c r="A431" s="10" t="s">
         <v>508</v>
       </c>
@@ -15573,7 +15572,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1">
+    <row r="432" spans="1:5">
       <c r="A432" s="10" t="s">
         <v>508</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="30" hidden="1">
+    <row r="433" spans="1:3" ht="30">
       <c r="A433" s="10" t="s">
         <v>508</v>
       </c>
@@ -15595,7 +15594,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="434" spans="1:3" hidden="1">
+    <row r="434" spans="1:3">
       <c r="A434" s="10" t="s">
         <v>508</v>
       </c>
@@ -15606,7 +15605,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="435" spans="1:3" hidden="1">
+    <row r="435" spans="1:3">
       <c r="A435" s="10" t="s">
         <v>508</v>
       </c>
@@ -15617,7 +15616,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="436" spans="1:3" hidden="1">
+    <row r="436" spans="1:3">
       <c r="A436" s="10" t="s">
         <v>508</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="437" spans="1:3" hidden="1">
+    <row r="437" spans="1:3">
       <c r="A437" s="10" t="s">
         <v>508</v>
       </c>
@@ -15639,7 +15638,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="438" spans="1:3" hidden="1">
+    <row r="438" spans="1:3">
       <c r="A438" s="10" t="s">
         <v>508</v>
       </c>
@@ -15650,7 +15649,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="439" spans="1:3" hidden="1">
+    <row r="439" spans="1:3">
       <c r="A439" s="10" t="s">
         <v>508</v>
       </c>
@@ -15661,7 +15660,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="440" spans="1:3" hidden="1">
+    <row r="440" spans="1:3">
       <c r="A440" s="10" t="s">
         <v>508</v>
       </c>
@@ -15672,7 +15671,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="441" spans="1:3" hidden="1">
+    <row r="441" spans="1:3">
       <c r="A441" s="10" t="s">
         <v>508</v>
       </c>
@@ -15683,7 +15682,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="442" spans="1:3" hidden="1">
+    <row r="442" spans="1:3">
       <c r="A442" s="10" t="s">
         <v>508</v>
       </c>
@@ -15694,7 +15693,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="443" spans="1:3" hidden="1">
+    <row r="443" spans="1:3">
       <c r="A443" s="10" t="s">
         <v>508</v>
       </c>
@@ -15705,7 +15704,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="444" spans="1:3" hidden="1">
+    <row r="444" spans="1:3">
       <c r="A444" s="10" t="s">
         <v>508</v>
       </c>
@@ -15716,7 +15715,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="445" spans="1:3" hidden="1">
+    <row r="445" spans="1:3">
       <c r="A445" s="10" t="s">
         <v>508</v>
       </c>
@@ -15727,7 +15726,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="446" spans="1:3" hidden="1">
+    <row r="446" spans="1:3">
       <c r="A446" s="10" t="s">
         <v>508</v>
       </c>
@@ -15738,7 +15737,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="447" spans="1:3" hidden="1">
+    <row r="447" spans="1:3">
       <c r="A447" s="10" t="s">
         <v>508</v>
       </c>
@@ -15749,7 +15748,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="448" spans="1:3" hidden="1">
+    <row r="448" spans="1:3">
       <c r="A448" s="10" t="s">
         <v>508</v>
       </c>
@@ -15760,7 +15759,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="449" spans="1:3" hidden="1">
+    <row r="449" spans="1:3">
       <c r="A449" s="10" t="s">
         <v>508</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="450" spans="1:3" hidden="1">
+    <row r="450" spans="1:3">
       <c r="A450" s="10" t="s">
         <v>508</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="451" spans="1:3" hidden="1">
+    <row r="451" spans="1:3">
       <c r="A451" s="10" t="s">
         <v>508</v>
       </c>
@@ -15793,7 +15792,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="452" spans="1:3" hidden="1">
+    <row r="452" spans="1:3">
       <c r="A452" s="10" t="s">
         <v>508</v>
       </c>
@@ -15804,7 +15803,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="14.25" hidden="1" customHeight="1">
+    <row r="453" spans="1:3" ht="14.25" customHeight="1">
       <c r="A453" s="10" t="s">
         <v>508</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="454" spans="1:3" hidden="1">
+    <row r="454" spans="1:3">
       <c r="A454" s="10" t="s">
         <v>508</v>
       </c>
@@ -15826,7 +15825,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="455" spans="1:3" hidden="1">
+    <row r="455" spans="1:3">
       <c r="A455" s="10" t="s">
         <v>508</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="456" spans="1:3" hidden="1">
+    <row r="456" spans="1:3">
       <c r="A456" s="10" t="s">
         <v>508</v>
       </c>
@@ -15848,7 +15847,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="457" spans="1:3" hidden="1">
+    <row r="457" spans="1:3">
       <c r="A457" s="10" t="s">
         <v>508</v>
       </c>
@@ -15859,7 +15858,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="458" spans="1:3" hidden="1">
+    <row r="458" spans="1:3">
       <c r="A458" s="10" t="s">
         <v>508</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="459" spans="1:3" hidden="1">
+    <row r="459" spans="1:3">
       <c r="A459" s="10" t="s">
         <v>508</v>
       </c>
@@ -15881,7 +15880,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="15.75" hidden="1" customHeight="1">
+    <row r="460" spans="1:3" ht="15.75" customHeight="1">
       <c r="A460" s="10" t="s">
         <v>508</v>
       </c>
@@ -15892,7 +15891,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="461" spans="1:3" hidden="1">
+    <row r="461" spans="1:3">
       <c r="A461" s="10" t="s">
         <v>508</v>
       </c>
@@ -15903,7 +15902,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="462" spans="1:3" hidden="1">
+    <row r="462" spans="1:3">
       <c r="A462" s="10" t="s">
         <v>508</v>
       </c>
@@ -15914,7 +15913,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="463" spans="1:3" hidden="1">
+    <row r="463" spans="1:3">
       <c r="A463" s="10" t="s">
         <v>508</v>
       </c>
@@ -15925,7 +15924,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="464" spans="1:3" hidden="1">
+    <row r="464" spans="1:3">
       <c r="A464" s="10" t="s">
         <v>508</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1">
+    <row r="465" spans="1:4">
       <c r="A465" s="10" t="s">
         <v>508</v>
       </c>
@@ -15950,7 +15949,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1">
+    <row r="466" spans="1:4">
       <c r="A466" s="10" t="s">
         <v>508</v>
       </c>
@@ -15964,7 +15963,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="467" spans="1:4" hidden="1">
+    <row r="467" spans="1:4">
       <c r="A467" s="10" t="s">
         <v>508</v>
       </c>
@@ -15978,7 +15977,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="468" spans="1:4" hidden="1">
+    <row r="468" spans="1:4">
       <c r="A468" s="10" t="s">
         <v>508</v>
       </c>
@@ -15989,7 +15988,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="469" spans="1:4" hidden="1">
+    <row r="469" spans="1:4">
       <c r="A469" s="10" t="s">
         <v>508</v>
       </c>
@@ -16000,7 +15999,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="470" spans="1:4" hidden="1">
+    <row r="470" spans="1:4">
       <c r="A470" s="10" t="s">
         <v>508</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1">
+    <row r="471" spans="1:4">
       <c r="A471" s="10" t="s">
         <v>508</v>
       </c>
@@ -16022,7 +16021,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1">
+    <row r="472" spans="1:4">
       <c r="A472" s="10" t="s">
         <v>508</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="15.75" hidden="1">
+    <row r="473" spans="1:4" ht="15.75">
       <c r="A473" s="10" t="s">
         <v>508</v>
       </c>
@@ -16047,7 +16046,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1">
+    <row r="474" spans="1:4">
       <c r="A474" s="10" t="s">
         <v>508</v>
       </c>
@@ -16058,7 +16057,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="475" spans="1:4" hidden="1">
+    <row r="475" spans="1:4">
       <c r="A475" s="10" t="s">
         <v>508</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="476" spans="1:4" hidden="1">
+    <row r="476" spans="1:4">
       <c r="A476" s="10" t="s">
         <v>508</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="15.75" hidden="1">
+    <row r="477" spans="1:4" ht="15.75">
       <c r="A477" s="10" t="s">
         <v>508</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="478" spans="1:4" hidden="1">
+    <row r="478" spans="1:4">
       <c r="A478" s="10" t="s">
         <v>508</v>
       </c>
@@ -16105,7 +16104,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="15" hidden="1" customHeight="1">
+    <row r="479" spans="1:4" ht="15" customHeight="1">
       <c r="A479" s="10" t="s">
         <v>508</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="480" spans="1:4" hidden="1">
+    <row r="480" spans="1:4">
       <c r="A480" s="10" t="s">
         <v>508</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="481" spans="1:3" hidden="1">
+    <row r="481" spans="1:3">
       <c r="A481" s="10" t="s">
         <v>508</v>
       </c>
@@ -16138,7 +16137,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="482" spans="1:3" hidden="1">
+    <row r="482" spans="1:3">
       <c r="A482" s="10" t="s">
         <v>508</v>
       </c>
@@ -16149,7 +16148,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="483" spans="1:3" hidden="1">
+    <row r="483" spans="1:3">
       <c r="A483" s="10" t="s">
         <v>508</v>
       </c>
@@ -16160,7 +16159,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="484" spans="1:3" hidden="1">
+    <row r="484" spans="1:3">
       <c r="A484" s="10" t="s">
         <v>508</v>
       </c>
@@ -16171,7 +16170,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="30" hidden="1">
+    <row r="485" spans="1:3" ht="30">
       <c r="A485" s="10" t="s">
         <v>508</v>
       </c>
@@ -16182,7 +16181,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="486" spans="1:3" hidden="1">
+    <row r="486" spans="1:3">
       <c r="A486" s="10" t="s">
         <v>508</v>
       </c>
@@ -16193,7 +16192,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="487" spans="1:3" hidden="1">
+    <row r="487" spans="1:3">
       <c r="A487" s="10" t="s">
         <v>508</v>
       </c>
@@ -16204,7 +16203,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="488" spans="1:3" hidden="1">
+    <row r="488" spans="1:3">
       <c r="A488" s="10" t="s">
         <v>508</v>
       </c>
@@ -16215,7 +16214,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="489" spans="1:3" hidden="1">
+    <row r="489" spans="1:3">
       <c r="A489" s="10" t="s">
         <v>508</v>
       </c>
@@ -16226,7 +16225,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="490" spans="1:3" hidden="1">
+    <row r="490" spans="1:3">
       <c r="A490" s="10" t="s">
         <v>508</v>
       </c>
@@ -16237,7 +16236,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="491" spans="1:3" hidden="1">
+    <row r="491" spans="1:3">
       <c r="A491" s="10" t="s">
         <v>508</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="492" spans="1:3" hidden="1">
+    <row r="492" spans="1:3">
       <c r="A492" s="10" t="s">
         <v>508</v>
       </c>
@@ -16259,7 +16258,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="493" spans="1:3" hidden="1">
+    <row r="493" spans="1:3">
       <c r="A493" s="10" t="s">
         <v>508</v>
       </c>
@@ -16270,7 +16269,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="494" spans="1:3" hidden="1">
+    <row r="494" spans="1:3">
       <c r="A494" s="10" t="s">
         <v>508</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="495" spans="1:3" hidden="1">
+    <row r="495" spans="1:3">
       <c r="A495" s="10" t="s">
         <v>508</v>
       </c>
@@ -16292,7 +16291,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="496" spans="1:3" hidden="1">
+    <row r="496" spans="1:3">
       <c r="A496" s="10" t="s">
         <v>508</v>
       </c>
@@ -16303,7 +16302,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="497" spans="1:3" hidden="1">
+    <row r="497" spans="1:3">
       <c r="A497" s="10" t="s">
         <v>508</v>
       </c>
@@ -16314,7 +16313,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="498" spans="1:3" hidden="1">
+    <row r="498" spans="1:3">
       <c r="A498" s="10" t="s">
         <v>508</v>
       </c>
@@ -16325,7 +16324,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="499" spans="1:3" hidden="1">
+    <row r="499" spans="1:3">
       <c r="A499" s="10" t="s">
         <v>508</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="500" spans="1:3" hidden="1">
+    <row r="500" spans="1:3">
       <c r="A500" s="10" t="s">
         <v>508</v>
       </c>
@@ -16347,7 +16346,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="30" hidden="1">
+    <row r="501" spans="1:3" ht="30">
       <c r="A501" s="10" t="s">
         <v>508</v>
       </c>
@@ -16358,7 +16357,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="502" spans="1:3" hidden="1">
+    <row r="502" spans="1:3">
       <c r="A502" s="10" t="s">
         <v>508</v>
       </c>
@@ -16369,7 +16368,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="503" spans="1:3" hidden="1">
+    <row r="503" spans="1:3">
       <c r="A503" s="10" t="s">
         <v>508</v>
       </c>
@@ -16380,7 +16379,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="504" spans="1:3" hidden="1">
+    <row r="504" spans="1:3">
       <c r="A504" s="10" t="s">
         <v>508</v>
       </c>
@@ -16391,7 +16390,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="505" spans="1:3" hidden="1">
+    <row r="505" spans="1:3">
       <c r="A505" s="10" t="s">
         <v>508</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="30" hidden="1">
+    <row r="506" spans="1:3" ht="30">
       <c r="A506" s="10" t="s">
         <v>508</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="507" spans="1:3" hidden="1">
+    <row r="507" spans="1:3">
       <c r="A507" s="10" t="s">
         <v>508</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="508" spans="1:3" hidden="1">
+    <row r="508" spans="1:3">
       <c r="A508" s="10" t="s">
         <v>508</v>
       </c>
@@ -16435,7 +16434,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="30" hidden="1">
+    <row r="509" spans="1:3" ht="30">
       <c r="A509" s="10" t="s">
         <v>508</v>
       </c>
@@ -16446,7 +16445,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="30" hidden="1">
+    <row r="510" spans="1:3" ht="30">
       <c r="A510" s="10" t="s">
         <v>508</v>
       </c>
@@ -16457,7 +16456,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="30" hidden="1">
+    <row r="511" spans="1:3" ht="30">
       <c r="A511" s="10" t="s">
         <v>508</v>
       </c>
@@ -16468,7 +16467,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="30" hidden="1">
+    <row r="512" spans="1:3" ht="30">
       <c r="A512" s="10" t="s">
         <v>508</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="513" spans="1:3" hidden="1">
+    <row r="513" spans="1:3">
       <c r="A513" s="10" t="s">
         <v>508</v>
       </c>
@@ -16490,7 +16489,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="514" spans="1:3" hidden="1">
+    <row r="514" spans="1:3">
       <c r="A514" s="10" t="s">
         <v>508</v>
       </c>
@@ -16501,7 +16500,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="515" spans="1:3" hidden="1">
+    <row r="515" spans="1:3">
       <c r="A515" s="10" t="s">
         <v>508</v>
       </c>
@@ -16512,7 +16511,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="30" hidden="1">
+    <row r="516" spans="1:3" ht="30">
       <c r="A516" s="10" t="s">
         <v>508</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="517" spans="1:3" hidden="1">
+    <row r="517" spans="1:3">
       <c r="A517" s="10" t="s">
         <v>508</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="518" spans="1:3" hidden="1">
+    <row r="518" spans="1:3">
       <c r="A518" s="10" t="s">
         <v>508</v>
       </c>
@@ -16545,7 +16544,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="30" hidden="1">
+    <row r="519" spans="1:3" ht="30">
       <c r="A519" s="10" t="s">
         <v>508</v>
       </c>
@@ -16556,7 +16555,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="520" spans="1:3" hidden="1">
+    <row r="520" spans="1:3">
       <c r="A520" s="10" t="s">
         <v>508</v>
       </c>
@@ -16567,7 +16566,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="521" spans="1:3" hidden="1">
+    <row r="521" spans="1:3">
       <c r="A521" s="10" t="s">
         <v>508</v>
       </c>
@@ -16578,7 +16577,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="522" spans="1:3" hidden="1">
+    <row r="522" spans="1:3">
       <c r="A522" s="10" t="s">
         <v>508</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="523" spans="1:3" hidden="1">
+    <row r="523" spans="1:3">
       <c r="A523" s="10" t="s">
         <v>508</v>
       </c>
@@ -16600,7 +16599,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="524" spans="1:3" hidden="1">
+    <row r="524" spans="1:3">
       <c r="A524" s="10" t="s">
         <v>508</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="525" spans="1:3" hidden="1">
+    <row r="525" spans="1:3">
       <c r="A525" s="10" t="s">
         <v>508</v>
       </c>
@@ -16622,7 +16621,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="526" spans="1:3" hidden="1">
+    <row r="526" spans="1:3">
       <c r="A526" s="10" t="s">
         <v>508</v>
       </c>
@@ -16633,7 +16632,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="527" spans="1:3" hidden="1">
+    <row r="527" spans="1:3">
       <c r="A527" s="10" t="s">
         <v>508</v>
       </c>
@@ -16644,7 +16643,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="30" hidden="1">
+    <row r="528" spans="1:3" ht="30">
       <c r="A528" s="10" t="s">
         <v>508</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="529" spans="1:3" hidden="1">
+    <row r="529" spans="1:3">
       <c r="A529" s="10" t="s">
         <v>508</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="530" spans="1:3" hidden="1">
+    <row r="530" spans="1:3">
       <c r="A530" s="10" t="s">
         <v>508</v>
       </c>
@@ -16677,7 +16676,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="531" spans="1:3" hidden="1">
+    <row r="531" spans="1:3">
       <c r="A531" s="10" t="s">
         <v>508</v>
       </c>
@@ -16688,7 +16687,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="532" spans="1:3" hidden="1">
+    <row r="532" spans="1:3">
       <c r="A532" s="10" t="s">
         <v>508</v>
       </c>
@@ -16699,7 +16698,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="533" spans="1:3" hidden="1">
+    <row r="533" spans="1:3">
       <c r="A533" s="10" t="s">
         <v>508</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="534" spans="1:3" hidden="1">
+    <row r="534" spans="1:3">
       <c r="A534" s="10" t="s">
         <v>508</v>
       </c>
@@ -16721,7 +16720,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="30" hidden="1">
+    <row r="535" spans="1:3" ht="30">
       <c r="A535" s="10" t="s">
         <v>508</v>
       </c>
@@ -16732,7 +16731,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="536" spans="1:3" hidden="1">
+    <row r="536" spans="1:3">
       <c r="A536" s="10" t="s">
         <v>508</v>
       </c>
@@ -16743,7 +16742,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="30" hidden="1">
+    <row r="537" spans="1:3" ht="30">
       <c r="A537" s="10" t="s">
         <v>508</v>
       </c>
@@ -16754,7 +16753,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="538" spans="1:3" hidden="1">
+    <row r="538" spans="1:3">
       <c r="A538" s="10" t="s">
         <v>508</v>
       </c>
@@ -16765,7 +16764,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="539" spans="1:3" hidden="1">
+    <row r="539" spans="1:3">
       <c r="A539" s="10" t="s">
         <v>508</v>
       </c>
@@ -16776,7 +16775,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="30" hidden="1">
+    <row r="540" spans="1:3" ht="30">
       <c r="A540" s="10" t="s">
         <v>508</v>
       </c>
@@ -16787,7 +16786,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="541" spans="1:3" hidden="1">
+    <row r="541" spans="1:3">
       <c r="A541" s="10" t="s">
         <v>508</v>
       </c>
@@ -16798,7 +16797,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="30" hidden="1">
+    <row r="542" spans="1:3" ht="30">
       <c r="A542" s="10" t="s">
         <v>508</v>
       </c>
@@ -16809,7 +16808,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="543" spans="1:3" hidden="1">
+    <row r="543" spans="1:3">
       <c r="A543" s="10" t="s">
         <v>508</v>
       </c>
@@ -16820,7 +16819,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="30" hidden="1">
+    <row r="544" spans="1:3" ht="30">
       <c r="A544" s="10" t="s">
         <v>508</v>
       </c>
@@ -16831,7 +16830,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="30" hidden="1">
+    <row r="545" spans="1:3" ht="30">
       <c r="A545" s="10" t="s">
         <v>508</v>
       </c>
@@ -16842,7 +16841,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="546" spans="1:3" hidden="1">
+    <row r="546" spans="1:3">
       <c r="A546" s="10" t="s">
         <v>508</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="30" hidden="1">
+    <row r="547" spans="1:3" ht="30">
       <c r="A547" s="10" t="s">
         <v>508</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="30" hidden="1">
+    <row r="548" spans="1:3" ht="30">
       <c r="A548" s="10" t="s">
         <v>508</v>
       </c>
@@ -16875,7 +16874,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="549" spans="1:3" hidden="1">
+    <row r="549" spans="1:3">
       <c r="A549" s="10" t="s">
         <v>508</v>
       </c>
@@ -16886,7 +16885,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="550" spans="1:3" hidden="1">
+    <row r="550" spans="1:3">
       <c r="A550" s="10" t="s">
         <v>508</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="551" spans="1:3" hidden="1">
+    <row r="551" spans="1:3">
       <c r="A551" s="10" t="s">
         <v>508</v>
       </c>
@@ -16908,7 +16907,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="552" spans="1:3" hidden="1">
+    <row r="552" spans="1:3">
       <c r="A552" s="10" t="s">
         <v>508</v>
       </c>
@@ -16919,7 +16918,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="553" spans="1:3" hidden="1">
+    <row r="553" spans="1:3">
       <c r="A553" s="10" t="s">
         <v>508</v>
       </c>
@@ -16930,7 +16929,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="554" spans="1:3" hidden="1">
+    <row r="554" spans="1:3">
       <c r="A554" s="10" t="s">
         <v>508</v>
       </c>
@@ -16941,7 +16940,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="555" spans="1:3" hidden="1">
+    <row r="555" spans="1:3">
       <c r="A555" s="10" t="s">
         <v>508</v>
       </c>
@@ -16952,7 +16951,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="556" spans="1:3" hidden="1">
+    <row r="556" spans="1:3">
       <c r="A556" s="10" t="s">
         <v>508</v>
       </c>
@@ -16963,7 +16962,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="30" hidden="1">
+    <row r="557" spans="1:3" ht="30">
       <c r="A557" s="10" t="s">
         <v>508</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="558" spans="1:3" hidden="1">
+    <row r="558" spans="1:3">
       <c r="A558" s="10" t="s">
         <v>508</v>
       </c>
@@ -16985,7 +16984,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="559" spans="1:3" hidden="1">
+    <row r="559" spans="1:3">
       <c r="A559" s="10" t="s">
         <v>508</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="560" spans="1:3" hidden="1">
+    <row r="560" spans="1:3">
       <c r="A560" s="10" t="s">
         <v>508</v>
       </c>
@@ -17007,7 +17006,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="30" hidden="1">
+    <row r="561" spans="1:3" ht="30">
       <c r="A561" s="10" t="s">
         <v>508</v>
       </c>
@@ -17018,7 +17017,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="562" spans="1:3" hidden="1">
+    <row r="562" spans="1:3">
       <c r="A562" s="10" t="s">
         <v>508</v>
       </c>
@@ -17029,7 +17028,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="563" spans="1:3" hidden="1">
+    <row r="563" spans="1:3">
       <c r="A563" s="10" t="s">
         <v>508</v>
       </c>
@@ -17040,7 +17039,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="564" spans="1:3" hidden="1">
+    <row r="564" spans="1:3">
       <c r="A564" s="10" t="s">
         <v>508</v>
       </c>
@@ -17051,7 +17050,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="565" spans="1:3" hidden="1">
+    <row r="565" spans="1:3">
       <c r="A565" s="10" t="s">
         <v>508</v>
       </c>
@@ -17062,7 +17061,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="566" spans="1:3" hidden="1">
+    <row r="566" spans="1:3">
       <c r="A566" s="10" t="s">
         <v>508</v>
       </c>
@@ -17073,7 +17072,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="567" spans="1:3" hidden="1">
+    <row r="567" spans="1:3">
       <c r="A567" s="10" t="s">
         <v>508</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="30" hidden="1">
+    <row r="568" spans="1:3" ht="30">
       <c r="A568" s="10" t="s">
         <v>508</v>
       </c>
@@ -17095,7 +17094,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="569" spans="1:3" hidden="1">
+    <row r="569" spans="1:3">
       <c r="A569" s="10" t="s">
         <v>508</v>
       </c>
@@ -17106,7 +17105,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="570" spans="1:3" hidden="1">
+    <row r="570" spans="1:3">
       <c r="A570" s="10" t="s">
         <v>508</v>
       </c>
@@ -17117,7 +17116,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="30" hidden="1">
+    <row r="571" spans="1:3" ht="30">
       <c r="A571" s="10" t="s">
         <v>508</v>
       </c>
@@ -17128,7 +17127,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="572" spans="1:3" hidden="1">
+    <row r="572" spans="1:3">
       <c r="A572" s="10" t="s">
         <v>508</v>
       </c>
@@ -17139,7 +17138,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="573" spans="1:3" hidden="1">
+    <row r="573" spans="1:3">
       <c r="A573" s="10" t="s">
         <v>508</v>
       </c>
@@ -17150,7 +17149,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="574" spans="1:3" hidden="1">
+    <row r="574" spans="1:3">
       <c r="A574" s="10" t="s">
         <v>508</v>
       </c>
@@ -17161,7 +17160,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="575" spans="1:3" hidden="1">
+    <row r="575" spans="1:3">
       <c r="A575" s="10" t="s">
         <v>508</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="576" spans="1:3" hidden="1">
+    <row r="576" spans="1:3">
       <c r="A576" s="10" t="s">
         <v>508</v>
       </c>
@@ -17183,7 +17182,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1">
+    <row r="577" spans="1:6">
       <c r="A577" s="10" t="s">
         <v>508</v>
       </c>
@@ -17194,7 +17193,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1">
+    <row r="578" spans="1:6">
       <c r="A578" s="10" t="s">
         <v>508</v>
       </c>
@@ -17205,7 +17204,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1">
+    <row r="579" spans="1:6">
       <c r="A579" s="10" t="s">
         <v>508</v>
       </c>
@@ -17216,7 +17215,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1">
+    <row r="580" spans="1:6">
       <c r="A580" s="10" t="s">
         <v>508</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="30" hidden="1">
+    <row r="581" spans="1:6" ht="30">
       <c r="A581" s="10" t="s">
         <v>508</v>
       </c>
@@ -17247,7 +17246,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1">
+    <row r="582" spans="1:6">
       <c r="A582" s="10" t="s">
         <v>508</v>
       </c>
@@ -17264,7 +17263,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="21.75" hidden="1" customHeight="1">
+    <row r="583" spans="1:6" ht="21.75" customHeight="1">
       <c r="A583" s="10" t="s">
         <v>508</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15.75" hidden="1">
+    <row r="591" spans="1:6" ht="15.75">
       <c r="A591" s="10" t="s">
         <v>707</v>
       </c>
@@ -17399,7 +17398,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="25.5" hidden="1" customHeight="1">
+    <row r="592" spans="1:6" ht="25.5" customHeight="1">
       <c r="A592" s="10" t="s">
         <v>707</v>
       </c>
@@ -17413,7 +17412,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="20.25" hidden="1" customHeight="1">
+    <row r="593" spans="1:6" ht="20.25" customHeight="1">
       <c r="A593" s="10" t="s">
         <v>707</v>
       </c>
@@ -17433,7 +17432,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="19.5" hidden="1" customHeight="1">
+    <row r="594" spans="1:6" ht="19.5" customHeight="1">
       <c r="A594" s="10" t="s">
         <v>707</v>
       </c>
@@ -17447,7 +17446,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="595" spans="1:6" hidden="1">
+    <row r="595" spans="1:6">
       <c r="A595" s="10" t="s">
         <v>707</v>
       </c>
@@ -17458,7 +17457,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="16.5" hidden="1" customHeight="1">
+    <row r="596" spans="1:6" ht="16.5" customHeight="1">
       <c r="A596" s="10" t="s">
         <v>707</v>
       </c>
@@ -17472,7 +17471,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="597" spans="1:6" ht="15.75" customHeight="1">
       <c r="A597" s="10" t="s">
         <v>707</v>
       </c>
@@ -17486,7 +17485,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="598" spans="1:6" hidden="1">
+    <row r="598" spans="1:6">
       <c r="A598" s="10" t="s">
         <v>725</v>
       </c>
@@ -17497,7 +17496,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15" hidden="1" customHeight="1">
+    <row r="599" spans="1:6" ht="15" customHeight="1">
       <c r="A599" s="10" t="s">
         <v>725</v>
       </c>
@@ -17511,7 +17510,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1">
+    <row r="600" spans="1:6">
       <c r="A600" s="10" t="s">
         <v>725</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="601" spans="1:6" hidden="1">
+    <row r="601" spans="1:6">
       <c r="A601" s="10" t="s">
         <v>725</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="17.25" hidden="1" customHeight="1">
+    <row r="602" spans="1:6" ht="17.25" customHeight="1">
       <c r="A602" s="10" t="s">
         <v>725</v>
       </c>
@@ -17547,7 +17546,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="603" spans="1:6" hidden="1">
+    <row r="603" spans="1:6">
       <c r="A603" s="10" t="s">
         <v>725</v>
       </c>
@@ -17561,7 +17560,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="604" spans="1:6" hidden="1">
+    <row r="604" spans="1:6">
       <c r="A604" s="10" t="s">
         <v>725</v>
       </c>
@@ -17575,7 +17574,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="605" spans="1:6" hidden="1">
+    <row r="605" spans="1:6">
       <c r="A605" s="10" t="s">
         <v>725</v>
       </c>
@@ -17589,7 +17588,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="606" spans="1:6" hidden="1">
+    <row r="606" spans="1:6">
       <c r="A606" s="10" t="s">
         <v>725</v>
       </c>
@@ -17600,7 +17599,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="607" spans="1:6" hidden="1">
+    <row r="607" spans="1:6">
       <c r="A607" s="10" t="s">
         <v>725</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1">
+    <row r="608" spans="1:6">
       <c r="A608" s="10" t="s">
         <v>725</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="609" spans="1:4" hidden="1">
+    <row r="609" spans="1:4">
       <c r="A609" s="10" t="s">
         <v>725</v>
       </c>
@@ -17633,7 +17632,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="610" spans="1:4" hidden="1">
+    <row r="610" spans="1:4">
       <c r="A610" s="10" t="s">
         <v>725</v>
       </c>
@@ -17644,7 +17643,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="611" spans="1:4" hidden="1">
+    <row r="611" spans="1:4">
       <c r="A611" s="10" t="s">
         <v>725</v>
       </c>
@@ -17655,7 +17654,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="612" spans="1:4" hidden="1">
+    <row r="612" spans="1:4">
       <c r="A612" s="10" t="s">
         <v>725</v>
       </c>
@@ -17666,7 +17665,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="613" spans="1:4" hidden="1">
+    <row r="613" spans="1:4">
       <c r="A613" s="10" t="s">
         <v>725</v>
       </c>
@@ -17677,7 +17676,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="614" spans="1:4" hidden="1">
+    <row r="614" spans="1:4">
       <c r="A614" s="10" t="s">
         <v>725</v>
       </c>
@@ -17688,7 +17687,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="615" spans="1:4" hidden="1">
+    <row r="615" spans="1:4">
       <c r="A615" s="10" t="s">
         <v>725</v>
       </c>
@@ -17699,7 +17698,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="616" spans="1:4" hidden="1">
+    <row r="616" spans="1:4">
       <c r="A616" s="10" t="s">
         <v>725</v>
       </c>
@@ -17710,7 +17709,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="617" spans="1:4" hidden="1">
+    <row r="617" spans="1:4">
       <c r="A617" s="10" t="s">
         <v>725</v>
       </c>
@@ -17721,7 +17720,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1">
+    <row r="618" spans="1:4">
       <c r="A618" s="10" t="s">
         <v>725</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1">
+    <row r="619" spans="1:4">
       <c r="A619" s="10" t="s">
         <v>725</v>
       </c>
@@ -17743,7 +17742,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1">
+    <row r="620" spans="1:4">
       <c r="A620" s="10" t="s">
         <v>725</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1">
+    <row r="621" spans="1:4">
       <c r="A621" s="10" t="s">
         <v>725</v>
       </c>
@@ -17768,7 +17767,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="622" spans="1:4" hidden="1">
+    <row r="622" spans="1:4">
       <c r="A622" s="10" t="s">
         <v>725</v>
       </c>
@@ -17779,7 +17778,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="623" spans="1:4" hidden="1">
+    <row r="623" spans="1:4">
       <c r="A623" s="10" t="s">
         <v>725</v>
       </c>
@@ -17793,7 +17792,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="624" spans="1:4" hidden="1">
+    <row r="624" spans="1:4">
       <c r="A624" s="10" t="s">
         <v>725</v>
       </c>
@@ -17804,7 +17803,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1">
+    <row r="625" spans="1:4">
       <c r="A625" s="10" t="s">
         <v>725</v>
       </c>
@@ -17818,7 +17817,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1">
+    <row r="626" spans="1:4">
       <c r="A626" s="10" t="s">
         <v>725</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1">
+    <row r="627" spans="1:4">
       <c r="A627" s="10" t="s">
         <v>725</v>
       </c>
@@ -17843,7 +17842,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1">
+    <row r="628" spans="1:4">
       <c r="A628" s="10" t="s">
         <v>725</v>
       </c>
@@ -17857,7 +17856,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1">
+    <row r="629" spans="1:4">
       <c r="A629" s="10" t="s">
         <v>725</v>
       </c>
@@ -17871,7 +17870,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1">
+    <row r="630" spans="1:4">
       <c r="A630" s="10" t="s">
         <v>725</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1">
+    <row r="631" spans="1:4">
       <c r="A631" s="10" t="s">
         <v>725</v>
       </c>
@@ -17893,7 +17892,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1">
+    <row r="632" spans="1:4">
       <c r="A632" s="10" t="s">
         <v>725</v>
       </c>
@@ -17904,7 +17903,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1">
+    <row r="633" spans="1:4">
       <c r="A633" s="10" t="s">
         <v>725</v>
       </c>
@@ -17915,7 +17914,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1">
+    <row r="634" spans="1:4">
       <c r="A634" s="10" t="s">
         <v>725</v>
       </c>
@@ -17926,7 +17925,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1">
+    <row r="635" spans="1:4">
       <c r="A635" s="10" t="s">
         <v>725</v>
       </c>
@@ -17940,7 +17939,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1">
+    <row r="636" spans="1:4">
       <c r="A636" s="10" t="s">
         <v>725</v>
       </c>
@@ -17951,7 +17950,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1">
+    <row r="637" spans="1:4">
       <c r="A637" s="10" t="s">
         <v>725</v>
       </c>
@@ -17965,7 +17964,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1">
+    <row r="638" spans="1:4">
       <c r="A638" s="10" t="s">
         <v>725</v>
       </c>
@@ -17979,7 +17978,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="639" spans="1:4" hidden="1">
+    <row r="639" spans="1:4">
       <c r="A639" s="10" t="s">
         <v>725</v>
       </c>
@@ -17993,7 +17992,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="640" spans="1:4" hidden="1">
+    <row r="640" spans="1:4">
       <c r="A640" s="10" t="s">
         <v>725</v>
       </c>
@@ -18004,7 +18003,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1">
+    <row r="641" spans="1:4">
       <c r="A641" s="10" t="s">
         <v>725</v>
       </c>
@@ -18015,7 +18014,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1">
+    <row r="642" spans="1:4">
       <c r="A642" s="10" t="s">
         <v>725</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1">
+    <row r="643" spans="1:4">
       <c r="A643" s="10" t="s">
         <v>725</v>
       </c>
@@ -18037,7 +18036,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1">
+    <row r="644" spans="1:4">
       <c r="A644" s="10" t="s">
         <v>725</v>
       </c>
@@ -18048,7 +18047,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="645" spans="1:4" hidden="1">
+    <row r="645" spans="1:4">
       <c r="A645" s="10" t="s">
         <v>725</v>
       </c>
@@ -18059,7 +18058,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="646" spans="1:4" hidden="1">
+    <row r="646" spans="1:4">
       <c r="A646" s="10" t="s">
         <v>725</v>
       </c>
@@ -18070,7 +18069,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="30" hidden="1">
+    <row r="647" spans="1:4" ht="30">
       <c r="A647" s="10" t="s">
         <v>725</v>
       </c>
@@ -18084,7 +18083,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1">
+    <row r="648" spans="1:4">
       <c r="A648" s="10" t="s">
         <v>725</v>
       </c>
@@ -18095,7 +18094,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1">
+    <row r="649" spans="1:4">
       <c r="A649" s="10" t="s">
         <v>725</v>
       </c>
@@ -18106,7 +18105,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1">
+    <row r="650" spans="1:4">
       <c r="A650" s="10" t="s">
         <v>725</v>
       </c>
@@ -18117,7 +18116,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1">
+    <row r="651" spans="1:4">
       <c r="A651" s="10" t="s">
         <v>725</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="30" hidden="1">
+    <row r="652" spans="1:4" ht="30">
       <c r="A652" s="10" t="s">
         <v>725</v>
       </c>
@@ -18139,7 +18138,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1">
+    <row r="653" spans="1:4">
       <c r="A653" s="10" t="s">
         <v>725</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1">
+    <row r="654" spans="1:4">
       <c r="A654" s="10" t="s">
         <v>725</v>
       </c>
@@ -18161,7 +18160,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1">
+    <row r="655" spans="1:4">
       <c r="A655" s="10" t="s">
         <v>725</v>
       </c>
@@ -18172,7 +18171,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1">
+    <row r="656" spans="1:4">
       <c r="A656" s="10" t="s">
         <v>725</v>
       </c>
@@ -18183,7 +18182,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="657" spans="1:5" hidden="1">
+    <row r="657" spans="1:5">
       <c r="A657" s="10" t="s">
         <v>725</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="658" spans="1:5" hidden="1">
+    <row r="658" spans="1:5">
       <c r="A658" s="10" t="s">
         <v>725</v>
       </c>
@@ -18205,7 +18204,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="659" spans="1:5" hidden="1">
+    <row r="659" spans="1:5">
       <c r="A659" s="10" t="s">
         <v>725</v>
       </c>
@@ -18216,7 +18215,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="27.75" hidden="1" customHeight="1">
+    <row r="660" spans="1:5" ht="27.75" customHeight="1">
       <c r="A660" s="10" t="s">
         <v>725</v>
       </c>
@@ -18233,7 +18232,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="661" spans="1:5" hidden="1">
+    <row r="661" spans="1:5">
       <c r="A661" s="10" t="s">
         <v>725</v>
       </c>
@@ -18244,7 +18243,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="662" spans="1:5" hidden="1">
+    <row r="662" spans="1:5">
       <c r="A662" s="10" t="s">
         <v>725</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="663" spans="1:5" hidden="1">
+    <row r="663" spans="1:5">
       <c r="A663" s="10" t="s">
         <v>725</v>
       </c>
@@ -18266,7 +18265,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="664" spans="1:5" hidden="1">
+    <row r="664" spans="1:5">
       <c r="A664" s="10" t="s">
         <v>725</v>
       </c>
@@ -18283,7 +18282,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="30" hidden="1">
+    <row r="665" spans="1:5" ht="30">
       <c r="A665" s="10" t="s">
         <v>725</v>
       </c>
@@ -18300,7 +18299,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="666" spans="1:5" hidden="1">
+    <row r="666" spans="1:5">
       <c r="A666" s="10" t="s">
         <v>811</v>
       </c>
@@ -18311,7 +18310,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="667" spans="1:5" hidden="1">
+    <row r="667" spans="1:5">
       <c r="A667" s="10" t="s">
         <v>811</v>
       </c>
@@ -18322,7 +18321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="668" spans="1:5" hidden="1">
+    <row r="668" spans="1:5">
       <c r="A668" s="10" t="s">
         <v>811</v>
       </c>
@@ -18333,7 +18332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="669" spans="1:5" hidden="1">
+    <row r="669" spans="1:5">
       <c r="A669" s="10" t="s">
         <v>811</v>
       </c>
@@ -18344,7 +18343,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="670" spans="1:5" hidden="1">
+    <row r="670" spans="1:5">
       <c r="A670" s="10" t="s">
         <v>811</v>
       </c>
@@ -18355,7 +18354,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="671" spans="1:5" hidden="1">
+    <row r="671" spans="1:5">
       <c r="A671" s="10" t="s">
         <v>811</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="672" spans="1:5" hidden="1">
+    <row r="672" spans="1:5">
       <c r="A672" s="10" t="s">
         <v>811</v>
       </c>
@@ -18377,7 +18376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="673" spans="1:3" hidden="1">
+    <row r="673" spans="1:3">
       <c r="A673" s="10" t="s">
         <v>811</v>
       </c>
@@ -18388,7 +18387,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="674" spans="1:3" hidden="1">
+    <row r="674" spans="1:3">
       <c r="A674" s="10" t="s">
         <v>811</v>
       </c>
@@ -18399,7 +18398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="675" spans="1:3" hidden="1">
+    <row r="675" spans="1:3">
       <c r="A675" s="10" t="s">
         <v>811</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="676" spans="1:3" hidden="1">
+    <row r="676" spans="1:3">
       <c r="A676" s="10" t="s">
         <v>811</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="677" spans="1:3" hidden="1">
+    <row r="677" spans="1:3">
       <c r="A677" s="10" t="s">
         <v>811</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="678" spans="1:3" hidden="1">
+    <row r="678" spans="1:3">
       <c r="A678" s="10" t="s">
         <v>811</v>
       </c>
@@ -18443,7 +18442,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="679" spans="1:3" hidden="1">
+    <row r="679" spans="1:3">
       <c r="A679" s="10" t="s">
         <v>811</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="680" spans="1:3" hidden="1">
+    <row r="680" spans="1:3">
       <c r="A680" s="10" t="s">
         <v>811</v>
       </c>
@@ -18465,7 +18464,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="681" spans="1:3" hidden="1">
+    <row r="681" spans="1:3">
       <c r="A681" s="10" t="s">
         <v>811</v>
       </c>
@@ -18476,7 +18475,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="682" spans="1:3" hidden="1">
+    <row r="682" spans="1:3">
       <c r="A682" s="10" t="s">
         <v>811</v>
       </c>
@@ -18487,7 +18486,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="683" spans="1:3" hidden="1">
+    <row r="683" spans="1:3">
       <c r="A683" s="10" t="s">
         <v>811</v>
       </c>
@@ -18498,7 +18497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="684" spans="1:3" hidden="1">
+    <row r="684" spans="1:3">
       <c r="A684" s="10" t="s">
         <v>811</v>
       </c>
@@ -18509,7 +18508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="685" spans="1:3" hidden="1">
+    <row r="685" spans="1:3">
       <c r="A685" s="10" t="s">
         <v>811</v>
       </c>
@@ -18520,7 +18519,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="686" spans="1:3" hidden="1">
+    <row r="686" spans="1:3">
       <c r="A686" s="10" t="s">
         <v>811</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="687" spans="1:3" hidden="1">
+    <row r="687" spans="1:3">
       <c r="A687" s="10" t="s">
         <v>811</v>
       </c>
@@ -18542,7 +18541,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="688" spans="1:3" hidden="1">
+    <row r="688" spans="1:3">
       <c r="A688" s="10" t="s">
         <v>811</v>
       </c>
@@ -18553,7 +18552,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="689" spans="1:3" hidden="1">
+    <row r="689" spans="1:3">
       <c r="A689" s="10" t="s">
         <v>811</v>
       </c>
@@ -18564,7 +18563,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="690" spans="1:3" hidden="1">
+    <row r="690" spans="1:3">
       <c r="A690" s="10" t="s">
         <v>811</v>
       </c>
@@ -18575,7 +18574,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="691" spans="1:3" hidden="1">
+    <row r="691" spans="1:3">
       <c r="A691" s="10" t="s">
         <v>811</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="692" spans="1:3" hidden="1">
+    <row r="692" spans="1:3">
       <c r="A692" s="10" t="s">
         <v>811</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="693" spans="1:3" hidden="1">
+    <row r="693" spans="1:3">
       <c r="A693" s="10" t="s">
         <v>811</v>
       </c>
@@ -18608,7 +18607,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="694" spans="1:3" hidden="1">
+    <row r="694" spans="1:3">
       <c r="A694" s="10" t="s">
         <v>811</v>
       </c>
@@ -18619,7 +18618,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="695" spans="1:3" hidden="1">
+    <row r="695" spans="1:3">
       <c r="A695" s="10" t="s">
         <v>811</v>
       </c>
@@ -18630,7 +18629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="696" spans="1:3" hidden="1">
+    <row r="696" spans="1:3">
       <c r="A696" s="10" t="s">
         <v>811</v>
       </c>
@@ -18641,7 +18640,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="697" spans="1:3" hidden="1">
+    <row r="697" spans="1:3">
       <c r="A697" s="10" t="s">
         <v>811</v>
       </c>
@@ -18652,7 +18651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="698" spans="1:3" hidden="1">
+    <row r="698" spans="1:3">
       <c r="A698" s="10" t="s">
         <v>811</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="699" spans="1:3" hidden="1">
+    <row r="699" spans="1:3">
       <c r="A699" s="10" t="s">
         <v>811</v>
       </c>
@@ -18674,7 +18673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="700" spans="1:3" hidden="1">
+    <row r="700" spans="1:3">
       <c r="A700" s="10" t="s">
         <v>811</v>
       </c>
@@ -18685,7 +18684,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="701" spans="1:3" hidden="1">
+    <row r="701" spans="1:3">
       <c r="A701" s="10" t="s">
         <v>811</v>
       </c>
@@ -18696,7 +18695,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="702" spans="1:3" hidden="1">
+    <row r="702" spans="1:3">
       <c r="A702" s="10" t="s">
         <v>811</v>
       </c>
@@ -18707,7 +18706,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="703" spans="1:3" hidden="1">
+    <row r="703" spans="1:3">
       <c r="A703" s="10" t="s">
         <v>811</v>
       </c>
@@ -18718,7 +18717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="704" spans="1:3" hidden="1">
+    <row r="704" spans="1:3">
       <c r="A704" s="10" t="s">
         <v>811</v>
       </c>
@@ -18729,7 +18728,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="705" spans="1:4" hidden="1">
+    <row r="705" spans="1:4">
       <c r="A705" s="10" t="s">
         <v>811</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1">
+    <row r="706" spans="1:4">
       <c r="A706" s="10" t="s">
         <v>811</v>
       </c>
@@ -18751,7 +18750,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1">
+    <row r="707" spans="1:4">
       <c r="A707" s="10" t="s">
         <v>811</v>
       </c>
@@ -18762,7 +18761,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1">
+    <row r="708" spans="1:4">
       <c r="A708" s="10" t="s">
         <v>811</v>
       </c>
@@ -18773,7 +18772,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1">
+    <row r="709" spans="1:4">
       <c r="A709" s="10" t="s">
         <v>811</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1">
+    <row r="710" spans="1:4">
       <c r="A710" s="10" t="s">
         <v>811</v>
       </c>
@@ -18798,7 +18797,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1">
+    <row r="711" spans="1:4">
       <c r="A711" s="10" t="s">
         <v>811</v>
       </c>
@@ -18809,7 +18808,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1">
+    <row r="712" spans="1:4">
       <c r="A712" s="10" t="s">
         <v>811</v>
       </c>
@@ -18820,7 +18819,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1">
+    <row r="713" spans="1:4">
       <c r="A713" s="10" t="s">
         <v>811</v>
       </c>
@@ -18831,7 +18830,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1">
+    <row r="714" spans="1:4">
       <c r="A714" s="10" t="s">
         <v>811</v>
       </c>
@@ -18845,7 +18844,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1">
+    <row r="715" spans="1:4">
       <c r="A715" s="10" t="s">
         <v>811</v>
       </c>
@@ -18856,7 +18855,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1">
+    <row r="716" spans="1:4">
       <c r="A716" s="10" t="s">
         <v>811</v>
       </c>
@@ -18870,7 +18869,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1">
+    <row r="717" spans="1:4">
       <c r="A717" s="10" t="s">
         <v>811</v>
       </c>
@@ -18884,7 +18883,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1">
+    <row r="718" spans="1:4">
       <c r="A718" s="10" t="s">
         <v>811</v>
       </c>
@@ -18895,7 +18894,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="719" spans="1:4" hidden="1">
+    <row r="719" spans="1:4">
       <c r="A719" s="10" t="s">
         <v>811</v>
       </c>
@@ -18906,7 +18905,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="720" spans="1:4" hidden="1">
+    <row r="720" spans="1:4">
       <c r="A720" s="10" t="s">
         <v>811</v>
       </c>
@@ -18917,7 +18916,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="721" spans="1:4" hidden="1">
+    <row r="721" spans="1:4">
       <c r="A721" s="10" t="s">
         <v>811</v>
       </c>
@@ -18928,7 +18927,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="722" spans="1:4" hidden="1">
+    <row r="722" spans="1:4">
       <c r="A722" s="10" t="s">
         <v>811</v>
       </c>
@@ -18939,7 +18938,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="723" spans="1:4" hidden="1">
+    <row r="723" spans="1:4">
       <c r="A723" s="10" t="s">
         <v>811</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="724" spans="1:4" hidden="1">
+    <row r="724" spans="1:4">
       <c r="A724" s="10" t="s">
         <v>811</v>
       </c>
@@ -18964,7 +18963,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="725" spans="1:4" hidden="1">
+    <row r="725" spans="1:4">
       <c r="A725" s="10" t="s">
         <v>811</v>
       </c>
@@ -18975,7 +18974,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="726" spans="1:4" hidden="1">
+    <row r="726" spans="1:4">
       <c r="A726" s="10" t="s">
         <v>811</v>
       </c>
@@ -18986,7 +18985,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="727" spans="1:4" hidden="1">
+    <row r="727" spans="1:4">
       <c r="A727" s="10" t="s">
         <v>811</v>
       </c>
@@ -18997,7 +18996,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="728" spans="1:4" hidden="1">
+    <row r="728" spans="1:4">
       <c r="A728" s="10" t="s">
         <v>811</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1">
+    <row r="729" spans="1:4">
       <c r="A729" s="10" t="s">
         <v>811</v>
       </c>
@@ -19019,7 +19018,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1">
+    <row r="730" spans="1:4">
       <c r="A730" s="10" t="s">
         <v>811</v>
       </c>
@@ -19030,7 +19029,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1">
+    <row r="731" spans="1:4">
       <c r="A731" s="10" t="s">
         <v>811</v>
       </c>
@@ -19041,7 +19040,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1">
+    <row r="732" spans="1:4">
       <c r="A732" s="10" t="s">
         <v>811</v>
       </c>
@@ -19052,7 +19051,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1">
+    <row r="733" spans="1:4">
       <c r="A733" s="10" t="s">
         <v>811</v>
       </c>
@@ -19063,7 +19062,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1">
+    <row r="734" spans="1:4">
       <c r="A734" s="10" t="s">
         <v>811</v>
       </c>
@@ -19074,7 +19073,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1">
+    <row r="735" spans="1:4">
       <c r="A735" s="10" t="s">
         <v>811</v>
       </c>
@@ -19085,7 +19084,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="18.75" hidden="1" customHeight="1">
+    <row r="736" spans="1:4" ht="18.75" customHeight="1">
       <c r="A736" s="10" t="s">
         <v>853</v>
       </c>
@@ -19096,7 +19095,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="737" spans="1:3" ht="18" customHeight="1">
       <c r="A737" s="10" t="s">
         <v>853</v>
       </c>
@@ -19107,7 +19106,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="738" spans="1:3" ht="18" customHeight="1">
       <c r="A738" s="10" t="s">
         <v>853</v>
       </c>
@@ -19118,7 +19117,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="739" spans="1:3" ht="18" customHeight="1">
       <c r="A739" s="10" t="s">
         <v>853</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="740" spans="1:3" ht="18" customHeight="1">
       <c r="A740" s="10" t="s">
         <v>853</v>
       </c>
@@ -19140,7 +19139,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="741" spans="1:3" ht="18" customHeight="1">
       <c r="A741" s="10" t="s">
         <v>853</v>
       </c>
@@ -19151,7 +19150,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="742" spans="1:3" ht="18" customHeight="1">
       <c r="A742" s="10" t="s">
         <v>853</v>
       </c>
@@ -19162,7 +19161,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="743" spans="1:3" ht="18" customHeight="1">
       <c r="A743" s="10" t="s">
         <v>853</v>
       </c>
@@ -19173,7 +19172,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="744" spans="1:3" ht="18" customHeight="1">
       <c r="A744" s="10" t="s">
         <v>853</v>
       </c>
@@ -19184,7 +19183,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="745" spans="1:3" ht="18" customHeight="1">
       <c r="A745" s="10" t="s">
         <v>853</v>
       </c>
@@ -19195,7 +19194,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="746" spans="1:3" ht="18" customHeight="1">
       <c r="A746" s="10" t="s">
         <v>853</v>
       </c>
@@ -19206,7 +19205,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="747" spans="1:3" ht="18" customHeight="1">
       <c r="A747" s="10" t="s">
         <v>853</v>
       </c>
@@ -19217,7 +19216,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="748" spans="1:3" ht="18" customHeight="1">
       <c r="A748" s="10" t="s">
         <v>853</v>
       </c>
@@ -19228,7 +19227,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="749" spans="1:3" ht="18" customHeight="1">
       <c r="A749" s="10" t="s">
         <v>853</v>
       </c>
@@ -19239,7 +19238,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="750" spans="1:3" ht="18" customHeight="1">
       <c r="A750" s="10" t="s">
         <v>853</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="751" spans="1:3" ht="18" customHeight="1">
       <c r="A751" s="10" t="s">
         <v>853</v>
       </c>
@@ -19261,7 +19260,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="752" spans="1:3" ht="18" customHeight="1">
       <c r="A752" s="10" t="s">
         <v>853</v>
       </c>
@@ -19272,7 +19271,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="753" spans="1:3" ht="18" customHeight="1">
       <c r="A753" s="10" t="s">
         <v>853</v>
       </c>
@@ -19283,7 +19282,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="754" spans="1:3" ht="18" customHeight="1">
       <c r="A754" s="10" t="s">
         <v>853</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="755" spans="1:3" ht="18" customHeight="1">
       <c r="A755" s="10" t="s">
         <v>853</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="756" spans="1:3" ht="18" customHeight="1">
       <c r="A756" s="10" t="s">
         <v>853</v>
       </c>
@@ -19316,7 +19315,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="757" spans="1:3" ht="18" customHeight="1">
       <c r="A757" s="10" t="s">
         <v>853</v>
       </c>
@@ -19327,7 +19326,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="758" spans="1:3" ht="18" customHeight="1">
       <c r="A758" s="10" t="s">
         <v>853</v>
       </c>
@@ -19338,7 +19337,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="759" spans="1:3" ht="18" customHeight="1">
       <c r="A759" s="10" t="s">
         <v>853</v>
       </c>
@@ -19349,7 +19348,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="760" spans="1:3" ht="18" customHeight="1">
       <c r="A760" s="10" t="s">
         <v>853</v>
       </c>
@@ -19360,7 +19359,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="761" spans="1:3" ht="18" customHeight="1">
       <c r="A761" s="10" t="s">
         <v>853</v>
       </c>
@@ -19371,7 +19370,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="762" spans="1:3" ht="18" customHeight="1">
       <c r="A762" s="10" t="s">
         <v>853</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="763" spans="1:3" ht="18" customHeight="1">
       <c r="A763" s="10" t="s">
         <v>853</v>
       </c>
@@ -19393,7 +19392,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="764" spans="1:3" ht="18" customHeight="1">
       <c r="A764" s="10" t="s">
         <v>853</v>
       </c>
@@ -19404,7 +19403,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="765" spans="1:3" ht="18" customHeight="1">
       <c r="A765" s="10" t="s">
         <v>853</v>
       </c>
@@ -19415,7 +19414,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="766" spans="1:3" ht="18" customHeight="1">
       <c r="A766" s="10" t="s">
         <v>853</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="767" spans="1:3" ht="18" customHeight="1">
       <c r="A767" s="10" t="s">
         <v>853</v>
       </c>
@@ -19437,7 +19436,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="18" hidden="1" customHeight="1">
+    <row r="768" spans="1:3" ht="18" customHeight="1">
       <c r="A768" s="10" t="s">
         <v>853</v>
       </c>
@@ -19448,7 +19447,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="769" spans="1:4" ht="18" customHeight="1">
       <c r="A769" s="10" t="s">
         <v>853</v>
       </c>
@@ -19459,7 +19458,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="770" spans="1:4" ht="18" customHeight="1">
       <c r="A770" s="10" t="s">
         <v>853</v>
       </c>
@@ -19470,7 +19469,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="771" spans="1:4" ht="18" customHeight="1">
       <c r="A771" s="10" t="s">
         <v>853</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="772" spans="1:4" ht="18" customHeight="1">
       <c r="A772" s="10" t="s">
         <v>853</v>
       </c>
@@ -19492,7 +19491,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="773" spans="1:4" ht="18" customHeight="1">
       <c r="A773" s="10" t="s">
         <v>853</v>
       </c>
@@ -19503,7 +19502,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="774" spans="1:4" ht="18" customHeight="1">
       <c r="A774" s="10" t="s">
         <v>853</v>
       </c>
@@ -19517,7 +19516,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="775" spans="1:4" ht="18" customHeight="1">
       <c r="A775" s="10" t="s">
         <v>853</v>
       </c>
@@ -19528,7 +19527,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="776" spans="1:4" ht="18" customHeight="1">
       <c r="A776" s="10" t="s">
         <v>853</v>
       </c>
@@ -19539,7 +19538,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="777" spans="1:4" ht="18" customHeight="1">
       <c r="A777" s="10" t="s">
         <v>853</v>
       </c>
@@ -19550,7 +19549,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="778" spans="1:4" ht="18" customHeight="1">
       <c r="A778" s="10" t="s">
         <v>853</v>
       </c>
@@ -19561,7 +19560,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="779" spans="1:4" ht="18" customHeight="1">
       <c r="A779" s="10" t="s">
         <v>853</v>
       </c>
@@ -19572,7 +19571,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="780" spans="1:4" ht="18" customHeight="1">
       <c r="A780" s="10" t="s">
         <v>853</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="781" spans="1:4" ht="18" customHeight="1">
       <c r="A781" s="10" t="s">
         <v>853</v>
       </c>
@@ -19594,7 +19593,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="782" spans="1:4" ht="18" customHeight="1">
       <c r="A782" s="10" t="s">
         <v>853</v>
       </c>
@@ -19605,7 +19604,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="783" spans="1:4" ht="18" customHeight="1">
       <c r="A783" s="10" t="s">
         <v>853</v>
       </c>
@@ -19616,7 +19615,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="18" hidden="1" customHeight="1">
+    <row r="784" spans="1:4" ht="18" customHeight="1">
       <c r="A784" s="10" t="s">
         <v>853</v>
       </c>
@@ -19627,7 +19626,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="18" hidden="1" customHeight="1">
+    <row r="785" spans="1:5" ht="18" customHeight="1">
       <c r="A785" s="10" t="s">
         <v>853</v>
       </c>
@@ -19638,7 +19637,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="18" hidden="1" customHeight="1">
+    <row r="786" spans="1:5" ht="18" customHeight="1">
       <c r="A786" s="10" t="s">
         <v>853</v>
       </c>
@@ -19649,7 +19648,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="787" spans="1:5" hidden="1">
+    <row r="787" spans="1:5">
       <c r="A787" s="10" t="s">
         <v>853</v>
       </c>
@@ -19660,7 +19659,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="788" spans="1:5" hidden="1">
+    <row r="788" spans="1:5">
       <c r="A788" s="10" t="s">
         <v>853</v>
       </c>
@@ -19671,7 +19670,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="789" spans="1:5" hidden="1">
+    <row r="789" spans="1:5">
       <c r="A789" s="10" t="s">
         <v>853</v>
       </c>
@@ -19682,7 +19681,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="790" spans="1:5" hidden="1">
+    <row r="790" spans="1:5">
       <c r="A790" s="10" t="s">
         <v>853</v>
       </c>
@@ -19693,7 +19692,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="791" spans="1:5" hidden="1">
+    <row r="791" spans="1:5">
       <c r="A791" s="10" t="s">
         <v>853</v>
       </c>
@@ -19704,7 +19703,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="792" spans="1:5" hidden="1">
+    <row r="792" spans="1:5">
       <c r="A792" s="10" t="s">
         <v>853</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="793" spans="1:5" hidden="1">
+    <row r="793" spans="1:5">
       <c r="A793" s="10" t="s">
         <v>853</v>
       </c>
@@ -19726,7 +19725,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="794" spans="1:5" hidden="1">
+    <row r="794" spans="1:5">
       <c r="A794" s="10" t="s">
         <v>911</v>
       </c>
@@ -19734,7 +19733,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="60" hidden="1">
+    <row r="795" spans="1:5" ht="60">
       <c r="A795" s="10" t="s">
         <v>913</v>
       </c>
@@ -19751,7 +19750,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="30" hidden="1">
+    <row r="796" spans="1:5" ht="30">
       <c r="A796" s="10" t="s">
         <v>917</v>
       </c>
@@ -19769,13 +19768,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F796" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Transforms"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F796" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19831,7 +19824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -20014,8 +20007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A45" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
